--- a/Data Sets/Analysis Data/Community Profiles Compiled.xlsx
+++ b/Data Sets/Analysis Data/Community Profiles Compiled.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofc-my.sharepoint.com/personal/fahmid_kaisar_ucalgary_ca/Documents/Calgary Transit Repository/Data Sets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4249" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F239278-3351-419C-AADA-F3E87C59D692}"/>
+  <xr:revisionPtr revIDLastSave="4302" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BA701C8-00B3-4343-A32B-8786D088487A}"/>
   <bookViews>
     <workbookView xWindow="13380" yWindow="500" windowWidth="15420" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="253">
   <si>
     <t>Community Name</t>
   </si>
@@ -464,7 +464,7 @@
     <t>Inglewood</t>
   </si>
   <si>
-    <t>Kelvin Groove</t>
+    <t>Kelvin Grove</t>
   </si>
   <si>
     <t>Killarney/Glengarry</t>
@@ -731,6 +731,9 @@
     <t>Sunnyside</t>
   </si>
   <si>
+    <t xml:space="preserve">Sunualta </t>
+  </si>
+  <si>
     <t>Taradale</t>
   </si>
   <si>
@@ -807,7 +810,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -901,6 +904,16 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="51">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1649,16 +1662,6 @@
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -1690,70 +1693,74 @@
 </externalLink>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0554B52F-7523-4D92-8A4F-3A541CFE75ED}" name="Table1" displayName="Table1" ref="A1:AV267" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48" dataCellStyle="Comma">
-  <autoFilter ref="A1:AV267" xr:uid="{0554B52F-7523-4D92-8A4F-3A541CFE75ED}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AV267">
-    <sortCondition ref="A1:A267"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0554B52F-7523-4D92-8A4F-3A541CFE75ED}" name="Table1" displayName="Table1" ref="A1:AV268" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49" dataCellStyle="Comma">
+  <autoFilter ref="A1:AV268" xr:uid="{0554B52F-7523-4D92-8A4F-3A541CFE75ED}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AV268">
+    <sortCondition ref="A1:A268"/>
   </sortState>
   <tableColumns count="48">
-    <tableColumn id="1" xr3:uid="{8182D215-916C-42EC-B99B-14E302E3E04D}" name="Community Name" dataDxfId="47" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{3F42D71E-65AB-4D09-813C-D3185A1C7BC7}" name="Population in private households" dataDxfId="46" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{C1617591-88EE-40E3-9F5E-A50C22F66D28}" name="0 to 14 years" dataDxfId="45" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{886D05B6-DF62-40A2-AC8F-10D389B1C716}" name="65 to 84 years" dataDxfId="44" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{336EEC74-616A-44B9-BADF-53A3507AFE08}" name="85 years and over" dataDxfId="43" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{BA2DE518-AA82-4432-9620-76472270DE7B}" name="Population aged 15 years and over in private households" dataDxfId="42" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{D22E1B94-D5BD-4B64-BEFC-47CD46B9BB0C}" name="In the labor force" dataDxfId="41" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{B12DD9DF-3B22-446E-8606-CACB9F90EA04}" name="Employed" dataDxfId="40" dataCellStyle="Comma"/>
-    <tableColumn id="9" xr3:uid="{8EA481CF-4BAF-4ECD-8C6B-6F28B7386897}" name="Self-Employed" dataDxfId="39" dataCellStyle="Comma"/>
-    <tableColumn id="10" xr3:uid="{599DD444-829E-4EEE-96BE-3D23DAE6B07B}" name="Unemployed" dataDxfId="38" dataCellStyle="Comma"/>
-    <tableColumn id="11" xr3:uid="{CAB5CEA7-F79D-4A66-B683-AD16721B110B}" name="Median income of population aged 15 years and over" dataDxfId="37" dataCellStyle="Comma"/>
-    <tableColumn id="12" xr3:uid="{8989A382-4F5C-4B91-AF30-7D556D3E28CB}" name="Median household income of private households" dataDxfId="36" dataCellStyle="Comma"/>
-    <tableColumn id="13" xr3:uid="{B7E3F930-9CDA-4CD2-8885-FB04C703EA05}" name="Private households" dataDxfId="35" dataCellStyle="Comma"/>
-    <tableColumn id="14" xr3:uid="{948A99FD-70C4-4966-B40D-80BF15732AA2}" name="Under $20,000" dataDxfId="34" dataCellStyle="Comma"/>
-    <tableColumn id="15" xr3:uid="{8E1672FA-7124-4CE9-B7CB-4CD43AE50060}" name="$20,000 to $39,999" dataDxfId="33" dataCellStyle="Comma"/>
-    <tableColumn id="16" xr3:uid="{116C91C2-B01F-48DD-AA3C-6DD46EBB79DB}" name="Population in private households to whom low income concepts are applicable (Number)" dataDxfId="32" dataCellStyle="Comma"/>
-    <tableColumn id="17" xr3:uid="{FD702D0F-47E4-4240-B942-A157CD0E5B34}" name="Population in private households to whom low income concepts are applicable (Number in low income)" dataDxfId="31" dataCellStyle="Comma"/>
-    <tableColumn id="18" xr3:uid="{05F3022E-BD7E-4347-BD9A-6C70C458DC3F}" name="0 to 17 years (Number)" dataDxfId="30" dataCellStyle="Comma"/>
-    <tableColumn id="19" xr3:uid="{2F191BD5-7BE8-4767-A393-33CF9E4E4C3D}" name="0 to 17 years (Number in low income)" dataDxfId="29" dataCellStyle="Comma"/>
-    <tableColumn id="20" xr3:uid="{7875B7C8-AB66-44F4-AE28-398C4D1ADE07}" name="18 to 64 years (Number)" dataDxfId="28" dataCellStyle="Comma"/>
-    <tableColumn id="21" xr3:uid="{E1272A4A-3DEE-442D-B70B-5C27E18F7A67}" name="18 to 64 years (Number in low income)" dataDxfId="27" dataCellStyle="Comma"/>
-    <tableColumn id="22" xr3:uid="{09CD73BC-E9EA-4705-A129-F2A2488932F0}" name="65 years and over (Number)" dataDxfId="26" dataCellStyle="Comma"/>
-    <tableColumn id="23" xr3:uid="{0F01B958-CBB2-453D-8D48-9218E9927AC3}" name="65 years and over (Number in low income)" dataDxfId="25" dataCellStyle="Comma"/>
-    <tableColumn id="24" xr3:uid="{9F6BD342-92EF-4440-9482-28172CF807E8}" name="Private households with income" dataDxfId="24" dataCellStyle="Comma"/>
-    <tableColumn id="25" xr3:uid="{302A01A8-0F0E-4A7D-9EB6-0EE6B3767992}" name="Households spending less than 30% of total income on shelter" dataDxfId="23" dataCellStyle="Comma"/>
-    <tableColumn id="26" xr3:uid="{1AADA4E3-3FF0-489B-867B-011AED58A920}" name="Private households with total income greater than zero (Owner)" dataDxfId="22" dataCellStyle="Comma"/>
-    <tableColumn id="27" xr3:uid="{D06CF821-7F03-48DC-BE74-49F838A327EE}" name="Private households with total income greater than zero (Renter)" dataDxfId="21" dataCellStyle="Comma"/>
-    <tableColumn id="28" xr3:uid="{4CFBA4F0-DDB2-4440-B4C5-247E6BBB0113}" name="Per cent households with income spending 30% or more total income on shelter (Owner)" dataDxfId="20" dataCellStyle="Percent"/>
-    <tableColumn id="29" xr3:uid="{0C0113B5-0F9E-4D43-9BC3-E25EA4D68C76}" name="Per cent households with income spending 30% or more total income on shelter (Renter)" dataDxfId="19" dataCellStyle="Percent"/>
-    <tableColumn id="30" xr3:uid="{F927FD5E-E885-414D-A53E-3D1B4A98F6A9}" name="Employed labour force aged 15 years and over in private households" dataDxfId="18" dataCellStyle="Comma"/>
-    <tableColumn id="31" xr3:uid="{F79F7CFB-C62E-4A6C-B0CB-5D11DCE7D1FF}" name="Driver – car, truck or van" dataDxfId="17" dataCellStyle="Comma"/>
-    <tableColumn id="32" xr3:uid="{F3F9BC00-94F0-4583-B095-06C3AB8ECA8C}" name="Passenger – car, truck or van" dataDxfId="16" dataCellStyle="Comma"/>
-    <tableColumn id="33" xr3:uid="{888483BF-E512-46A9-AB06-DEFE8787FD84}" name="Public transit" dataDxfId="15" dataCellStyle="Comma"/>
-    <tableColumn id="34" xr3:uid="{021976D8-B2F9-4633-8EB1-697E4FBE7075}" name="Walked" dataDxfId="14" dataCellStyle="Comma"/>
-    <tableColumn id="35" xr3:uid="{783BFFB1-6A05-4D60-8C42-57DAFA7EE7AA}" name="Bicycle" dataDxfId="13" dataCellStyle="Comma"/>
-    <tableColumn id="36" xr3:uid="{4B6B0580-D2BA-4BAA-B141-95833D20CB8B}" name="Other methods" dataDxfId="12" dataCellStyle="Comma"/>
-    <tableColumn id="37" xr3:uid="{D4AE9B79-151B-4441-8934-9ECFF51BC427}" name="Employed labour force aged 15 years and over in private households2" dataDxfId="11" dataCellStyle="Comma"/>
-    <tableColumn id="38" xr3:uid="{250FB676-DD35-4B6B-ADDE-7FE110E9E1A9}" name="Less than 15 minutes" dataDxfId="10" dataCellStyle="Comma"/>
-    <tableColumn id="39" xr3:uid="{2E3043F4-0FFC-4B38-9463-2EC3B0B1015A}" name="15 to 29 minutes" dataDxfId="9" dataCellStyle="Comma"/>
-    <tableColumn id="40" xr3:uid="{47640BCE-0EFF-49BD-8925-8459981A5540}" name="30 to 44 minutes" dataDxfId="8" dataCellStyle="Comma"/>
-    <tableColumn id="41" xr3:uid="{58D83A46-4657-439B-BC9B-3E1A0EE9A02D}" name="45 to 59 minutes" dataDxfId="7" dataCellStyle="Comma"/>
-    <tableColumn id="42" xr3:uid="{36AD81E0-D387-4776-BB28-ADD8A2FA5695}" name="Employed labour force aged 15 years and over in private households3" dataDxfId="6" dataCellStyle="Comma"/>
-    <tableColumn id="43" xr3:uid="{3306C104-8323-4179-9107-39EEA481D3AE}" name="Between 5 a.m. and 5:59 a.m." dataDxfId="5" dataCellStyle="Comma"/>
-    <tableColumn id="44" xr3:uid="{CF193E15-3C74-4E0A-9B8B-280DCDAB8F47}" name="Between 6 a.m. and 6:59 a.m." dataDxfId="4" dataCellStyle="Comma"/>
-    <tableColumn id="45" xr3:uid="{EF792701-9F1E-405C-B247-67AD978F5D01}" name="Between 7 a.m. and 7:59 a.m." dataDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="46" xr3:uid="{BC1E6678-74A8-4765-9DB7-C122BD73087C}" name="Between 8 a.m. and 8:59 a.m." dataDxfId="2" dataCellStyle="Comma"/>
-    <tableColumn id="47" xr3:uid="{B14B21C6-3587-48ED-9A89-46E7833217C0}" name="Between 9 a.m. and 11:59 a.m." dataDxfId="1" dataCellStyle="Comma"/>
-    <tableColumn id="48" xr3:uid="{ABF1530D-14F6-4F3A-95FA-819588B4958E}" name="Between 12 p.m. and 4:59 a.m." dataDxfId="0" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{8182D215-916C-42EC-B99B-14E302E3E04D}" name="Community Name" dataDxfId="48" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{3F42D71E-65AB-4D09-813C-D3185A1C7BC7}" name="Population in private households" dataDxfId="47" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{C1617591-88EE-40E3-9F5E-A50C22F66D28}" name="0 to 14 years" dataDxfId="46" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{886D05B6-DF62-40A2-AC8F-10D389B1C716}" name="65 to 84 years" dataDxfId="45" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{336EEC74-616A-44B9-BADF-53A3507AFE08}" name="85 years and over" dataDxfId="44" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{BA2DE518-AA82-4432-9620-76472270DE7B}" name="Population aged 15 years and over in private households" dataDxfId="43" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{D22E1B94-D5BD-4B64-BEFC-47CD46B9BB0C}" name="In the labor force" dataDxfId="42" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{B12DD9DF-3B22-446E-8606-CACB9F90EA04}" name="Employed" dataDxfId="41" dataCellStyle="Comma"/>
+    <tableColumn id="9" xr3:uid="{8EA481CF-4BAF-4ECD-8C6B-6F28B7386897}" name="Self-Employed" dataDxfId="40" dataCellStyle="Comma"/>
+    <tableColumn id="10" xr3:uid="{599DD444-829E-4EEE-96BE-3D23DAE6B07B}" name="Unemployed" dataDxfId="39" dataCellStyle="Comma"/>
+    <tableColumn id="11" xr3:uid="{CAB5CEA7-F79D-4A66-B683-AD16721B110B}" name="Median income of population aged 15 years and over" dataDxfId="38" dataCellStyle="Comma"/>
+    <tableColumn id="12" xr3:uid="{8989A382-4F5C-4B91-AF30-7D556D3E28CB}" name="Median household income of private households" dataDxfId="37" dataCellStyle="Comma"/>
+    <tableColumn id="13" xr3:uid="{B7E3F930-9CDA-4CD2-8885-FB04C703EA05}" name="Private households" dataDxfId="36" dataCellStyle="Comma"/>
+    <tableColumn id="14" xr3:uid="{948A99FD-70C4-4966-B40D-80BF15732AA2}" name="Under $20,000" dataDxfId="35" dataCellStyle="Comma"/>
+    <tableColumn id="15" xr3:uid="{8E1672FA-7124-4CE9-B7CB-4CD43AE50060}" name="$20,000 to $39,999" dataDxfId="34" dataCellStyle="Comma"/>
+    <tableColumn id="16" xr3:uid="{116C91C2-B01F-48DD-AA3C-6DD46EBB79DB}" name="Population in private households to whom low income concepts are applicable (Number)" dataDxfId="33" dataCellStyle="Comma"/>
+    <tableColumn id="17" xr3:uid="{FD702D0F-47E4-4240-B942-A157CD0E5B34}" name="Population in private households to whom low income concepts are applicable (Number in low income)" dataDxfId="32" dataCellStyle="Comma"/>
+    <tableColumn id="18" xr3:uid="{05F3022E-BD7E-4347-BD9A-6C70C458DC3F}" name="0 to 17 years (Number)" dataDxfId="31" dataCellStyle="Comma"/>
+    <tableColumn id="19" xr3:uid="{2F191BD5-7BE8-4767-A393-33CF9E4E4C3D}" name="0 to 17 years (Number in low income)" dataDxfId="30" dataCellStyle="Comma"/>
+    <tableColumn id="20" xr3:uid="{7875B7C8-AB66-44F4-AE28-398C4D1ADE07}" name="18 to 64 years (Number)" dataDxfId="29" dataCellStyle="Comma"/>
+    <tableColumn id="21" xr3:uid="{E1272A4A-3DEE-442D-B70B-5C27E18F7A67}" name="18 to 64 years (Number in low income)" dataDxfId="28" dataCellStyle="Comma"/>
+    <tableColumn id="22" xr3:uid="{09CD73BC-E9EA-4705-A129-F2A2488932F0}" name="65 years and over (Number)" dataDxfId="27" dataCellStyle="Comma"/>
+    <tableColumn id="23" xr3:uid="{0F01B958-CBB2-453D-8D48-9218E9927AC3}" name="65 years and over (Number in low income)" dataDxfId="26" dataCellStyle="Comma"/>
+    <tableColumn id="24" xr3:uid="{9F6BD342-92EF-4440-9482-28172CF807E8}" name="Private households with income" dataDxfId="25" dataCellStyle="Comma"/>
+    <tableColumn id="25" xr3:uid="{302A01A8-0F0E-4A7D-9EB6-0EE6B3767992}" name="Households spending less than 30% of total income on shelter" dataDxfId="24" dataCellStyle="Comma"/>
+    <tableColumn id="26" xr3:uid="{1AADA4E3-3FF0-489B-867B-011AED58A920}" name="Private households with total income greater than zero (Owner)" dataDxfId="23" dataCellStyle="Comma"/>
+    <tableColumn id="27" xr3:uid="{D06CF821-7F03-48DC-BE74-49F838A327EE}" name="Private households with total income greater than zero (Renter)" dataDxfId="22" dataCellStyle="Comma"/>
+    <tableColumn id="28" xr3:uid="{4CFBA4F0-DDB2-4440-B4C5-247E6BBB0113}" name="Per cent households with income spending 30% or more total income on shelter (Owner)" dataDxfId="21" dataCellStyle="Percent"/>
+    <tableColumn id="29" xr3:uid="{0C0113B5-0F9E-4D43-9BC3-E25EA4D68C76}" name="Per cent households with income spending 30% or more total income on shelter (Renter)" dataDxfId="20" dataCellStyle="Percent"/>
+    <tableColumn id="30" xr3:uid="{F927FD5E-E885-414D-A53E-3D1B4A98F6A9}" name="Employed labour force aged 15 years and over in private households" dataDxfId="19" dataCellStyle="Comma"/>
+    <tableColumn id="31" xr3:uid="{F79F7CFB-C62E-4A6C-B0CB-5D11DCE7D1FF}" name="Driver – car, truck or van" dataDxfId="18" dataCellStyle="Comma"/>
+    <tableColumn id="32" xr3:uid="{F3F9BC00-94F0-4583-B095-06C3AB8ECA8C}" name="Passenger – car, truck or van" dataDxfId="17" dataCellStyle="Comma"/>
+    <tableColumn id="33" xr3:uid="{888483BF-E512-46A9-AB06-DEFE8787FD84}" name="Public transit" dataDxfId="16" dataCellStyle="Comma"/>
+    <tableColumn id="34" xr3:uid="{021976D8-B2F9-4633-8EB1-697E4FBE7075}" name="Walked" dataDxfId="15" dataCellStyle="Comma"/>
+    <tableColumn id="35" xr3:uid="{783BFFB1-6A05-4D60-8C42-57DAFA7EE7AA}" name="Bicycle" dataDxfId="14" dataCellStyle="Comma"/>
+    <tableColumn id="36" xr3:uid="{4B6B0580-D2BA-4BAA-B141-95833D20CB8B}" name="Other methods" dataDxfId="13" dataCellStyle="Comma"/>
+    <tableColumn id="37" xr3:uid="{D4AE9B79-151B-4441-8934-9ECFF51BC427}" name="Employed labour force aged 15 years and over in private households2" dataDxfId="12" dataCellStyle="Comma"/>
+    <tableColumn id="38" xr3:uid="{250FB676-DD35-4B6B-ADDE-7FE110E9E1A9}" name="Less than 15 minutes" dataDxfId="11" dataCellStyle="Comma"/>
+    <tableColumn id="39" xr3:uid="{2E3043F4-0FFC-4B38-9463-2EC3B0B1015A}" name="15 to 29 minutes" dataDxfId="10" dataCellStyle="Comma"/>
+    <tableColumn id="40" xr3:uid="{47640BCE-0EFF-49BD-8925-8459981A5540}" name="30 to 44 minutes" dataDxfId="9" dataCellStyle="Comma"/>
+    <tableColumn id="41" xr3:uid="{58D83A46-4657-439B-BC9B-3E1A0EE9A02D}" name="45 to 59 minutes" dataDxfId="8" dataCellStyle="Comma"/>
+    <tableColumn id="42" xr3:uid="{36AD81E0-D387-4776-BB28-ADD8A2FA5695}" name="Employed labour force aged 15 years and over in private households3" dataDxfId="7" dataCellStyle="Comma"/>
+    <tableColumn id="43" xr3:uid="{3306C104-8323-4179-9107-39EEA481D3AE}" name="Between 5 a.m. and 5:59 a.m." dataDxfId="6" dataCellStyle="Comma"/>
+    <tableColumn id="44" xr3:uid="{CF193E15-3C74-4E0A-9B8B-280DCDAB8F47}" name="Between 6 a.m. and 6:59 a.m." dataDxfId="5" dataCellStyle="Comma"/>
+    <tableColumn id="45" xr3:uid="{EF792701-9F1E-405C-B247-67AD978F5D01}" name="Between 7 a.m. and 7:59 a.m." dataDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="46" xr3:uid="{BC1E6678-74A8-4765-9DB7-C122BD73087C}" name="Between 8 a.m. and 8:59 a.m." dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="47" xr3:uid="{B14B21C6-3587-48ED-9A89-46E7833217C0}" name="Between 9 a.m. and 11:59 a.m." dataDxfId="2" dataCellStyle="Comma"/>
+    <tableColumn id="48" xr3:uid="{ABF1530D-14F6-4F3A-95FA-819588B4958E}" name="Between 12 p.m. and 4:59 a.m." dataDxfId="1" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1791,7 +1798,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1897,7 +1904,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2039,7 +2046,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2047,53 +2054,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV267"/>
+  <dimension ref="A1:AV268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S177" sqref="S177"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="46.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
-    <col min="11" max="12" width="34.28515625" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" customWidth="1"/>
-    <col min="15" max="15" width="18.140625" customWidth="1"/>
-    <col min="16" max="17" width="34.28515625" customWidth="1"/>
-    <col min="18" max="18" width="21.42578125" customWidth="1"/>
-    <col min="19" max="19" width="33.28515625" customWidth="1"/>
-    <col min="20" max="20" width="22.42578125" customWidth="1"/>
-    <col min="21" max="21" width="34.28515625" customWidth="1"/>
-    <col min="22" max="22" width="25.42578125" customWidth="1"/>
-    <col min="23" max="23" width="34.28515625" customWidth="1"/>
-    <col min="24" max="24" width="28.85546875" customWidth="1"/>
-    <col min="25" max="27" width="34.28515625" customWidth="1"/>
-    <col min="28" max="29" width="34.28515625" style="10" customWidth="1"/>
-    <col min="30" max="30" width="34.28515625" customWidth="1"/>
-    <col min="31" max="31" width="22.42578125" customWidth="1"/>
-    <col min="32" max="32" width="25.7109375" customWidth="1"/>
-    <col min="33" max="33" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="46.1640625" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="42.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" customWidth="1"/>
+    <col min="11" max="12" width="34.33203125" customWidth="1"/>
+    <col min="13" max="13" width="18.1640625" customWidth="1"/>
+    <col min="14" max="14" width="14.5" customWidth="1"/>
+    <col min="15" max="15" width="18.1640625" customWidth="1"/>
+    <col min="16" max="17" width="34.33203125" customWidth="1"/>
+    <col min="18" max="18" width="21.5" customWidth="1"/>
+    <col min="19" max="19" width="33.33203125" customWidth="1"/>
+    <col min="20" max="20" width="22.5" customWidth="1"/>
+    <col min="21" max="21" width="34.33203125" customWidth="1"/>
+    <col min="22" max="22" width="25.5" customWidth="1"/>
+    <col min="23" max="23" width="34.33203125" customWidth="1"/>
+    <col min="24" max="24" width="28.83203125" customWidth="1"/>
+    <col min="25" max="27" width="34.33203125" customWidth="1"/>
+    <col min="28" max="29" width="34.33203125" style="10" customWidth="1"/>
+    <col min="30" max="30" width="34.33203125" customWidth="1"/>
+    <col min="31" max="31" width="22.5" customWidth="1"/>
+    <col min="32" max="32" width="25.6640625" customWidth="1"/>
+    <col min="33" max="33" width="13.1640625" customWidth="1"/>
     <col min="36" max="36" width="15" customWidth="1"/>
-    <col min="37" max="37" width="34.28515625" customWidth="1"/>
-    <col min="38" max="38" width="19.85546875" customWidth="1"/>
-    <col min="39" max="41" width="16.42578125" customWidth="1"/>
-    <col min="42" max="42" width="34.28515625" customWidth="1"/>
+    <col min="37" max="37" width="34.33203125" customWidth="1"/>
+    <col min="38" max="38" width="19.83203125" customWidth="1"/>
+    <col min="39" max="41" width="16.5" customWidth="1"/>
+    <col min="42" max="42" width="34.33203125" customWidth="1"/>
     <col min="43" max="46" width="27" customWidth="1"/>
     <col min="47" max="47" width="28" customWidth="1"/>
-    <col min="48" max="48" width="28.140625" customWidth="1"/>
+    <col min="48" max="48" width="28.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="45.75">
+    <row r="1" spans="1:48" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2239,7 +2246,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>48</v>
       </c>
@@ -2385,7 +2392,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>50</v>
       </c>
@@ -2531,7 +2538,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>51</v>
       </c>
@@ -2677,7 +2684,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>52</v>
       </c>
@@ -2823,7 +2830,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>53</v>
       </c>
@@ -2969,7 +2976,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>54</v>
       </c>
@@ -3115,7 +3122,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>55</v>
       </c>
@@ -3261,7 +3268,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>56</v>
       </c>
@@ -3407,7 +3414,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>57</v>
       </c>
@@ -3553,7 +3560,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>58</v>
       </c>
@@ -3699,7 +3706,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>59</v>
       </c>
@@ -3845,7 +3852,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>60</v>
       </c>
@@ -3991,7 +3998,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>61</v>
       </c>
@@ -4137,7 +4144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>62</v>
       </c>
@@ -4283,7 +4290,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>63</v>
       </c>
@@ -4429,7 +4436,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>64</v>
       </c>
@@ -4575,7 +4582,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>65</v>
       </c>
@@ -4721,7 +4728,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>66</v>
       </c>
@@ -4867,7 +4874,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>67</v>
       </c>
@@ -5013,7 +5020,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>68</v>
       </c>
@@ -5159,7 +5166,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>69</v>
       </c>
@@ -5305,7 +5312,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>70</v>
       </c>
@@ -5451,7 +5458,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>71</v>
       </c>
@@ -5597,7 +5604,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>72</v>
       </c>
@@ -5743,7 +5750,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="26" spans="1:48">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>73</v>
       </c>
@@ -5889,7 +5896,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="27" spans="1:48">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>74</v>
       </c>
@@ -6035,7 +6042,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="28" spans="1:48">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>75</v>
       </c>
@@ -6181,7 +6188,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="29" spans="1:48">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>76</v>
       </c>
@@ -6327,7 +6334,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="30" spans="1:48">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>77</v>
       </c>
@@ -6473,7 +6480,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="31" spans="1:48">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>78</v>
       </c>
@@ -6619,7 +6626,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:48">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>79</v>
       </c>
@@ -6765,7 +6772,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:48">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>80</v>
       </c>
@@ -6911,7 +6918,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:48">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>81</v>
       </c>
@@ -7057,7 +7064,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:48">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>82</v>
       </c>
@@ -7203,7 +7210,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="36" spans="1:48">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>83</v>
       </c>
@@ -7349,7 +7356,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="37" spans="1:48">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>84</v>
       </c>
@@ -7495,7 +7502,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:48">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>85</v>
       </c>
@@ -7641,7 +7648,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="1:48">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>86</v>
       </c>
@@ -7787,7 +7794,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:48">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>87</v>
       </c>
@@ -7933,7 +7940,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="41" spans="1:48">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>88</v>
       </c>
@@ -8079,7 +8086,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="42" spans="1:48">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>89</v>
       </c>
@@ -8225,7 +8232,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="43" spans="1:48">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>90</v>
       </c>
@@ -8371,7 +8378,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="44" spans="1:48">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>91</v>
       </c>
@@ -8517,7 +8524,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="45" spans="1:48">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>92</v>
       </c>
@@ -8663,7 +8670,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:48">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>93</v>
       </c>
@@ -8809,7 +8816,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="47" spans="1:48">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>94</v>
       </c>
@@ -8955,7 +8962,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="48" spans="1:48">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>95</v>
       </c>
@@ -9101,7 +9108,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="49" spans="1:48">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>96</v>
       </c>
@@ -9247,7 +9254,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:48">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>97</v>
       </c>
@@ -9393,7 +9400,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:48">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>98</v>
       </c>
@@ -9539,7 +9546,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="52" spans="1:48">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>99</v>
       </c>
@@ -9685,7 +9692,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="53" spans="1:48">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
         <v>100</v>
       </c>
@@ -9831,7 +9838,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="54" spans="1:48">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>101</v>
       </c>
@@ -9977,7 +9984,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:48">
+    <row r="55" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>102</v>
       </c>
@@ -10123,7 +10130,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:48">
+    <row r="56" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>103</v>
       </c>
@@ -10269,7 +10276,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="57" spans="1:48">
+    <row r="57" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>104</v>
       </c>
@@ -10415,7 +10422,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="58" spans="1:48">
+    <row r="58" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>105</v>
       </c>
@@ -10561,7 +10568,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="59" spans="1:48">
+    <row r="59" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>106</v>
       </c>
@@ -10707,7 +10714,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:48">
+    <row r="60" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
         <v>107</v>
       </c>
@@ -10853,7 +10860,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:48">
+    <row r="61" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
         <v>108</v>
       </c>
@@ -10999,7 +11006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:48">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
         <v>109</v>
       </c>
@@ -11145,7 +11152,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:48">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
         <v>110</v>
       </c>
@@ -11291,7 +11298,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="64" spans="1:48">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
         <v>111</v>
       </c>
@@ -11437,7 +11444,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:48">
+    <row r="65" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
         <v>112</v>
       </c>
@@ -11583,7 +11590,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:48">
+    <row r="66" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
         <v>113</v>
       </c>
@@ -11729,7 +11736,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="67" spans="1:48">
+    <row r="67" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
         <v>114</v>
       </c>
@@ -11871,7 +11878,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:48">
+    <row r="68" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
         <v>115</v>
       </c>
@@ -12017,7 +12024,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="69" spans="1:48">
+    <row r="69" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
         <v>116</v>
       </c>
@@ -12163,7 +12170,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="70" spans="1:48">
+    <row r="70" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>117</v>
       </c>
@@ -12309,7 +12316,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="71" spans="1:48">
+    <row r="71" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>118</v>
       </c>
@@ -12455,7 +12462,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="72" spans="1:48">
+    <row r="72" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
         <v>119</v>
       </c>
@@ -12601,7 +12608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:48">
+    <row r="73" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
         <v>120</v>
       </c>
@@ -12747,7 +12754,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="74" spans="1:48">
+    <row r="74" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
         <v>121</v>
       </c>
@@ -12893,7 +12900,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="75" spans="1:48">
+    <row r="75" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
         <v>122</v>
       </c>
@@ -13039,7 +13046,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="1:48">
+    <row r="76" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
         <v>123</v>
       </c>
@@ -13185,7 +13192,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:48">
+    <row r="77" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
         <v>124</v>
       </c>
@@ -13331,7 +13338,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="78" spans="1:48">
+    <row r="78" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
         <v>125</v>
       </c>
@@ -13477,7 +13484,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="79" spans="1:48">
+    <row r="79" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
         <v>126</v>
       </c>
@@ -13623,7 +13630,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="80" spans="1:48">
+    <row r="80" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
         <v>127</v>
       </c>
@@ -13769,7 +13776,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="81" spans="1:48">
+    <row r="81" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
         <v>128</v>
       </c>
@@ -13915,7 +13922,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:48">
+    <row r="82" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
         <v>129</v>
       </c>
@@ -14061,7 +14068,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="83" spans="1:48">
+    <row r="83" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
         <v>130</v>
       </c>
@@ -14207,7 +14214,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="84" spans="1:48">
+    <row r="84" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>131</v>
       </c>
@@ -14353,7 +14360,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="85" spans="1:48">
+    <row r="85" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>132</v>
       </c>
@@ -14499,7 +14506,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="86" spans="1:48">
+    <row r="86" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>133</v>
       </c>
@@ -14645,7 +14652,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="87" spans="1:48">
+    <row r="87" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
         <v>134</v>
       </c>
@@ -14791,7 +14798,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="88" spans="1:48">
+    <row r="88" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
         <v>135</v>
       </c>
@@ -14937,7 +14944,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="89" spans="1:48">
+    <row r="89" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>136</v>
       </c>
@@ -14948,7 +14955,7 @@
         <v>825</v>
       </c>
       <c r="D89" s="7">
-        <v>4055</v>
+        <v>570</v>
       </c>
       <c r="E89" s="6">
         <v>30</v>
@@ -15083,7 +15090,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="90" spans="1:48">
+    <row r="90" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>137</v>
       </c>
@@ -15229,7 +15236,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="91" spans="1:48">
+    <row r="91" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>138</v>
       </c>
@@ -15240,7 +15247,7 @@
         <v>2260</v>
       </c>
       <c r="D91" s="7">
-        <v>8605</v>
+        <v>2010</v>
       </c>
       <c r="E91" s="6">
         <v>235</v>
@@ -15375,7 +15382,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="92" spans="1:48">
+    <row r="92" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
         <v>140</v>
       </c>
@@ -15521,7 +15528,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="93" spans="1:48">
+    <row r="93" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
         <v>141</v>
       </c>
@@ -15667,7 +15674,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="94" spans="1:48">
+    <row r="94" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
         <v>142</v>
       </c>
@@ -15813,7 +15820,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="95" spans="1:48">
+    <row r="95" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
         <v>143</v>
       </c>
@@ -15959,7 +15966,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="96" spans="1:48">
+    <row r="96" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
         <v>144</v>
       </c>
@@ -16105,7 +16112,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="97" spans="1:48">
+    <row r="97" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
         <v>145</v>
       </c>
@@ -16251,7 +16258,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="98" spans="1:48">
+    <row r="98" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>146</v>
       </c>
@@ -16397,7 +16404,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="99" spans="1:48">
+    <row r="99" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>147</v>
       </c>
@@ -16543,7 +16550,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="100" spans="1:48">
+    <row r="100" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
         <v>148</v>
       </c>
@@ -16689,7 +16696,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="101" spans="1:48">
+    <row r="101" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>149</v>
       </c>
@@ -16835,7 +16842,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="102" spans="1:48">
+    <row r="102" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
         <v>150</v>
       </c>
@@ -16981,7 +16988,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="103" spans="1:48">
+    <row r="103" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
         <v>151</v>
       </c>
@@ -17127,7 +17134,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="104" spans="1:48">
+    <row r="104" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>152</v>
       </c>
@@ -17273,7 +17280,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="105" spans="1:48">
+    <row r="105" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
         <v>153</v>
       </c>
@@ -17419,7 +17426,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="106" spans="1:48">
+    <row r="106" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
         <v>154</v>
       </c>
@@ -17565,7 +17572,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="107" spans="1:48">
+    <row r="107" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
         <v>155</v>
       </c>
@@ -17711,7 +17718,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="108" spans="1:48">
+    <row r="108" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
         <v>156</v>
       </c>
@@ -17857,7 +17864,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="109" spans="1:48">
+    <row r="109" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
         <v>157</v>
       </c>
@@ -18003,7 +18010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:48">
+    <row r="110" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
         <v>158</v>
       </c>
@@ -18149,7 +18156,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="111" spans="1:48">
+    <row r="111" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
         <v>159</v>
       </c>
@@ -18295,7 +18302,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="112" spans="1:48">
+    <row r="112" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
         <v>160</v>
       </c>
@@ -18441,7 +18448,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="113" spans="1:48">
+    <row r="113" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
         <v>161</v>
       </c>
@@ -18587,7 +18594,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="114" spans="1:48">
+    <row r="114" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
         <v>162</v>
       </c>
@@ -18733,7 +18740,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="115" spans="1:48">
+    <row r="115" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
         <v>163</v>
       </c>
@@ -18879,7 +18886,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="116" spans="1:48">
+    <row r="116" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
         <v>164</v>
       </c>
@@ -19025,7 +19032,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="117" spans="1:48">
+    <row r="117" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
         <v>165</v>
       </c>
@@ -19171,7 +19178,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="118" spans="1:48">
+    <row r="118" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
         <v>166</v>
       </c>
@@ -19317,7 +19324,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="119" spans="1:48">
+    <row r="119" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
         <v>167</v>
       </c>
@@ -19463,7 +19470,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="120" spans="1:48">
+    <row r="120" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
         <v>168</v>
       </c>
@@ -19609,7 +19616,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="121" spans="1:48">
+    <row r="121" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
         <v>169</v>
       </c>
@@ -19755,7 +19762,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="122" spans="1:48">
+    <row r="122" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
         <v>170</v>
       </c>
@@ -19901,7 +19908,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="123" spans="1:48">
+    <row r="123" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
         <v>171</v>
       </c>
@@ -20047,7 +20054,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="124" spans="1:48">
+    <row r="124" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A124" s="9" t="s">
         <v>172</v>
       </c>
@@ -20193,7 +20200,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:48">
+    <row r="125" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A125" s="9" t="s">
         <v>173</v>
       </c>
@@ -20339,7 +20346,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="126" spans="1:48">
+    <row r="126" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A126" s="9" t="s">
         <v>174</v>
       </c>
@@ -20485,7 +20492,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="127" spans="1:48">
+    <row r="127" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A127" s="9" t="s">
         <v>175</v>
       </c>
@@ -20631,7 +20638,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="128" spans="1:48">
+    <row r="128" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A128" s="9" t="s">
         <v>176</v>
       </c>
@@ -20777,7 +20784,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="129" spans="1:48">
+    <row r="129" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A129" s="9" t="s">
         <v>177</v>
       </c>
@@ -20923,7 +20930,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="130" spans="1:48">
+    <row r="130" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A130" s="9" t="s">
         <v>178</v>
       </c>
@@ -21069,7 +21076,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="1:48">
+    <row r="131" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A131" s="9" t="s">
         <v>179</v>
       </c>
@@ -21215,7 +21222,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="132" spans="1:48">
+    <row r="132" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A132" s="9" t="s">
         <v>180</v>
       </c>
@@ -21361,7 +21368,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="133" spans="1:48">
+    <row r="133" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A133" s="9" t="s">
         <v>181</v>
       </c>
@@ -21507,7 +21514,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="134" spans="1:48">
+    <row r="134" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A134" s="9" t="s">
         <v>182</v>
       </c>
@@ -21653,7 +21660,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:48">
+    <row r="135" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A135" s="9" t="s">
         <v>184</v>
       </c>
@@ -21799,7 +21806,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="136" spans="1:48">
+    <row r="136" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A136" s="9" t="s">
         <v>185</v>
       </c>
@@ -21945,7 +21952,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="137" spans="1:48">
+    <row r="137" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A137" s="9" t="s">
         <v>186</v>
       </c>
@@ -22091,7 +22098,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="138" spans="1:48">
+    <row r="138" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A138" s="9" t="s">
         <v>187</v>
       </c>
@@ -22237,7 +22244,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="139" spans="1:48">
+    <row r="139" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A139" s="9" t="s">
         <v>188</v>
       </c>
@@ -22383,7 +22390,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="140" spans="1:48">
+    <row r="140" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A140" s="9" t="s">
         <v>189</v>
       </c>
@@ -22529,7 +22536,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="141" spans="1:48">
+    <row r="141" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A141" s="9" t="s">
         <v>190</v>
       </c>
@@ -22675,7 +22682,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="142" spans="1:48">
+    <row r="142" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A142" s="9" t="s">
         <v>191</v>
       </c>
@@ -22821,7 +22828,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="143" spans="1:48">
+    <row r="143" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A143" s="9" t="s">
         <v>192</v>
       </c>
@@ -22967,7 +22974,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="144" spans="1:48">
+    <row r="144" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A144" s="9" t="s">
         <v>193</v>
       </c>
@@ -23113,7 +23120,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="145" spans="1:48">
+    <row r="145" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A145" s="9" t="s">
         <v>194</v>
       </c>
@@ -23259,7 +23266,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="146" spans="1:48">
+    <row r="146" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A146" s="9" t="s">
         <v>195</v>
       </c>
@@ -23405,7 +23412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:48">
+    <row r="147" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A147" s="9" t="s">
         <v>196</v>
       </c>
@@ -23551,7 +23558,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="148" spans="1:48">
+    <row r="148" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A148" s="9" t="s">
         <v>197</v>
       </c>
@@ -23697,7 +23704,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="149" spans="1:48">
+    <row r="149" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A149" s="9" t="s">
         <v>198</v>
       </c>
@@ -23843,7 +23850,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="150" spans="1:48">
+    <row r="150" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A150" s="9" t="s">
         <v>199</v>
       </c>
@@ -23989,7 +23996,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="151" spans="1:48">
+    <row r="151" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A151" s="9" t="s">
         <v>200</v>
       </c>
@@ -24135,7 +24142,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="152" spans="1:48">
+    <row r="152" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A152" s="9" t="s">
         <v>201</v>
       </c>
@@ -24281,7 +24288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:48">
+    <row r="153" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A153" s="9" t="s">
         <v>202</v>
       </c>
@@ -24427,7 +24434,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="154" spans="1:48">
+    <row r="154" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A154" s="9" t="s">
         <v>203</v>
       </c>
@@ -24573,7 +24580,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="155" spans="1:48">
+    <row r="155" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A155" s="9" t="s">
         <v>204</v>
       </c>
@@ -24719,7 +24726,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="156" spans="1:48">
+    <row r="156" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A156" s="9" t="s">
         <v>205</v>
       </c>
@@ -24865,7 +24872,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="157" spans="1:48">
+    <row r="157" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A157" s="9" t="s">
         <v>206</v>
       </c>
@@ -25011,7 +25018,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="158" spans="1:48">
+    <row r="158" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A158" s="9" t="s">
         <v>207</v>
       </c>
@@ -25157,7 +25164,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="159" spans="1:48">
+    <row r="159" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A159" s="9" t="s">
         <v>208</v>
       </c>
@@ -25303,7 +25310,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:48">
+    <row r="160" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A160" s="9" t="s">
         <v>209</v>
       </c>
@@ -25449,7 +25456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:48">
+    <row r="161" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A161" s="9" t="s">
         <v>210</v>
       </c>
@@ -25595,7 +25602,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="162" spans="1:48">
+    <row r="162" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A162" s="9" t="s">
         <v>211</v>
       </c>
@@ -25741,7 +25748,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="163" spans="1:48">
+    <row r="163" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A163" s="9" t="s">
         <v>212</v>
       </c>
@@ -25887,7 +25894,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="164" spans="1:48">
+    <row r="164" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A164" s="9" t="s">
         <v>213</v>
       </c>
@@ -26033,7 +26040,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="165" spans="1:48">
+    <row r="165" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A165" s="9" t="s">
         <v>214</v>
       </c>
@@ -26179,7 +26186,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="166" spans="1:48">
+    <row r="166" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A166" s="9" t="s">
         <v>215</v>
       </c>
@@ -26326,7 +26333,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:48">
+    <row r="167" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A167" s="9" t="s">
         <v>216</v>
       </c>
@@ -26473,7 +26480,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="168" spans="1:48">
+    <row r="168" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A168" s="9" t="s">
         <v>217</v>
       </c>
@@ -26620,7 +26627,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="169" spans="1:48">
+    <row r="169" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A169" s="9" t="s">
         <v>218</v>
       </c>
@@ -26767,7 +26774,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="170" spans="1:48">
+    <row r="170" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A170" s="9" t="s">
         <v>219</v>
       </c>
@@ -26915,7 +26922,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="171" spans="1:48">
+    <row r="171" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A171" s="9" t="s">
         <v>220</v>
       </c>
@@ -27061,7 +27068,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="172" spans="1:48">
+    <row r="172" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A172" s="9" t="s">
         <v>221</v>
       </c>
@@ -27207,7 +27214,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="173" spans="1:48">
+    <row r="173" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A173" s="9" t="s">
         <v>222</v>
       </c>
@@ -27353,7 +27360,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="174" spans="1:48">
+    <row r="174" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A174" s="9" t="s">
         <v>223</v>
       </c>
@@ -27499,7 +27506,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="175" spans="1:48">
+    <row r="175" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A175" s="9" t="s">
         <v>224</v>
       </c>
@@ -27645,7 +27652,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="176" spans="1:48">
+    <row r="176" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A176" s="9" t="s">
         <v>225</v>
       </c>
@@ -27791,7 +27798,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="177" spans="1:48">
+    <row r="177" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A177" s="9" t="s">
         <v>226</v>
       </c>
@@ -27937,7 +27944,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="178" spans="1:48">
+    <row r="178" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A178" s="9" t="s">
         <v>227</v>
       </c>
@@ -28083,7 +28090,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="179" spans="1:48">
+    <row r="179" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A179" s="9" t="s">
         <v>228</v>
       </c>
@@ -28229,7 +28236,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="180" spans="1:48">
+    <row r="180" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A180" s="9" t="s">
         <v>229</v>
       </c>
@@ -28375,3267 +28382,3365 @@
         <v>135</v>
       </c>
     </row>
-    <row r="181" spans="1:48">
+    <row r="181" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A181" s="9" t="s">
         <v>230</v>
       </c>
       <c r="B181" s="9">
-        <v>17630</v>
+        <v>3090</v>
       </c>
       <c r="C181" s="9">
-        <v>4160</v>
+        <v>220</v>
       </c>
       <c r="D181" s="9">
-        <v>1265</v>
+        <v>130</v>
       </c>
       <c r="E181" s="9">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="F181" s="9">
-        <v>13470</v>
+        <v>2870</v>
       </c>
       <c r="G181" s="9">
-        <v>9335</v>
+        <v>2405</v>
       </c>
       <c r="H181" s="9">
-        <v>8020</v>
+        <v>2025</v>
       </c>
       <c r="I181" s="9">
-        <v>1410</v>
+        <v>315</v>
       </c>
       <c r="J181" s="9">
+        <v>385</v>
+      </c>
+      <c r="K181" s="9">
+        <v>40800</v>
+      </c>
+      <c r="L181" s="9">
+        <v>58000</v>
+      </c>
+      <c r="M181" s="9">
+        <v>1900</v>
+      </c>
+      <c r="N181" s="9">
+        <v>170</v>
+      </c>
+      <c r="O181" s="9">
+        <v>395</v>
+      </c>
+      <c r="P181" s="9">
+        <v>3090</v>
+      </c>
+      <c r="Q181" s="9">
+        <v>575</v>
+      </c>
+      <c r="R181" s="9">
+        <v>245</v>
+      </c>
+      <c r="S181" s="9">
+        <v>60</v>
+      </c>
+      <c r="T181" s="9">
+        <v>2695</v>
+      </c>
+      <c r="U181" s="9">
+        <v>465</v>
+      </c>
+      <c r="V181" s="9">
+        <v>150</v>
+      </c>
+      <c r="W181" s="9">
+        <v>45</v>
+      </c>
+      <c r="X181" s="9">
+        <v>1885</v>
+      </c>
+      <c r="Y181" s="9">
+        <v>1210</v>
+      </c>
+      <c r="Z181" s="9">
+        <v>446</v>
+      </c>
+      <c r="AA181" s="9">
+        <v>1440</v>
+      </c>
+      <c r="AB181" s="10">
+        <v>0.24</v>
+      </c>
+      <c r="AC181" s="10">
+        <v>0.39</v>
+      </c>
+      <c r="AD181" s="9">
         <v>1320</v>
       </c>
-      <c r="K181" s="9">
-        <v>33600</v>
-      </c>
-      <c r="L181" s="9">
-        <v>100000</v>
-      </c>
-      <c r="M181" s="9">
-        <v>4465</v>
-      </c>
-      <c r="N181" s="9">
-        <v>95</v>
-      </c>
-      <c r="O181" s="9">
-        <v>215</v>
-      </c>
-      <c r="P181" s="9">
-        <v>17635</v>
-      </c>
-      <c r="Q181" s="9">
-        <v>1605</v>
-      </c>
-      <c r="R181" s="9">
-        <v>4955</v>
-      </c>
-      <c r="S181" s="9">
-        <v>650</v>
-      </c>
-      <c r="T181" s="9">
-        <v>11325</v>
-      </c>
-      <c r="U181" s="9">
-        <v>855</v>
-      </c>
-      <c r="V181" s="9">
-        <v>1350</v>
-      </c>
-      <c r="W181" s="9">
-        <v>100</v>
-      </c>
-      <c r="X181" s="9">
-        <v>4450</v>
-      </c>
-      <c r="Y181" s="9">
-        <v>3265</v>
-      </c>
-      <c r="Z181" s="9">
-        <v>3355</v>
-      </c>
-      <c r="AA181" s="9">
-        <v>1110</v>
-      </c>
-      <c r="AB181" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="AC181" s="10">
-        <v>0.31</v>
-      </c>
-      <c r="AD181" s="9">
-        <v>7100</v>
-      </c>
       <c r="AE181" s="9">
-        <v>5380</v>
+        <v>755</v>
       </c>
       <c r="AF181" s="9">
-        <v>615</v>
+        <v>55</v>
       </c>
       <c r="AG181" s="9">
-        <v>955</v>
+        <v>310</v>
       </c>
       <c r="AH181" s="9">
+        <v>135</v>
+      </c>
+      <c r="AI181" s="9">
         <v>35</v>
       </c>
-      <c r="AI181" s="9">
-        <v>10</v>
-      </c>
       <c r="AJ181" s="9">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="AK181" s="9">
-        <v>7100</v>
+        <v>1320</v>
       </c>
       <c r="AL181" s="9">
-        <v>845</v>
+        <v>300</v>
       </c>
       <c r="AM181" s="9">
-        <v>3410</v>
+        <v>595</v>
       </c>
       <c r="AN181" s="9">
-        <v>1810</v>
+        <v>245</v>
       </c>
       <c r="AO181" s="9">
-        <v>510</v>
+        <v>65</v>
       </c>
       <c r="AP181" s="9">
-        <v>7100</v>
+        <v>1320</v>
       </c>
       <c r="AQ181" s="9">
-        <v>425</v>
+        <v>55</v>
       </c>
       <c r="AR181" s="9">
-        <v>1170</v>
+        <v>210</v>
       </c>
       <c r="AS181" s="9">
-        <v>1310</v>
+        <v>305</v>
       </c>
       <c r="AT181" s="9">
-        <v>1045</v>
+        <v>235</v>
       </c>
       <c r="AU181" s="9">
-        <v>1230</v>
+        <v>235</v>
       </c>
       <c r="AV181" s="9">
-        <v>1930</v>
+        <v>280</v>
       </c>
     </row>
-    <row r="182" spans="1:48">
+    <row r="182" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A182" s="9" t="s">
         <v>231</v>
       </c>
       <c r="B182" s="9">
-        <v>10525</v>
+        <v>17630</v>
       </c>
       <c r="C182" s="9">
-        <v>2145</v>
+        <v>4160</v>
       </c>
       <c r="D182" s="9">
-        <v>1415</v>
+        <v>1265</v>
       </c>
       <c r="E182" s="9">
+        <v>85</v>
+      </c>
+      <c r="F182" s="9">
+        <v>13470</v>
+      </c>
+      <c r="G182" s="9">
+        <v>9335</v>
+      </c>
+      <c r="H182" s="9">
+        <v>8020</v>
+      </c>
+      <c r="I182" s="9">
+        <v>1410</v>
+      </c>
+      <c r="J182" s="9">
+        <v>1320</v>
+      </c>
+      <c r="K182" s="9">
+        <v>33600</v>
+      </c>
+      <c r="L182" s="9">
+        <v>100000</v>
+      </c>
+      <c r="M182" s="9">
+        <v>4465</v>
+      </c>
+      <c r="N182" s="9">
         <v>95</v>
       </c>
-      <c r="F182" s="9">
-        <v>8380</v>
-      </c>
-      <c r="G182" s="9">
-        <v>5300</v>
-      </c>
-      <c r="H182" s="9">
+      <c r="O182" s="9">
+        <v>215</v>
+      </c>
+      <c r="P182" s="9">
+        <v>17635</v>
+      </c>
+      <c r="Q182" s="9">
+        <v>1605</v>
+      </c>
+      <c r="R182" s="9">
+        <v>4955</v>
+      </c>
+      <c r="S182" s="9">
+        <v>650</v>
+      </c>
+      <c r="T182" s="9">
+        <v>11325</v>
+      </c>
+      <c r="U182" s="9">
+        <v>855</v>
+      </c>
+      <c r="V182" s="9">
+        <v>1350</v>
+      </c>
+      <c r="W182" s="9">
+        <v>100</v>
+      </c>
+      <c r="X182" s="9">
         <v>4450</v>
       </c>
-      <c r="I182" s="9">
-        <v>720</v>
-      </c>
-      <c r="J182" s="9">
-        <v>850</v>
-      </c>
-      <c r="K182" s="9">
-        <v>36800</v>
-      </c>
-      <c r="L182" s="9">
-        <v>87000</v>
-      </c>
-      <c r="M182" s="9">
-        <v>3435</v>
-      </c>
-      <c r="N182" s="9">
-        <v>120</v>
-      </c>
-      <c r="O182" s="9">
-        <v>325</v>
-      </c>
-      <c r="P182" s="9">
-        <v>10525</v>
-      </c>
-      <c r="Q182" s="9">
-        <v>1205</v>
-      </c>
-      <c r="R182" s="9">
-        <v>2575</v>
-      </c>
-      <c r="S182" s="9">
-        <v>470</v>
-      </c>
-      <c r="T182" s="9">
-        <v>6440</v>
-      </c>
-      <c r="U182" s="9">
-        <v>625</v>
-      </c>
-      <c r="V182" s="9">
-        <v>1515</v>
-      </c>
-      <c r="W182" s="9">
-        <v>110</v>
-      </c>
-      <c r="X182" s="9">
-        <v>3425</v>
-      </c>
       <c r="Y182" s="9">
-        <v>2640</v>
+        <v>3265</v>
       </c>
       <c r="Z182" s="9">
-        <v>2585</v>
+        <v>3355</v>
       </c>
       <c r="AA182" s="9">
-        <v>855</v>
+        <v>1110</v>
       </c>
       <c r="AB182" s="10">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="AC182" s="10">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="AD182" s="9">
-        <v>3870</v>
+        <v>7100</v>
       </c>
       <c r="AE182" s="9">
-        <v>2905</v>
+        <v>5380</v>
       </c>
       <c r="AF182" s="9">
-        <v>370</v>
+        <v>615</v>
       </c>
       <c r="AG182" s="9">
-        <v>390</v>
+        <v>955</v>
       </c>
       <c r="AH182" s="9">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="AI182" s="9">
         <v>10</v>
       </c>
       <c r="AJ182" s="9">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="AK182" s="9">
-        <v>3870</v>
+        <v>7100</v>
       </c>
       <c r="AL182" s="9">
-        <v>830</v>
+        <v>845</v>
       </c>
       <c r="AM182" s="9">
-        <v>1780</v>
+        <v>3410</v>
       </c>
       <c r="AN182" s="9">
-        <v>810</v>
+        <v>1810</v>
       </c>
       <c r="AO182" s="9">
-        <v>230</v>
+        <v>510</v>
       </c>
       <c r="AP182" s="9">
-        <v>3870</v>
+        <v>7100</v>
       </c>
       <c r="AQ182" s="9">
-        <v>325</v>
+        <v>425</v>
       </c>
       <c r="AR182" s="9">
-        <v>660</v>
+        <v>1170</v>
       </c>
       <c r="AS182" s="9">
-        <v>885</v>
+        <v>1310</v>
       </c>
       <c r="AT182" s="9">
-        <v>605</v>
+        <v>1045</v>
       </c>
       <c r="AU182" s="9">
-        <v>560</v>
+        <v>1230</v>
       </c>
       <c r="AV182" s="9">
-        <v>835</v>
+        <v>1930</v>
       </c>
     </row>
-    <row r="183" spans="1:48">
+    <row r="183" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A183" s="9" t="s">
         <v>232</v>
       </c>
       <c r="B183" s="9">
-        <v>8695</v>
+        <v>10525</v>
       </c>
       <c r="C183" s="9">
-        <v>1460</v>
+        <v>2145</v>
       </c>
       <c r="D183" s="9">
-        <v>1170</v>
+        <v>1415</v>
       </c>
       <c r="E183" s="9">
-        <v>250</v>
+        <v>95</v>
       </c>
       <c r="F183" s="9">
-        <v>7230</v>
+        <v>8380</v>
       </c>
       <c r="G183" s="9">
-        <v>4490</v>
+        <v>5300</v>
       </c>
       <c r="H183" s="9">
-        <v>3805</v>
+        <v>4450</v>
       </c>
       <c r="I183" s="9">
-        <v>745</v>
+        <v>720</v>
       </c>
       <c r="J183" s="9">
-        <v>685</v>
+        <v>850</v>
       </c>
       <c r="K183" s="9">
-        <v>38400</v>
+        <v>36800</v>
       </c>
       <c r="L183" s="9">
-        <v>73500</v>
+        <v>87000</v>
       </c>
       <c r="M183" s="9">
-        <v>3615</v>
+        <v>3435</v>
       </c>
       <c r="N183" s="9">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="O183" s="9">
-        <v>600</v>
+        <v>325</v>
       </c>
       <c r="P183" s="9">
-        <v>8695</v>
+        <v>10525</v>
       </c>
       <c r="Q183" s="9">
-        <v>1150</v>
+        <v>1205</v>
       </c>
       <c r="R183" s="9">
-        <v>1750</v>
+        <v>2575</v>
       </c>
       <c r="S183" s="9">
-        <v>355</v>
+        <v>470</v>
       </c>
       <c r="T183" s="9">
-        <v>5530</v>
+        <v>6440</v>
       </c>
       <c r="U183" s="9">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="V183" s="9">
-        <v>1420</v>
+        <v>1515</v>
       </c>
       <c r="W183" s="9">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="X183" s="9">
-        <v>3595</v>
+        <v>3425</v>
       </c>
       <c r="Y183" s="9">
-        <v>2740</v>
+        <v>2640</v>
       </c>
       <c r="Z183" s="9">
-        <v>2085</v>
+        <v>2585</v>
       </c>
       <c r="AA183" s="9">
-        <v>1530</v>
+        <v>855</v>
       </c>
       <c r="AB183" s="10">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="AC183" s="10">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="AD183" s="9">
-        <v>2935</v>
+        <v>3870</v>
       </c>
       <c r="AE183" s="9">
-        <v>2115</v>
+        <v>2905</v>
       </c>
       <c r="AF183" s="9">
-        <v>255</v>
+        <v>370</v>
       </c>
       <c r="AG183" s="9">
-        <v>305</v>
+        <v>390</v>
       </c>
       <c r="AH183" s="9">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="AI183" s="9">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="AJ183" s="9">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="AK183" s="9">
-        <v>2935</v>
+        <v>3870</v>
       </c>
       <c r="AL183" s="9">
-        <v>685</v>
+        <v>830</v>
       </c>
       <c r="AM183" s="9">
-        <v>1460</v>
+        <v>1780</v>
       </c>
       <c r="AN183" s="9">
-        <v>505</v>
+        <v>810</v>
       </c>
       <c r="AO183" s="9">
-        <v>125</v>
+        <v>230</v>
       </c>
       <c r="AP183" s="9">
-        <v>2935</v>
+        <v>3870</v>
       </c>
       <c r="AQ183" s="9">
-        <v>165</v>
+        <v>325</v>
       </c>
       <c r="AR183" s="9">
-        <v>550</v>
+        <v>660</v>
       </c>
       <c r="AS183" s="9">
-        <v>810</v>
+        <v>885</v>
       </c>
       <c r="AT183" s="9">
-        <v>490</v>
+        <v>605</v>
       </c>
       <c r="AU183" s="9">
-        <v>450</v>
+        <v>560</v>
       </c>
       <c r="AV183" s="9">
-        <v>465</v>
+        <v>835</v>
       </c>
     </row>
-    <row r="184" spans="1:48">
+    <row r="184" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A184" s="9" t="s">
         <v>233</v>
       </c>
       <c r="B184" s="9">
-        <v>19700</v>
+        <v>8695</v>
       </c>
       <c r="C184" s="9">
-        <v>4555</v>
+        <v>1460</v>
       </c>
       <c r="D184" s="9">
-        <v>1505</v>
+        <v>1170</v>
       </c>
       <c r="E184" s="9">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="F184" s="9">
-        <v>15140</v>
+        <v>7230</v>
       </c>
       <c r="G184" s="9">
-        <v>10945</v>
+        <v>4490</v>
       </c>
       <c r="H184" s="9">
-        <v>9830</v>
+        <v>3805</v>
       </c>
       <c r="I184" s="9">
-        <v>1580</v>
+        <v>745</v>
       </c>
       <c r="J184" s="9">
-        <v>1120</v>
+        <v>685</v>
       </c>
       <c r="K184" s="9">
-        <v>57200</v>
+        <v>38400</v>
       </c>
       <c r="L184" s="9">
-        <v>142000</v>
+        <v>73500</v>
       </c>
       <c r="M184" s="9">
-        <v>6565</v>
+        <v>3615</v>
       </c>
       <c r="N184" s="9">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="O184" s="9">
-        <v>345</v>
+        <v>600</v>
       </c>
       <c r="P184" s="9">
-        <v>19700</v>
+        <v>8695</v>
       </c>
       <c r="Q184" s="9">
-        <v>1090</v>
+        <v>1150</v>
       </c>
       <c r="R184" s="9">
-        <v>5700</v>
+        <v>1750</v>
       </c>
       <c r="S184" s="9">
-        <v>430</v>
+        <v>355</v>
       </c>
       <c r="T184" s="9">
-        <v>12365</v>
+        <v>5530</v>
       </c>
       <c r="U184" s="9">
-        <v>565</v>
+        <v>635</v>
       </c>
       <c r="V184" s="9">
-        <v>1635</v>
+        <v>1420</v>
       </c>
       <c r="W184" s="9">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="X184" s="9">
-        <v>6540</v>
+        <v>3595</v>
       </c>
       <c r="Y184" s="9">
-        <v>5520</v>
+        <v>2740</v>
       </c>
       <c r="Z184" s="9">
-        <v>5840</v>
+        <v>2085</v>
       </c>
       <c r="AA184" s="9">
-        <v>725</v>
+        <v>1530</v>
       </c>
       <c r="AB184" s="10">
-        <v>0.14000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="AC184" s="10">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="AD184" s="9">
-        <v>6025</v>
+        <v>2935</v>
       </c>
       <c r="AE184" s="9">
-        <v>4990</v>
+        <v>2115</v>
       </c>
       <c r="AF184" s="9">
-        <v>205</v>
+        <v>255</v>
       </c>
       <c r="AG184" s="9">
-        <v>445</v>
+        <v>305</v>
       </c>
       <c r="AH184" s="9">
-        <v>175</v>
+        <v>105</v>
       </c>
       <c r="AI184" s="9">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="AJ184" s="9">
-        <v>185</v>
+        <v>95</v>
       </c>
       <c r="AK184" s="9">
-        <v>6025</v>
+        <v>2935</v>
       </c>
       <c r="AL184" s="9">
-        <v>935</v>
+        <v>685</v>
       </c>
       <c r="AM184" s="9">
-        <v>2675</v>
+        <v>1460</v>
       </c>
       <c r="AN184" s="9">
-        <v>1750</v>
+        <v>505</v>
       </c>
       <c r="AO184" s="9">
-        <v>425</v>
+        <v>125</v>
       </c>
       <c r="AP184" s="9">
-        <v>6025</v>
+        <v>2935</v>
       </c>
       <c r="AQ184" s="9">
-        <v>300</v>
+        <v>165</v>
       </c>
       <c r="AR184" s="9">
-        <v>1205</v>
+        <v>550</v>
       </c>
       <c r="AS184" s="9">
-        <v>1790</v>
+        <v>810</v>
       </c>
       <c r="AT184" s="9">
-        <v>1200</v>
+        <v>490</v>
       </c>
       <c r="AU184" s="9">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="AV184" s="9">
-        <v>775</v>
+        <v>465</v>
       </c>
     </row>
-    <row r="185" spans="1:48">
+    <row r="185" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A185" s="9" t="s">
         <v>234</v>
       </c>
       <c r="B185" s="9">
-        <v>5165</v>
+        <v>19700</v>
       </c>
       <c r="C185" s="9">
+        <v>4555</v>
+      </c>
+      <c r="D185" s="9">
+        <v>1505</v>
+      </c>
+      <c r="E185" s="9">
+        <v>130</v>
+      </c>
+      <c r="F185" s="9">
+        <v>15140</v>
+      </c>
+      <c r="G185" s="9">
+        <v>10945</v>
+      </c>
+      <c r="H185" s="9">
+        <v>9830</v>
+      </c>
+      <c r="I185" s="9">
+        <v>1580</v>
+      </c>
+      <c r="J185" s="9">
+        <v>1120</v>
+      </c>
+      <c r="K185" s="9">
+        <v>57200</v>
+      </c>
+      <c r="L185" s="9">
+        <v>142000</v>
+      </c>
+      <c r="M185" s="9">
+        <v>6565</v>
+      </c>
+      <c r="N185" s="9">
+        <v>170</v>
+      </c>
+      <c r="O185" s="9">
+        <v>345</v>
+      </c>
+      <c r="P185" s="9">
+        <v>19700</v>
+      </c>
+      <c r="Q185" s="9">
+        <v>1090</v>
+      </c>
+      <c r="R185" s="9">
+        <v>5700</v>
+      </c>
+      <c r="S185" s="9">
+        <v>430</v>
+      </c>
+      <c r="T185" s="9">
+        <v>12365</v>
+      </c>
+      <c r="U185" s="9">
+        <v>565</v>
+      </c>
+      <c r="V185" s="9">
+        <v>1635</v>
+      </c>
+      <c r="W185" s="9">
+        <v>100</v>
+      </c>
+      <c r="X185" s="9">
+        <v>6540</v>
+      </c>
+      <c r="Y185" s="9">
+        <v>5520</v>
+      </c>
+      <c r="Z185" s="9">
+        <v>5840</v>
+      </c>
+      <c r="AA185" s="9">
         <v>725</v>
       </c>
-      <c r="D185" s="9">
-        <v>575</v>
-      </c>
-      <c r="E185" s="9">
-        <v>65</v>
-      </c>
-      <c r="F185" s="9">
-        <v>4445</v>
-      </c>
-      <c r="G185" s="9">
-        <v>3325</v>
-      </c>
-      <c r="H185" s="9">
-        <v>2910</v>
-      </c>
-      <c r="I185" s="9">
-        <v>410</v>
-      </c>
-      <c r="J185" s="9">
-        <v>420</v>
-      </c>
-      <c r="K185" s="9">
-        <v>46400</v>
-      </c>
-      <c r="L185" s="9">
-        <v>85000</v>
-      </c>
-      <c r="M185" s="9">
-        <v>2475</v>
-      </c>
-      <c r="N185" s="9">
-        <v>160</v>
-      </c>
-      <c r="O185" s="9">
-        <v>375</v>
-      </c>
-      <c r="P185" s="9">
-        <v>5170</v>
-      </c>
-      <c r="Q185" s="9">
-        <v>540</v>
-      </c>
-      <c r="R185" s="9">
-        <v>800</v>
-      </c>
-      <c r="S185" s="9">
-        <v>50</v>
-      </c>
-      <c r="T185" s="9">
-        <v>3730</v>
-      </c>
-      <c r="U185" s="9">
-        <v>305</v>
-      </c>
-      <c r="V185" s="9">
-        <v>635</v>
-      </c>
-      <c r="W185" s="9">
-        <v>180</v>
-      </c>
-      <c r="X185" s="9">
-        <v>2450</v>
-      </c>
-      <c r="Y185" s="9">
-        <v>1905</v>
-      </c>
-      <c r="Z185" s="9">
-        <v>1155</v>
-      </c>
-      <c r="AA185" s="9">
-        <v>1320</v>
-      </c>
       <c r="AB185" s="10">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AC185" s="10">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="AD185" s="9">
-        <v>1870</v>
+        <v>6025</v>
       </c>
       <c r="AE185" s="9">
-        <v>1310</v>
+        <v>4990</v>
       </c>
       <c r="AF185" s="9">
-        <v>140</v>
+        <v>205</v>
       </c>
       <c r="AG185" s="9">
-        <v>215</v>
+        <v>445</v>
       </c>
       <c r="AH185" s="9">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="AI185" s="9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AJ185" s="9">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="AK185" s="9">
-        <v>1870</v>
+        <v>6025</v>
       </c>
       <c r="AL185" s="9">
-        <v>605</v>
+        <v>935</v>
       </c>
       <c r="AM185" s="9">
-        <v>905</v>
+        <v>2675</v>
       </c>
       <c r="AN185" s="9">
-        <v>255</v>
+        <v>1750</v>
       </c>
       <c r="AO185" s="9">
-        <v>65</v>
+        <v>425</v>
       </c>
       <c r="AP185" s="9">
-        <v>1870</v>
+        <v>6025</v>
       </c>
       <c r="AQ185" s="9">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="AR185" s="9">
-        <v>290</v>
+        <v>1205</v>
       </c>
       <c r="AS185" s="9">
-        <v>525</v>
+        <v>1790</v>
       </c>
       <c r="AT185" s="9">
-        <v>395</v>
+        <v>1200</v>
       </c>
       <c r="AU185" s="9">
-        <v>310</v>
+        <v>750</v>
       </c>
       <c r="AV185" s="9">
-        <v>235</v>
+        <v>775</v>
       </c>
     </row>
-    <row r="186" spans="1:48">
+    <row r="186" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A186" s="9" t="s">
         <v>235</v>
       </c>
       <c r="B186" s="9">
-        <v>2965</v>
+        <v>5165</v>
       </c>
       <c r="C186" s="9">
-        <v>395</v>
+        <v>725</v>
       </c>
       <c r="D186" s="9">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="E186" s="9">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="F186" s="9">
-        <v>2565</v>
+        <v>4445</v>
       </c>
       <c r="G186" s="9">
-        <v>1820</v>
+        <v>3325</v>
       </c>
       <c r="H186" s="9">
-        <v>1550</v>
+        <v>2910</v>
       </c>
       <c r="I186" s="9">
-        <v>240</v>
+        <v>410</v>
       </c>
       <c r="J186" s="9">
-        <v>270</v>
+        <v>420</v>
       </c>
       <c r="K186" s="9">
-        <v>37200</v>
+        <v>46400</v>
       </c>
       <c r="L186" s="9">
-        <v>65500</v>
+        <v>85000</v>
       </c>
       <c r="M186" s="9">
-        <v>1365</v>
+        <v>2475</v>
       </c>
       <c r="N186" s="9">
         <v>160</v>
       </c>
       <c r="O186" s="9">
-        <v>190</v>
+        <v>375</v>
       </c>
       <c r="P186" s="9">
-        <v>2960</v>
+        <v>5170</v>
       </c>
       <c r="Q186" s="9">
         <v>540</v>
       </c>
       <c r="R186" s="9">
-        <v>465</v>
+        <v>800</v>
       </c>
       <c r="S186" s="9">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="T186" s="9">
-        <v>2095</v>
+        <v>3730</v>
       </c>
       <c r="U186" s="9">
-        <v>410</v>
+        <v>305</v>
       </c>
       <c r="V186" s="9">
-        <v>405</v>
+        <v>635</v>
       </c>
       <c r="W186" s="9">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="X186" s="9">
-        <v>1305</v>
+        <v>2450</v>
       </c>
       <c r="Y186" s="9">
-        <v>865</v>
+        <v>1905</v>
       </c>
       <c r="Z186" s="9">
-        <v>385</v>
+        <v>1155</v>
       </c>
       <c r="AA186" s="9">
-        <v>980</v>
+        <v>1320</v>
       </c>
       <c r="AB186" s="10">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
       <c r="AC186" s="10">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="AD186" s="9">
-        <v>1100</v>
+        <v>1870</v>
       </c>
       <c r="AE186" s="9">
-        <v>625</v>
+        <v>1310</v>
       </c>
       <c r="AF186" s="9">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="AG186" s="9">
+        <v>215</v>
+      </c>
+      <c r="AH186" s="9">
         <v>130</v>
       </c>
-      <c r="AH186" s="9">
-        <v>240</v>
-      </c>
       <c r="AI186" s="9">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="AJ186" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AK186" s="9">
-        <v>1100</v>
+        <v>1870</v>
       </c>
       <c r="AL186" s="9">
-        <v>270</v>
+        <v>605</v>
       </c>
       <c r="AM186" s="9">
-        <v>615</v>
+        <v>905</v>
       </c>
       <c r="AN186" s="9">
-        <v>155</v>
+        <v>255</v>
       </c>
       <c r="AO186" s="9">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="AP186" s="9">
-        <v>1100</v>
+        <v>1870</v>
       </c>
       <c r="AQ186" s="9">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="AR186" s="9">
-        <v>160</v>
+        <v>290</v>
       </c>
       <c r="AS186" s="9">
-        <v>285</v>
+        <v>525</v>
       </c>
       <c r="AT186" s="9">
-        <v>280</v>
+        <v>395</v>
       </c>
       <c r="AU186" s="9">
-        <v>115</v>
+        <v>310</v>
       </c>
       <c r="AV186" s="9">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
-    <row r="187" spans="1:48">
+    <row r="187" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A187" s="9" t="s">
         <v>236</v>
       </c>
       <c r="B187" s="9">
-        <v>2735</v>
+        <v>2965</v>
       </c>
       <c r="C187" s="9">
-        <v>450</v>
+        <v>395</v>
       </c>
       <c r="D187" s="9">
+        <v>375</v>
+      </c>
+      <c r="E187" s="9">
+        <v>30</v>
+      </c>
+      <c r="F187" s="9">
+        <v>2565</v>
+      </c>
+      <c r="G187" s="9">
+        <v>1820</v>
+      </c>
+      <c r="H187" s="9">
+        <v>1550</v>
+      </c>
+      <c r="I187" s="9">
+        <v>240</v>
+      </c>
+      <c r="J187" s="9">
+        <v>270</v>
+      </c>
+      <c r="K187" s="9">
+        <v>37200</v>
+      </c>
+      <c r="L187" s="9">
+        <v>65500</v>
+      </c>
+      <c r="M187" s="9">
+        <v>1365</v>
+      </c>
+      <c r="N187" s="9">
+        <v>160</v>
+      </c>
+      <c r="O187" s="9">
+        <v>190</v>
+      </c>
+      <c r="P187" s="9">
+        <v>2960</v>
+      </c>
+      <c r="Q187" s="9">
+        <v>540</v>
+      </c>
+      <c r="R187" s="9">
+        <v>465</v>
+      </c>
+      <c r="S187" s="9">
+        <v>95</v>
+      </c>
+      <c r="T187" s="9">
+        <v>2095</v>
+      </c>
+      <c r="U187" s="9">
+        <v>410</v>
+      </c>
+      <c r="V187" s="9">
         <v>405</v>
       </c>
-      <c r="E187" s="9">
+      <c r="W187" s="9">
+        <v>30</v>
+      </c>
+      <c r="X187" s="9">
+        <v>1305</v>
+      </c>
+      <c r="Y187" s="9">
+        <v>865</v>
+      </c>
+      <c r="Z187" s="9">
+        <v>385</v>
+      </c>
+      <c r="AA187" s="9">
+        <v>980</v>
+      </c>
+      <c r="AB187" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AC187" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="AD187" s="9">
+        <v>1100</v>
+      </c>
+      <c r="AE187" s="9">
+        <v>625</v>
+      </c>
+      <c r="AF187" s="9">
+        <v>60</v>
+      </c>
+      <c r="AG187" s="9">
+        <v>130</v>
+      </c>
+      <c r="AH187" s="9">
+        <v>240</v>
+      </c>
+      <c r="AI187" s="9">
         <v>15</v>
-      </c>
-      <c r="F187" s="9">
-        <v>2280</v>
-      </c>
-      <c r="G187" s="9">
-        <v>1600</v>
-      </c>
-      <c r="H187" s="9">
-        <v>1390</v>
-      </c>
-      <c r="I187" s="9">
-        <v>475</v>
-      </c>
-      <c r="J187" s="9">
-        <v>210</v>
-      </c>
-      <c r="K187" s="9">
-        <v>79500</v>
-      </c>
-      <c r="L187" s="9">
-        <v>196000</v>
-      </c>
-      <c r="M187" s="9">
-        <v>1150</v>
-      </c>
-      <c r="N187" s="9">
-        <v>20</v>
-      </c>
-      <c r="O187" s="9">
-        <v>115</v>
-      </c>
-      <c r="P187" s="9">
-        <v>2740</v>
-      </c>
-      <c r="Q187" s="9">
-        <v>225</v>
-      </c>
-      <c r="R187" s="9">
-        <v>555</v>
-      </c>
-      <c r="S187" s="9">
-        <v>50</v>
-      </c>
-      <c r="T187" s="9">
-        <v>1755</v>
-      </c>
-      <c r="U187" s="9">
-        <v>160</v>
-      </c>
-      <c r="V187" s="9">
-        <v>425</v>
-      </c>
-      <c r="W187" s="9">
-        <v>0</v>
-      </c>
-      <c r="X187" s="9">
-        <v>1145</v>
-      </c>
-      <c r="Y187" s="9">
-        <v>900</v>
-      </c>
-      <c r="Z187" s="9">
-        <v>835</v>
-      </c>
-      <c r="AA187" s="9">
-        <v>315</v>
-      </c>
-      <c r="AB187" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="AC187" s="10">
-        <v>0.43</v>
-      </c>
-      <c r="AD187" s="9">
-        <v>785</v>
-      </c>
-      <c r="AE187" s="9">
-        <v>565</v>
-      </c>
-      <c r="AF187" s="9">
-        <v>20</v>
-      </c>
-      <c r="AG187" s="9">
-        <v>20</v>
-      </c>
-      <c r="AH187" s="9">
-        <v>135</v>
-      </c>
-      <c r="AI187" s="9">
-        <v>20</v>
       </c>
       <c r="AJ187" s="9">
         <v>20</v>
       </c>
       <c r="AK187" s="9">
-        <v>785</v>
+        <v>1100</v>
       </c>
       <c r="AL187" s="9">
-        <v>365</v>
+        <v>270</v>
       </c>
       <c r="AM187" s="9">
-        <v>315</v>
+        <v>615</v>
       </c>
       <c r="AN187" s="9">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="AO187" s="9">
         <v>15</v>
       </c>
       <c r="AP187" s="9">
-        <v>785</v>
+        <v>1100</v>
       </c>
       <c r="AQ187" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="AR187" s="9">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="AS187" s="9">
-        <v>230</v>
+        <v>285</v>
       </c>
       <c r="AT187" s="9">
-        <v>205</v>
+        <v>280</v>
       </c>
       <c r="AU187" s="9">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="AV187" s="9">
-        <v>75</v>
+        <v>225</v>
       </c>
     </row>
-    <row r="188" spans="1:48">
+    <row r="188" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A188" s="9" t="s">
         <v>237</v>
       </c>
       <c r="B188" s="9">
-        <v>5365</v>
+        <v>2735</v>
       </c>
       <c r="C188" s="9">
-        <v>875</v>
+        <v>450</v>
       </c>
       <c r="D188" s="9">
-        <v>855</v>
+        <v>405</v>
       </c>
       <c r="E188" s="9">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F188" s="9">
-        <v>4485</v>
+        <v>2280</v>
       </c>
       <c r="G188" s="9">
-        <v>2840</v>
+        <v>1600</v>
       </c>
       <c r="H188" s="9">
-        <v>2525</v>
+        <v>1390</v>
       </c>
       <c r="I188" s="9">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="J188" s="9">
-        <v>320</v>
+        <v>210</v>
       </c>
       <c r="K188" s="9">
-        <v>55200</v>
+        <v>79500</v>
       </c>
       <c r="L188" s="9">
-        <v>151000</v>
+        <v>196000</v>
       </c>
       <c r="M188" s="9">
-        <v>1915</v>
+        <v>1150</v>
       </c>
       <c r="N188" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="O188" s="9">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="P188" s="9">
-        <v>5365</v>
+        <v>2740</v>
       </c>
       <c r="Q188" s="9">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="R188" s="9">
-        <v>1115</v>
+        <v>555</v>
       </c>
       <c r="S188" s="9">
+        <v>50</v>
+      </c>
+      <c r="T188" s="9">
+        <v>1755</v>
+      </c>
+      <c r="U188" s="9">
+        <v>160</v>
+      </c>
+      <c r="V188" s="9">
+        <v>425</v>
+      </c>
+      <c r="W188" s="9">
+        <v>0</v>
+      </c>
+      <c r="X188" s="9">
+        <v>1145</v>
+      </c>
+      <c r="Y188" s="9">
+        <v>900</v>
+      </c>
+      <c r="Z188" s="9">
+        <v>835</v>
+      </c>
+      <c r="AA188" s="9">
+        <v>315</v>
+      </c>
+      <c r="AB188" s="10">
+        <v>0.13</v>
+      </c>
+      <c r="AC188" s="10">
+        <v>0.43</v>
+      </c>
+      <c r="AD188" s="9">
+        <v>785</v>
+      </c>
+      <c r="AE188" s="9">
+        <v>565</v>
+      </c>
+      <c r="AF188" s="9">
+        <v>20</v>
+      </c>
+      <c r="AG188" s="9">
+        <v>20</v>
+      </c>
+      <c r="AH188" s="9">
+        <v>135</v>
+      </c>
+      <c r="AI188" s="9">
+        <v>20</v>
+      </c>
+      <c r="AJ188" s="9">
+        <v>20</v>
+      </c>
+      <c r="AK188" s="9">
+        <v>785</v>
+      </c>
+      <c r="AL188" s="9">
+        <v>365</v>
+      </c>
+      <c r="AM188" s="9">
+        <v>315</v>
+      </c>
+      <c r="AN188" s="9">
         <v>85</v>
       </c>
-      <c r="T188" s="9">
-        <v>3325</v>
-      </c>
-      <c r="U188" s="9">
-        <v>140</v>
-      </c>
-      <c r="V188" s="9">
-        <v>920</v>
-      </c>
-      <c r="W188" s="9">
-        <v>55</v>
-      </c>
-      <c r="X188" s="9">
-        <v>1910</v>
-      </c>
-      <c r="Y188" s="9">
-        <v>1685</v>
-      </c>
-      <c r="Z188" s="9">
-        <v>1825</v>
-      </c>
-      <c r="AA188" s="9">
-        <v>90</v>
-      </c>
-      <c r="AB188" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="AC188" s="10">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AD188" s="9">
-        <v>1520</v>
-      </c>
-      <c r="AE188" s="9">
-        <v>1330</v>
-      </c>
-      <c r="AF188" s="9">
-        <v>85</v>
-      </c>
-      <c r="AG188" s="9">
-        <v>45</v>
-      </c>
-      <c r="AH188" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI188" s="9">
-        <v>10</v>
-      </c>
-      <c r="AJ188" s="9">
-        <v>40</v>
-      </c>
-      <c r="AK188" s="9">
-        <v>1520</v>
-      </c>
-      <c r="AL188" s="9">
-        <v>245</v>
-      </c>
-      <c r="AM188" s="9">
-        <v>720</v>
-      </c>
-      <c r="AN188" s="9">
-        <v>425</v>
-      </c>
       <c r="AO188" s="9">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="AP188" s="9">
-        <v>1520</v>
+        <v>785</v>
       </c>
       <c r="AQ188" s="9">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AR188" s="9">
+        <v>110</v>
+      </c>
+      <c r="AS188" s="9">
         <v>230</v>
       </c>
-      <c r="AS188" s="9">
-        <v>505</v>
-      </c>
       <c r="AT188" s="9">
-        <v>305</v>
+        <v>205</v>
       </c>
       <c r="AU188" s="9">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="AV188" s="9">
-        <v>215</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="189" spans="1:48">
+    <row r="189" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A189" s="9" t="s">
         <v>238</v>
       </c>
       <c r="B189" s="9">
-        <v>12040</v>
+        <v>5365</v>
       </c>
       <c r="C189" s="9">
-        <v>1730</v>
+        <v>875</v>
       </c>
       <c r="D189" s="9">
-        <v>2370</v>
+        <v>855</v>
       </c>
       <c r="E189" s="9">
-        <v>475</v>
+        <v>60</v>
       </c>
       <c r="F189" s="9">
-        <v>10300</v>
+        <v>4485</v>
       </c>
       <c r="G189" s="9">
-        <v>6195</v>
+        <v>2840</v>
       </c>
       <c r="H189" s="9">
-        <v>5395</v>
+        <v>2525</v>
       </c>
       <c r="I189" s="9">
-        <v>1000</v>
+        <v>485</v>
       </c>
       <c r="J189" s="9">
-        <v>800</v>
-      </c>
-      <c r="K189" s="14">
-        <v>44800</v>
-      </c>
-      <c r="L189" s="14">
-        <v>90000</v>
-      </c>
-      <c r="M189" s="14">
-        <v>5415</v>
-      </c>
-      <c r="N189" s="14">
-        <v>285</v>
-      </c>
-      <c r="O189" s="14">
-        <v>865</v>
-      </c>
-      <c r="P189" s="14">
-        <v>12040</v>
-      </c>
-      <c r="Q189" s="14">
-        <v>1440</v>
-      </c>
-      <c r="R189" s="14">
-        <v>2035</v>
-      </c>
-      <c r="S189" s="14">
-        <v>240</v>
-      </c>
-      <c r="T189" s="14">
-        <v>7150</v>
-      </c>
-      <c r="U189" s="14">
-        <v>905</v>
-      </c>
-      <c r="V189" s="14">
-        <v>2855</v>
-      </c>
-      <c r="W189" s="14">
-        <v>290</v>
-      </c>
-      <c r="X189" s="14">
-        <v>5385</v>
-      </c>
-      <c r="Y189" s="14">
-        <v>3980</v>
-      </c>
-      <c r="Z189" s="12">
-        <v>3370</v>
-      </c>
-      <c r="AA189" s="12">
-        <v>2045</v>
-      </c>
-      <c r="AB189" s="15">
-        <v>0.16</v>
-      </c>
-      <c r="AC189" s="15">
-        <v>0.43</v>
+        <v>320</v>
+      </c>
+      <c r="K189" s="9">
+        <v>55200</v>
+      </c>
+      <c r="L189" s="9">
+        <v>151000</v>
+      </c>
+      <c r="M189" s="9">
+        <v>1915</v>
+      </c>
+      <c r="N189" s="9">
+        <v>25</v>
+      </c>
+      <c r="O189" s="9">
+        <v>60</v>
+      </c>
+      <c r="P189" s="9">
+        <v>5365</v>
+      </c>
+      <c r="Q189" s="9">
+        <v>280</v>
+      </c>
+      <c r="R189" s="9">
+        <v>1115</v>
+      </c>
+      <c r="S189" s="9">
+        <v>85</v>
+      </c>
+      <c r="T189" s="9">
+        <v>3325</v>
+      </c>
+      <c r="U189" s="9">
+        <v>140</v>
+      </c>
+      <c r="V189" s="9">
+        <v>920</v>
+      </c>
+      <c r="W189" s="9">
+        <v>55</v>
+      </c>
+      <c r="X189" s="9">
+        <v>1910</v>
+      </c>
+      <c r="Y189" s="9">
+        <v>1685</v>
+      </c>
+      <c r="Z189" s="9">
+        <v>1825</v>
+      </c>
+      <c r="AA189" s="9">
+        <v>90</v>
+      </c>
+      <c r="AB189" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="AC189" s="10">
+        <v>0.56000000000000005</v>
       </c>
       <c r="AD189" s="9">
-        <v>3345</v>
+        <v>1520</v>
       </c>
       <c r="AE189" s="9">
-        <v>2310</v>
+        <v>1330</v>
       </c>
       <c r="AF189" s="9">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="AG189" s="9">
-        <v>310</v>
+        <v>45</v>
       </c>
       <c r="AH189" s="9">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="AI189" s="9">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="AJ189" s="9">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="AK189" s="9">
-        <v>3345</v>
+        <v>1520</v>
       </c>
       <c r="AL189" s="9">
-        <v>935</v>
+        <v>245</v>
       </c>
       <c r="AM189" s="9">
+        <v>720</v>
+      </c>
+      <c r="AN189" s="9">
+        <v>425</v>
+      </c>
+      <c r="AO189" s="9">
+        <v>65</v>
+      </c>
+      <c r="AP189" s="9">
         <v>1520</v>
       </c>
-      <c r="AN189" s="9">
-        <v>680</v>
-      </c>
-      <c r="AO189" s="9">
-        <v>105</v>
-      </c>
-      <c r="AP189" s="9">
-        <v>3345</v>
-      </c>
       <c r="AQ189" s="9">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="AR189" s="9">
-        <v>425</v>
+        <v>230</v>
       </c>
       <c r="AS189" s="9">
-        <v>940</v>
+        <v>505</v>
       </c>
       <c r="AT189" s="9">
-        <v>740</v>
+        <v>305</v>
       </c>
       <c r="AU189" s="9">
-        <v>520</v>
+        <v>190</v>
       </c>
       <c r="AV189" s="9">
-        <v>530</v>
+        <v>215</v>
       </c>
     </row>
-    <row r="190" spans="1:48">
+    <row r="190" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A190" s="9" t="s">
         <v>239</v>
       </c>
       <c r="B190" s="9">
-        <v>7650</v>
+        <v>12040</v>
       </c>
       <c r="C190" s="9">
-        <v>1690</v>
+        <v>1730</v>
       </c>
       <c r="D190" s="9">
-        <v>400</v>
+        <v>2370</v>
       </c>
       <c r="E190" s="9">
-        <v>65</v>
+        <v>475</v>
       </c>
       <c r="F190" s="9">
-        <v>5970</v>
+        <v>10300</v>
       </c>
       <c r="G190" s="9">
-        <v>4615</v>
+        <v>6195</v>
       </c>
       <c r="H190" s="9">
-        <v>4125</v>
+        <v>5395</v>
       </c>
       <c r="I190" s="9">
-        <v>495</v>
+        <v>1000</v>
       </c>
       <c r="J190" s="9">
-        <v>490</v>
-      </c>
-      <c r="K190" s="9">
-        <v>5040</v>
-      </c>
-      <c r="L190" s="9">
-        <v>109000</v>
-      </c>
-      <c r="M190" s="9">
-        <v>2785</v>
-      </c>
-      <c r="N190" s="9">
-        <v>45</v>
-      </c>
-      <c r="O190" s="9">
-        <v>225</v>
-      </c>
-      <c r="P190" s="9">
-        <v>7650</v>
-      </c>
-      <c r="Q190" s="9">
-        <v>450</v>
-      </c>
-      <c r="R190" s="9">
-        <v>1965</v>
-      </c>
-      <c r="S190" s="9">
-        <v>130</v>
-      </c>
-      <c r="T190" s="9">
-        <v>5230</v>
-      </c>
-      <c r="U190" s="9">
-        <v>260</v>
-      </c>
-      <c r="V190" s="9">
-        <v>460</v>
-      </c>
-      <c r="W190" s="9">
-        <v>55</v>
-      </c>
-      <c r="X190" s="9">
-        <v>2770</v>
-      </c>
-      <c r="Y190" s="9">
-        <v>2020</v>
-      </c>
-      <c r="Z190" s="9">
-        <v>2275</v>
-      </c>
-      <c r="AA190" s="9">
-        <v>505</v>
-      </c>
-      <c r="AB190" s="10">
-        <v>0.23</v>
-      </c>
-      <c r="AC190" s="10">
-        <v>0.48</v>
+        <v>800</v>
+      </c>
+      <c r="K190" s="14">
+        <v>44800</v>
+      </c>
+      <c r="L190" s="14">
+        <v>90000</v>
+      </c>
+      <c r="M190" s="14">
+        <v>5415</v>
+      </c>
+      <c r="N190" s="14">
+        <v>285</v>
+      </c>
+      <c r="O190" s="14">
+        <v>865</v>
+      </c>
+      <c r="P190" s="14">
+        <v>12040</v>
+      </c>
+      <c r="Q190" s="14">
+        <v>1440</v>
+      </c>
+      <c r="R190" s="14">
+        <v>2035</v>
+      </c>
+      <c r="S190" s="14">
+        <v>240</v>
+      </c>
+      <c r="T190" s="14">
+        <v>7150</v>
+      </c>
+      <c r="U190" s="14">
+        <v>905</v>
+      </c>
+      <c r="V190" s="14">
+        <v>2855</v>
+      </c>
+      <c r="W190" s="14">
+        <v>290</v>
+      </c>
+      <c r="X190" s="14">
+        <v>5385</v>
+      </c>
+      <c r="Y190" s="14">
+        <v>3980</v>
+      </c>
+      <c r="Z190" s="12">
+        <v>3370</v>
+      </c>
+      <c r="AA190" s="12">
+        <v>2045</v>
+      </c>
+      <c r="AB190" s="15">
+        <v>0.16</v>
+      </c>
+      <c r="AC190" s="15">
+        <v>0.43</v>
       </c>
       <c r="AD190" s="9">
-        <v>3000</v>
+        <v>3345</v>
       </c>
       <c r="AE190" s="9">
-        <v>2495</v>
+        <v>2310</v>
       </c>
       <c r="AF190" s="9">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="AG190" s="9">
-        <v>180</v>
+        <v>310</v>
       </c>
       <c r="AH190" s="9">
-        <v>60</v>
+        <v>275</v>
       </c>
       <c r="AI190" s="9">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AJ190" s="9">
+        <v>125</v>
+      </c>
+      <c r="AK190" s="9">
+        <v>3345</v>
+      </c>
+      <c r="AL190" s="9">
+        <v>935</v>
+      </c>
+      <c r="AM190" s="9">
+        <v>1520</v>
+      </c>
+      <c r="AN190" s="9">
+        <v>680</v>
+      </c>
+      <c r="AO190" s="9">
         <v>105</v>
       </c>
-      <c r="AK190" s="9">
-        <v>3000</v>
-      </c>
-      <c r="AL190" s="9">
-        <v>495</v>
-      </c>
-      <c r="AM190" s="9">
-        <v>1390</v>
-      </c>
-      <c r="AN190" s="9">
-        <v>745</v>
-      </c>
-      <c r="AO190" s="9">
-        <v>200</v>
-      </c>
       <c r="AP190" s="9">
-        <v>3000</v>
+        <v>3345</v>
       </c>
       <c r="AQ190" s="9">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="AR190" s="9">
-        <v>600</v>
+        <v>425</v>
       </c>
       <c r="AS190" s="9">
-        <v>910</v>
+        <v>940</v>
       </c>
       <c r="AT190" s="9">
-        <v>505</v>
+        <v>740</v>
       </c>
       <c r="AU190" s="9">
-        <v>335</v>
+        <v>520</v>
       </c>
       <c r="AV190" s="9">
-        <v>455</v>
+        <v>530</v>
       </c>
     </row>
-    <row r="191" spans="1:48">
+    <row r="191" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A191" s="9" t="s">
         <v>240</v>
       </c>
       <c r="B191" s="9">
-        <v>6635</v>
+        <v>7650</v>
       </c>
       <c r="C191" s="9">
-        <v>1280</v>
+        <v>1690</v>
       </c>
       <c r="D191" s="9">
-        <v>805</v>
+        <v>400</v>
       </c>
       <c r="E191" s="9">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F191" s="9">
-        <v>5370</v>
+        <v>5970</v>
       </c>
       <c r="G191" s="9">
-        <v>3925</v>
+        <v>4615</v>
       </c>
       <c r="H191" s="9">
-        <v>3615</v>
+        <v>4125</v>
       </c>
       <c r="I191" s="9">
-        <v>900</v>
+        <v>495</v>
       </c>
       <c r="J191" s="9">
-        <v>310</v>
+        <v>490</v>
       </c>
       <c r="K191" s="9">
-        <v>58800</v>
+        <v>5040</v>
       </c>
       <c r="L191" s="9">
-        <v>123000</v>
+        <v>109000</v>
       </c>
       <c r="M191" s="9">
-        <v>2825</v>
+        <v>2785</v>
       </c>
       <c r="N191" s="9">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="O191" s="9">
-        <v>360</v>
+        <v>225</v>
       </c>
       <c r="P191" s="9">
-        <v>6635</v>
+        <v>7650</v>
       </c>
       <c r="Q191" s="9">
+        <v>450</v>
+      </c>
+      <c r="R191" s="9">
+        <v>1965</v>
+      </c>
+      <c r="S191" s="9">
+        <v>130</v>
+      </c>
+      <c r="T191" s="9">
+        <v>5230</v>
+      </c>
+      <c r="U191" s="9">
+        <v>260</v>
+      </c>
+      <c r="V191" s="9">
+        <v>460</v>
+      </c>
+      <c r="W191" s="9">
+        <v>55</v>
+      </c>
+      <c r="X191" s="9">
+        <v>2770</v>
+      </c>
+      <c r="Y191" s="9">
+        <v>2020</v>
+      </c>
+      <c r="Z191" s="9">
+        <v>2275</v>
+      </c>
+      <c r="AA191" s="9">
         <v>505</v>
       </c>
-      <c r="R191" s="9">
-        <v>1465</v>
-      </c>
-      <c r="S191" s="9">
-        <v>70</v>
-      </c>
-      <c r="T191" s="9">
-        <v>4295</v>
-      </c>
-      <c r="U191" s="9">
-        <v>280</v>
-      </c>
-      <c r="V191" s="9">
-        <v>875</v>
-      </c>
-      <c r="W191" s="9">
+      <c r="AB191" s="10">
+        <v>0.23</v>
+      </c>
+      <c r="AC191" s="10">
+        <v>0.48</v>
+      </c>
+      <c r="AD191" s="9">
+        <v>3000</v>
+      </c>
+      <c r="AE191" s="9">
+        <v>2495</v>
+      </c>
+      <c r="AF191" s="9">
         <v>155</v>
       </c>
-      <c r="X191" s="9">
-        <v>2815</v>
-      </c>
-      <c r="Y191" s="9">
-        <v>2200</v>
-      </c>
-      <c r="Z191" s="9">
-        <v>1815</v>
-      </c>
-      <c r="AA191" s="9">
-        <v>1010</v>
-      </c>
-      <c r="AB191" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="AC191" s="10">
-        <v>0.34</v>
-      </c>
-      <c r="AD191" s="9">
-        <v>2010</v>
-      </c>
-      <c r="AE191" s="9">
-        <v>1380</v>
-      </c>
-      <c r="AF191" s="9">
-        <v>125</v>
-      </c>
       <c r="AG191" s="9">
-        <v>115</v>
+        <v>180</v>
       </c>
       <c r="AH191" s="9">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="AI191" s="9">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AJ191" s="9">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="AK191" s="9">
-        <v>2010</v>
+        <v>3000</v>
       </c>
       <c r="AL191" s="9">
-        <v>660</v>
+        <v>495</v>
       </c>
       <c r="AM191" s="9">
-        <v>915</v>
+        <v>1390</v>
       </c>
       <c r="AN191" s="9">
-        <v>345</v>
+        <v>745</v>
       </c>
       <c r="AO191" s="9">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="AP191" s="9">
-        <v>2010</v>
+        <v>3000</v>
       </c>
       <c r="AQ191" s="9">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="AR191" s="9">
-        <v>230</v>
+        <v>600</v>
       </c>
       <c r="AS191" s="9">
-        <v>595</v>
+        <v>910</v>
       </c>
       <c r="AT191" s="9">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="AU191" s="9">
-        <v>430</v>
+        <v>335</v>
       </c>
       <c r="AV191" s="9">
-        <v>205</v>
+        <v>455</v>
       </c>
     </row>
-    <row r="192" spans="1:48">
+    <row r="192" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A192" s="9" t="s">
         <v>241</v>
       </c>
       <c r="B192" s="9">
-        <v>11560</v>
+        <v>6635</v>
       </c>
       <c r="C192" s="9">
-        <v>2930</v>
+        <v>1280</v>
       </c>
       <c r="D192" s="9">
         <v>805</v>
       </c>
       <c r="E192" s="9">
+        <v>80</v>
+      </c>
+      <c r="F192" s="9">
+        <v>5370</v>
+      </c>
+      <c r="G192" s="9">
+        <v>3925</v>
+      </c>
+      <c r="H192" s="9">
+        <v>3615</v>
+      </c>
+      <c r="I192" s="9">
+        <v>900</v>
+      </c>
+      <c r="J192" s="9">
+        <v>310</v>
+      </c>
+      <c r="K192" s="9">
+        <v>58800</v>
+      </c>
+      <c r="L192" s="9">
+        <v>123000</v>
+      </c>
+      <c r="M192" s="9">
+        <v>2825</v>
+      </c>
+      <c r="N192" s="9">
+        <v>65</v>
+      </c>
+      <c r="O192" s="9">
+        <v>360</v>
+      </c>
+      <c r="P192" s="9">
+        <v>6635</v>
+      </c>
+      <c r="Q192" s="9">
+        <v>505</v>
+      </c>
+      <c r="R192" s="9">
+        <v>1465</v>
+      </c>
+      <c r="S192" s="9">
+        <v>70</v>
+      </c>
+      <c r="T192" s="9">
+        <v>4295</v>
+      </c>
+      <c r="U192" s="9">
+        <v>280</v>
+      </c>
+      <c r="V192" s="9">
+        <v>875</v>
+      </c>
+      <c r="W192" s="9">
+        <v>155</v>
+      </c>
+      <c r="X192" s="9">
+        <v>2815</v>
+      </c>
+      <c r="Y192" s="9">
+        <v>2200</v>
+      </c>
+      <c r="Z192" s="9">
+        <v>1815</v>
+      </c>
+      <c r="AA192" s="9">
+        <v>1010</v>
+      </c>
+      <c r="AB192" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="AC192" s="10">
+        <v>0.34</v>
+      </c>
+      <c r="AD192" s="9">
+        <v>2010</v>
+      </c>
+      <c r="AE192" s="9">
+        <v>1380</v>
+      </c>
+      <c r="AF192" s="9">
+        <v>125</v>
+      </c>
+      <c r="AG192" s="9">
+        <v>115</v>
+      </c>
+      <c r="AH192" s="9">
+        <v>240</v>
+      </c>
+      <c r="AI192" s="9">
+        <v>120</v>
+      </c>
+      <c r="AJ192" s="9">
+        <v>25</v>
+      </c>
+      <c r="AK192" s="9">
+        <v>2010</v>
+      </c>
+      <c r="AL192" s="9">
+        <v>660</v>
+      </c>
+      <c r="AM192" s="9">
+        <v>915</v>
+      </c>
+      <c r="AN192" s="9">
+        <v>345</v>
+      </c>
+      <c r="AO192" s="9">
+        <v>35</v>
+      </c>
+      <c r="AP192" s="9">
+        <v>2010</v>
+      </c>
+      <c r="AQ192" s="9">
         <v>55</v>
       </c>
-      <c r="F192" s="9">
-        <v>8620</v>
-      </c>
-      <c r="G192" s="9">
-        <v>6255</v>
-      </c>
-      <c r="H192" s="9">
-        <v>5470</v>
-      </c>
-      <c r="I192" s="9">
-        <v>1070</v>
-      </c>
-      <c r="J192" s="9">
-        <v>790</v>
-      </c>
-      <c r="K192" s="9">
-        <v>62400</v>
-      </c>
-      <c r="L192" s="9">
-        <v>172000</v>
-      </c>
-      <c r="M192" s="9">
-        <v>3740</v>
-      </c>
-      <c r="N192" s="9">
-        <v>80</v>
-      </c>
-      <c r="O192" s="9">
-        <v>155</v>
-      </c>
-      <c r="P192" s="9">
-        <v>11555</v>
-      </c>
-      <c r="Q192" s="9">
-        <v>685</v>
-      </c>
-      <c r="R192" s="9">
-        <v>3650</v>
-      </c>
-      <c r="S192" s="9">
-        <v>255</v>
-      </c>
-      <c r="T192" s="9">
-        <v>7040</v>
-      </c>
-      <c r="U192" s="9">
-        <v>375</v>
-      </c>
-      <c r="V192" s="9">
-        <v>865</v>
-      </c>
-      <c r="W192" s="9">
-        <v>55</v>
-      </c>
-      <c r="X192" s="9">
-        <v>3710</v>
-      </c>
-      <c r="Y192" s="9">
-        <v>3080</v>
-      </c>
-      <c r="Z192" s="9">
-        <v>3295</v>
-      </c>
-      <c r="AA192" s="9">
-        <v>450</v>
-      </c>
-      <c r="AB192" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AC192" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="AD192" s="9">
-        <v>2985</v>
-      </c>
-      <c r="AE192" s="9">
-        <v>2455</v>
-      </c>
-      <c r="AF192" s="9">
-        <v>100</v>
-      </c>
-      <c r="AG192" s="9">
-        <v>210</v>
-      </c>
-      <c r="AH192" s="9">
-        <v>75</v>
-      </c>
-      <c r="AI192" s="9">
-        <v>25</v>
-      </c>
-      <c r="AJ192" s="9">
-        <v>120</v>
-      </c>
-      <c r="AK192" s="9">
-        <v>2985</v>
-      </c>
-      <c r="AL192" s="9">
-        <v>495</v>
-      </c>
-      <c r="AM192" s="9">
-        <v>1410</v>
-      </c>
-      <c r="AN192" s="9">
-        <v>815</v>
-      </c>
-      <c r="AO192" s="9">
-        <v>105</v>
-      </c>
-      <c r="AP192" s="9">
-        <v>2985</v>
-      </c>
-      <c r="AQ192" s="9">
-        <v>125</v>
-      </c>
       <c r="AR192" s="9">
-        <v>505</v>
+        <v>230</v>
       </c>
       <c r="AS192" s="9">
-        <v>900</v>
+        <v>595</v>
       </c>
       <c r="AT192" s="9">
-        <v>615</v>
+        <v>490</v>
       </c>
       <c r="AU192" s="9">
-        <v>385</v>
+        <v>430</v>
       </c>
       <c r="AV192" s="9">
-        <v>460</v>
+        <v>205</v>
       </c>
     </row>
-    <row r="193" spans="1:48">
+    <row r="193" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A193" s="9" t="s">
         <v>242</v>
       </c>
       <c r="B193" s="9">
-        <v>3225</v>
+        <v>11560</v>
       </c>
       <c r="C193" s="9">
-        <v>530</v>
+        <v>2930</v>
       </c>
       <c r="D193" s="9">
-        <v>480</v>
+        <v>805</v>
       </c>
       <c r="E193" s="9">
+        <v>55</v>
+      </c>
+      <c r="F193" s="9">
+        <v>8620</v>
+      </c>
+      <c r="G193" s="9">
+        <v>6255</v>
+      </c>
+      <c r="H193" s="9">
+        <v>5470</v>
+      </c>
+      <c r="I193" s="9">
+        <v>1070</v>
+      </c>
+      <c r="J193" s="9">
+        <v>790</v>
+      </c>
+      <c r="K193" s="9">
+        <v>62400</v>
+      </c>
+      <c r="L193" s="9">
+        <v>172000</v>
+      </c>
+      <c r="M193" s="9">
+        <v>3740</v>
+      </c>
+      <c r="N193" s="9">
+        <v>80</v>
+      </c>
+      <c r="O193" s="9">
+        <v>155</v>
+      </c>
+      <c r="P193" s="9">
+        <v>11555</v>
+      </c>
+      <c r="Q193" s="9">
+        <v>685</v>
+      </c>
+      <c r="R193" s="9">
+        <v>3650</v>
+      </c>
+      <c r="S193" s="9">
+        <v>255</v>
+      </c>
+      <c r="T193" s="9">
+        <v>7040</v>
+      </c>
+      <c r="U193" s="9">
+        <v>375</v>
+      </c>
+      <c r="V193" s="9">
+        <v>865</v>
+      </c>
+      <c r="W193" s="9">
+        <v>55</v>
+      </c>
+      <c r="X193" s="9">
+        <v>3710</v>
+      </c>
+      <c r="Y193" s="9">
+        <v>3080</v>
+      </c>
+      <c r="Z193" s="9">
+        <v>3295</v>
+      </c>
+      <c r="AA193" s="9">
+        <v>450</v>
+      </c>
+      <c r="AB193" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AC193" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="AD193" s="9">
+        <v>2985</v>
+      </c>
+      <c r="AE193" s="9">
+        <v>2455</v>
+      </c>
+      <c r="AF193" s="9">
         <v>100</v>
       </c>
-      <c r="F193" s="9">
-        <v>2700</v>
-      </c>
-      <c r="G193" s="9">
-        <v>1760</v>
-      </c>
-      <c r="H193" s="9">
-        <v>1575</v>
-      </c>
-      <c r="I193" s="9">
-        <v>255</v>
-      </c>
-      <c r="J193" s="9">
-        <v>190</v>
-      </c>
-      <c r="K193" s="9">
-        <v>43200</v>
-      </c>
-      <c r="L193" s="9">
-        <v>90000</v>
-      </c>
-      <c r="M193" s="9">
-        <v>1370</v>
-      </c>
-      <c r="N193" s="9">
-        <v>0</v>
-      </c>
-      <c r="O193" s="9">
-        <v>180</v>
-      </c>
-      <c r="P193" s="9">
-        <v>3225</v>
-      </c>
-      <c r="Q193" s="9">
-        <v>290</v>
-      </c>
-      <c r="R193" s="9">
-        <v>595</v>
-      </c>
-      <c r="S193" s="9">
-        <v>55</v>
-      </c>
-      <c r="T193" s="9">
-        <v>2055</v>
-      </c>
-      <c r="U193" s="9">
-        <v>170</v>
-      </c>
-      <c r="V193" s="9">
-        <v>575</v>
-      </c>
-      <c r="W193" s="9">
-        <v>60</v>
-      </c>
-      <c r="X193" s="9">
-        <v>1370</v>
-      </c>
-      <c r="Y193" s="9">
-        <v>1105</v>
-      </c>
-      <c r="Z193" s="9">
-        <v>985</v>
-      </c>
-      <c r="AA193" s="9">
+      <c r="AG193" s="9">
+        <v>210</v>
+      </c>
+      <c r="AH193" s="9">
+        <v>75</v>
+      </c>
+      <c r="AI193" s="9">
+        <v>25</v>
+      </c>
+      <c r="AJ193" s="9">
+        <v>120</v>
+      </c>
+      <c r="AK193" s="9">
+        <v>2985</v>
+      </c>
+      <c r="AL193" s="9">
+        <v>495</v>
+      </c>
+      <c r="AM193" s="9">
+        <v>1410</v>
+      </c>
+      <c r="AN193" s="9">
+        <v>815</v>
+      </c>
+      <c r="AO193" s="9">
+        <v>105</v>
+      </c>
+      <c r="AP193" s="9">
+        <v>2985</v>
+      </c>
+      <c r="AQ193" s="9">
+        <v>125</v>
+      </c>
+      <c r="AR193" s="9">
+        <v>505</v>
+      </c>
+      <c r="AS193" s="9">
+        <v>900</v>
+      </c>
+      <c r="AT193" s="9">
+        <v>615</v>
+      </c>
+      <c r="AU193" s="9">
         <v>385</v>
       </c>
-      <c r="AB193" s="10">
-        <v>0.16</v>
-      </c>
-      <c r="AC193" s="10">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AD193" s="9">
-        <v>1115</v>
-      </c>
-      <c r="AE193" s="9">
-        <v>855</v>
-      </c>
-      <c r="AF193" s="9">
-        <v>75</v>
-      </c>
-      <c r="AG193" s="9">
-        <v>105</v>
-      </c>
-      <c r="AH193" s="9">
-        <v>20</v>
-      </c>
-      <c r="AI193" s="9">
-        <v>20</v>
-      </c>
-      <c r="AJ193" s="9">
-        <v>45</v>
-      </c>
-      <c r="AK193" s="9">
-        <v>1115</v>
-      </c>
-      <c r="AL193" s="9">
-        <v>275</v>
-      </c>
-      <c r="AM193" s="9">
-        <v>525</v>
-      </c>
-      <c r="AN193" s="9">
-        <v>250</v>
-      </c>
-      <c r="AO193" s="9">
-        <v>35</v>
-      </c>
-      <c r="AP193" s="9">
-        <v>1115</v>
-      </c>
-      <c r="AQ193" s="9">
-        <v>65</v>
-      </c>
-      <c r="AR193" s="9">
-        <v>185</v>
-      </c>
-      <c r="AS193" s="9">
-        <v>300</v>
-      </c>
-      <c r="AT193" s="9">
-        <v>245</v>
-      </c>
-      <c r="AU193" s="9">
-        <v>195</v>
-      </c>
       <c r="AV193" s="9">
-        <v>130</v>
+        <v>460</v>
       </c>
     </row>
-    <row r="194" spans="1:48">
+    <row r="194" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A194" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B194" s="9">
-        <v>11085</v>
+        <v>3225</v>
       </c>
       <c r="C194" s="9">
-        <v>2115</v>
+        <v>530</v>
       </c>
       <c r="D194" s="9">
-        <v>1540</v>
+        <v>480</v>
       </c>
       <c r="E194" s="9">
+        <v>100</v>
+      </c>
+      <c r="F194" s="9">
+        <v>2700</v>
+      </c>
+      <c r="G194" s="9">
+        <v>1760</v>
+      </c>
+      <c r="H194" s="9">
+        <v>1575</v>
+      </c>
+      <c r="I194" s="9">
+        <v>255</v>
+      </c>
+      <c r="J194" s="9">
+        <v>190</v>
+      </c>
+      <c r="K194" s="9">
+        <v>43200</v>
+      </c>
+      <c r="L194" s="9">
+        <v>90000</v>
+      </c>
+      <c r="M194" s="9">
+        <v>1370</v>
+      </c>
+      <c r="N194" s="9">
+        <v>0</v>
+      </c>
+      <c r="O194" s="9">
+        <v>180</v>
+      </c>
+      <c r="P194" s="9">
+        <v>3225</v>
+      </c>
+      <c r="Q194" s="9">
+        <v>290</v>
+      </c>
+      <c r="R194" s="9">
+        <v>595</v>
+      </c>
+      <c r="S194" s="9">
+        <v>55</v>
+      </c>
+      <c r="T194" s="9">
+        <v>2055</v>
+      </c>
+      <c r="U194" s="9">
+        <v>170</v>
+      </c>
+      <c r="V194" s="9">
+        <v>575</v>
+      </c>
+      <c r="W194" s="9">
+        <v>60</v>
+      </c>
+      <c r="X194" s="9">
+        <v>1370</v>
+      </c>
+      <c r="Y194" s="9">
+        <v>1105</v>
+      </c>
+      <c r="Z194" s="9">
+        <v>985</v>
+      </c>
+      <c r="AA194" s="9">
+        <v>385</v>
+      </c>
+      <c r="AB194" s="10">
+        <v>0.16</v>
+      </c>
+      <c r="AC194" s="10">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AD194" s="9">
+        <v>1115</v>
+      </c>
+      <c r="AE194" s="9">
+        <v>855</v>
+      </c>
+      <c r="AF194" s="9">
         <v>75</v>
       </c>
-      <c r="F194" s="9">
-        <v>8970</v>
-      </c>
-      <c r="G194" s="9">
-        <v>5490</v>
-      </c>
-      <c r="H194" s="9">
-        <v>4640</v>
-      </c>
-      <c r="I194" s="9">
-        <v>705</v>
-      </c>
-      <c r="J194" s="9">
-        <v>855</v>
-      </c>
-      <c r="K194" s="9">
-        <v>34800</v>
-      </c>
-      <c r="L194" s="9">
-        <v>88000</v>
-      </c>
-      <c r="M194" s="9">
-        <v>3460</v>
-      </c>
-      <c r="N194" s="9">
-        <v>90</v>
-      </c>
-      <c r="O194" s="9">
-        <v>320</v>
-      </c>
-      <c r="P194" s="9">
-        <v>11085</v>
-      </c>
-      <c r="Q194" s="9">
-        <v>1085</v>
-      </c>
-      <c r="R194" s="9">
-        <v>2475</v>
-      </c>
-      <c r="S194" s="9">
-        <v>355</v>
-      </c>
-      <c r="T194" s="9">
-        <v>6995</v>
-      </c>
-      <c r="U194" s="9">
-        <v>605</v>
-      </c>
-      <c r="V194" s="9">
-        <v>1620</v>
-      </c>
-      <c r="W194" s="9">
-        <v>125</v>
-      </c>
-      <c r="X194" s="9">
-        <v>3455</v>
-      </c>
-      <c r="Y194" s="9">
-        <v>2775</v>
-      </c>
-      <c r="Z194" s="9">
-        <v>2450</v>
-      </c>
-      <c r="AA194" s="9">
-        <v>1015</v>
-      </c>
-      <c r="AB194" s="10">
-        <v>0.17</v>
-      </c>
-      <c r="AC194" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="AD194" s="9">
-        <v>3950</v>
-      </c>
-      <c r="AE194" s="9">
-        <v>2855</v>
-      </c>
-      <c r="AF194" s="9">
-        <v>345</v>
-      </c>
       <c r="AG194" s="9">
-        <v>600</v>
+        <v>105</v>
       </c>
       <c r="AH194" s="9">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="AI194" s="9">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ194" s="9">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AK194" s="9">
-        <v>3950</v>
+        <v>1115</v>
       </c>
       <c r="AL194" s="9">
-        <v>915</v>
+        <v>275</v>
       </c>
       <c r="AM194" s="9">
-        <v>1700</v>
+        <v>525</v>
       </c>
       <c r="AN194" s="9">
-        <v>895</v>
+        <v>250</v>
       </c>
       <c r="AO194" s="9">
+        <v>35</v>
+      </c>
+      <c r="AP194" s="9">
+        <v>1115</v>
+      </c>
+      <c r="AQ194" s="9">
+        <v>65</v>
+      </c>
+      <c r="AR194" s="9">
         <v>185</v>
       </c>
-      <c r="AP194" s="9">
-        <v>3950</v>
-      </c>
-      <c r="AQ194" s="9">
-        <v>355</v>
-      </c>
-      <c r="AR194" s="9">
-        <v>550</v>
-      </c>
       <c r="AS194" s="9">
-        <v>850</v>
+        <v>300</v>
       </c>
       <c r="AT194" s="9">
-        <v>540</v>
+        <v>245</v>
       </c>
       <c r="AU194" s="9">
-        <v>605</v>
+        <v>195</v>
       </c>
       <c r="AV194" s="9">
-        <v>1050</v>
+        <v>130</v>
       </c>
     </row>
-    <row r="195" spans="1:48">
+    <row r="195" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A195" s="9" t="s">
         <v>244</v>
       </c>
       <c r="B195" s="9">
-        <v>2765</v>
+        <v>11085</v>
       </c>
       <c r="C195" s="9">
-        <v>595</v>
+        <v>2115</v>
       </c>
       <c r="D195" s="9">
-        <v>440</v>
+        <v>1540</v>
       </c>
       <c r="E195" s="9">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="F195" s="9">
-        <v>2175</v>
+        <v>8970</v>
       </c>
       <c r="G195" s="9">
-        <v>1435</v>
+        <v>5490</v>
       </c>
       <c r="H195" s="9">
-        <v>1280</v>
+        <v>4640</v>
       </c>
       <c r="I195" s="9">
-        <v>350</v>
+        <v>705</v>
       </c>
       <c r="J195" s="9">
-        <v>155</v>
+        <v>855</v>
       </c>
       <c r="K195" s="9">
-        <v>63200</v>
+        <v>34800</v>
       </c>
       <c r="L195" s="9">
-        <v>148000</v>
+        <v>88000</v>
       </c>
       <c r="M195" s="9">
-        <v>1080</v>
+        <v>3460</v>
       </c>
       <c r="N195" s="9">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O195" s="9">
+        <v>320</v>
+      </c>
+      <c r="P195" s="9">
+        <v>11085</v>
+      </c>
+      <c r="Q195" s="9">
+        <v>1085</v>
+      </c>
+      <c r="R195" s="9">
+        <v>2475</v>
+      </c>
+      <c r="S195" s="9">
+        <v>355</v>
+      </c>
+      <c r="T195" s="9">
+        <v>6995</v>
+      </c>
+      <c r="U195" s="9">
+        <v>605</v>
+      </c>
+      <c r="V195" s="9">
+        <v>1620</v>
+      </c>
+      <c r="W195" s="9">
+        <v>125</v>
+      </c>
+      <c r="X195" s="9">
+        <v>3455</v>
+      </c>
+      <c r="Y195" s="9">
+        <v>2775</v>
+      </c>
+      <c r="Z195" s="9">
+        <v>2450</v>
+      </c>
+      <c r="AA195" s="9">
+        <v>1015</v>
+      </c>
+      <c r="AB195" s="10">
+        <v>0.17</v>
+      </c>
+      <c r="AC195" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="AD195" s="9">
+        <v>3950</v>
+      </c>
+      <c r="AE195" s="9">
+        <v>2855</v>
+      </c>
+      <c r="AF195" s="9">
+        <v>345</v>
+      </c>
+      <c r="AG195" s="9">
+        <v>600</v>
+      </c>
+      <c r="AH195" s="9">
+        <v>90</v>
+      </c>
+      <c r="AI195" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ195" s="9">
         <v>60</v>
       </c>
-      <c r="P195" s="9">
-        <v>2765</v>
-      </c>
-      <c r="Q195" s="9">
-        <v>115</v>
-      </c>
-      <c r="R195" s="9">
-        <v>665</v>
-      </c>
-      <c r="S195" s="9">
-        <v>0</v>
-      </c>
-      <c r="T195" s="9">
-        <v>1615</v>
-      </c>
-      <c r="U195" s="9">
-        <v>70</v>
-      </c>
-      <c r="V195" s="9">
-        <v>480</v>
-      </c>
-      <c r="W195" s="9">
-        <v>25</v>
-      </c>
-      <c r="X195" s="9">
-        <v>1085</v>
-      </c>
-      <c r="Y195" s="9">
-        <v>945</v>
-      </c>
-      <c r="Z195" s="9">
-        <v>920</v>
-      </c>
-      <c r="AA195" s="9">
-        <v>160</v>
-      </c>
-      <c r="AB195" s="10">
-        <v>0.09</v>
-      </c>
-      <c r="AC195" s="10">
-        <v>0.38</v>
-      </c>
-      <c r="AD195" s="9">
-        <v>780</v>
-      </c>
-      <c r="AE195" s="9">
-        <v>610</v>
-      </c>
-      <c r="AF195" s="9">
-        <v>25</v>
-      </c>
-      <c r="AG195" s="9">
-        <v>45</v>
-      </c>
-      <c r="AH195" s="9">
-        <v>40</v>
-      </c>
-      <c r="AI195" s="9">
-        <v>45</v>
-      </c>
-      <c r="AJ195" s="9">
-        <v>20</v>
-      </c>
       <c r="AK195" s="9">
-        <v>780</v>
+        <v>3950</v>
       </c>
       <c r="AL195" s="9">
-        <v>220</v>
+        <v>915</v>
       </c>
       <c r="AM195" s="9">
-        <v>415</v>
+        <v>1700</v>
       </c>
       <c r="AN195" s="9">
-        <v>95</v>
+        <v>895</v>
       </c>
       <c r="AO195" s="9">
-        <v>30</v>
+        <v>185</v>
       </c>
       <c r="AP195" s="9">
-        <v>780</v>
+        <v>3950</v>
       </c>
       <c r="AQ195" s="9">
-        <v>15</v>
+        <v>355</v>
       </c>
       <c r="AR195" s="9">
-        <v>145</v>
+        <v>550</v>
       </c>
       <c r="AS195" s="9">
-        <v>255</v>
+        <v>850</v>
       </c>
       <c r="AT195" s="9">
-        <v>155</v>
+        <v>540</v>
       </c>
       <c r="AU195" s="9">
-        <v>120</v>
+        <v>605</v>
       </c>
       <c r="AV195" s="9">
-        <v>85</v>
+        <v>1050</v>
       </c>
     </row>
-    <row r="196" spans="1:48">
+    <row r="196" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A196" s="9" t="s">
         <v>245</v>
       </c>
       <c r="B196" s="9">
-        <v>5090</v>
+        <v>2765</v>
       </c>
       <c r="C196" s="9">
-        <v>810</v>
+        <v>595</v>
       </c>
       <c r="D196" s="9">
-        <v>965</v>
+        <v>440</v>
       </c>
       <c r="E196" s="9">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="F196" s="9">
-        <v>4275</v>
+        <v>2175</v>
       </c>
       <c r="G196" s="9">
-        <v>2605</v>
+        <v>1435</v>
       </c>
       <c r="H196" s="9">
-        <v>2305</v>
+        <v>1280</v>
       </c>
       <c r="I196" s="9">
-        <v>555</v>
+        <v>350</v>
       </c>
       <c r="J196" s="9">
-        <v>300</v>
+        <v>155</v>
       </c>
       <c r="K196" s="9">
-        <v>46400</v>
+        <v>63200</v>
       </c>
       <c r="L196" s="9">
-        <v>108000</v>
+        <v>148000</v>
       </c>
       <c r="M196" s="9">
-        <v>2100</v>
+        <v>1080</v>
       </c>
       <c r="N196" s="9">
+        <v>0</v>
+      </c>
+      <c r="O196" s="9">
+        <v>60</v>
+      </c>
+      <c r="P196" s="9">
+        <v>2765</v>
+      </c>
+      <c r="Q196" s="9">
+        <v>115</v>
+      </c>
+      <c r="R196" s="9">
+        <v>665</v>
+      </c>
+      <c r="S196" s="9">
+        <v>0</v>
+      </c>
+      <c r="T196" s="9">
+        <v>1615</v>
+      </c>
+      <c r="U196" s="9">
+        <v>70</v>
+      </c>
+      <c r="V196" s="9">
+        <v>480</v>
+      </c>
+      <c r="W196" s="9">
+        <v>25</v>
+      </c>
+      <c r="X196" s="9">
+        <v>1085</v>
+      </c>
+      <c r="Y196" s="9">
+        <v>945</v>
+      </c>
+      <c r="Z196" s="9">
+        <v>920</v>
+      </c>
+      <c r="AA196" s="9">
+        <v>160</v>
+      </c>
+      <c r="AB196" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="AC196" s="10">
+        <v>0.38</v>
+      </c>
+      <c r="AD196" s="9">
+        <v>780</v>
+      </c>
+      <c r="AE196" s="9">
+        <v>610</v>
+      </c>
+      <c r="AF196" s="9">
+        <v>25</v>
+      </c>
+      <c r="AG196" s="9">
+        <v>45</v>
+      </c>
+      <c r="AH196" s="9">
         <v>40</v>
       </c>
-      <c r="O196" s="9">
-        <v>250</v>
-      </c>
-      <c r="P196" s="9">
-        <v>5090</v>
-      </c>
-      <c r="Q196" s="9">
-        <v>460</v>
-      </c>
-      <c r="R196" s="9">
-        <v>975</v>
-      </c>
-      <c r="S196" s="9">
-        <v>105</v>
-      </c>
-      <c r="T196" s="9">
-        <v>2980</v>
-      </c>
-      <c r="U196" s="9">
-        <v>270</v>
-      </c>
-      <c r="V196" s="9">
-        <v>1140</v>
-      </c>
-      <c r="W196" s="9">
-        <v>90</v>
-      </c>
-      <c r="X196" s="9">
-        <v>2100</v>
-      </c>
-      <c r="Y196" s="9">
-        <v>1715</v>
-      </c>
-      <c r="Z196" s="9">
-        <v>1650</v>
-      </c>
-      <c r="AA196" s="9">
-        <v>455</v>
-      </c>
-      <c r="AB196" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="AC196" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="AD196" s="9">
-        <v>1415</v>
-      </c>
-      <c r="AE196" s="9">
-        <v>1130</v>
-      </c>
-      <c r="AF196" s="9">
+      <c r="AI196" s="9">
+        <v>45</v>
+      </c>
+      <c r="AJ196" s="9">
+        <v>20</v>
+      </c>
+      <c r="AK196" s="9">
+        <v>780</v>
+      </c>
+      <c r="AL196" s="9">
+        <v>220</v>
+      </c>
+      <c r="AM196" s="9">
+        <v>415</v>
+      </c>
+      <c r="AN196" s="9">
         <v>95</v>
       </c>
-      <c r="AG196" s="9">
-        <v>105</v>
-      </c>
-      <c r="AH196" s="9">
-        <v>65</v>
-      </c>
-      <c r="AI196" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ196" s="9">
+      <c r="AO196" s="9">
+        <v>30</v>
+      </c>
+      <c r="AP196" s="9">
+        <v>780</v>
+      </c>
+      <c r="AQ196" s="9">
         <v>15</v>
       </c>
-      <c r="AK196" s="9">
-        <v>1415</v>
-      </c>
-      <c r="AL196" s="9">
-        <v>435</v>
-      </c>
-      <c r="AM196" s="9">
-        <v>675</v>
-      </c>
-      <c r="AN196" s="9">
-        <v>220</v>
-      </c>
-      <c r="AO196" s="9">
-        <v>45</v>
-      </c>
-      <c r="AP196" s="9">
-        <v>1415</v>
-      </c>
-      <c r="AQ196" s="9">
-        <v>75</v>
-      </c>
       <c r="AR196" s="9">
-        <v>280</v>
+        <v>145</v>
       </c>
       <c r="AS196" s="9">
-        <v>370</v>
+        <v>255</v>
       </c>
       <c r="AT196" s="9">
-        <v>255</v>
+        <v>155</v>
       </c>
       <c r="AU196" s="9">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="AV196" s="9">
-        <v>240</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="197" spans="1:48">
+    <row r="197" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A197" s="9" t="s">
         <v>246</v>
       </c>
       <c r="B197" s="9">
-        <v>4410</v>
+        <v>5090</v>
       </c>
       <c r="C197" s="9">
-        <v>540</v>
+        <v>810</v>
       </c>
       <c r="D197" s="9">
-        <v>590</v>
+        <v>965</v>
       </c>
       <c r="E197" s="9">
+        <v>175</v>
+      </c>
+      <c r="F197" s="9">
+        <v>4275</v>
+      </c>
+      <c r="G197" s="9">
+        <v>2605</v>
+      </c>
+      <c r="H197" s="9">
+        <v>2305</v>
+      </c>
+      <c r="I197" s="9">
+        <v>555</v>
+      </c>
+      <c r="J197" s="9">
+        <v>300</v>
+      </c>
+      <c r="K197" s="9">
+        <v>46400</v>
+      </c>
+      <c r="L197" s="9">
+        <v>108000</v>
+      </c>
+      <c r="M197" s="9">
+        <v>2100</v>
+      </c>
+      <c r="N197" s="9">
+        <v>40</v>
+      </c>
+      <c r="O197" s="9">
+        <v>250</v>
+      </c>
+      <c r="P197" s="9">
+        <v>5090</v>
+      </c>
+      <c r="Q197" s="9">
+        <v>460</v>
+      </c>
+      <c r="R197" s="9">
+        <v>975</v>
+      </c>
+      <c r="S197" s="9">
         <v>105</v>
       </c>
-      <c r="F197" s="9">
-        <v>3875</v>
-      </c>
-      <c r="G197" s="9">
-        <v>2860</v>
-      </c>
-      <c r="H197" s="9">
-        <v>2560</v>
-      </c>
-      <c r="I197" s="9">
+      <c r="T197" s="9">
+        <v>2980</v>
+      </c>
+      <c r="U197" s="9">
+        <v>270</v>
+      </c>
+      <c r="V197" s="9">
+        <v>1140</v>
+      </c>
+      <c r="W197" s="9">
+        <v>90</v>
+      </c>
+      <c r="X197" s="9">
+        <v>2100</v>
+      </c>
+      <c r="Y197" s="9">
+        <v>1715</v>
+      </c>
+      <c r="Z197" s="9">
+        <v>1650</v>
+      </c>
+      <c r="AA197" s="9">
+        <v>455</v>
+      </c>
+      <c r="AB197" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="AC197" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="AD197" s="9">
+        <v>1415</v>
+      </c>
+      <c r="AE197" s="9">
+        <v>1130</v>
+      </c>
+      <c r="AF197" s="9">
+        <v>95</v>
+      </c>
+      <c r="AG197" s="9">
+        <v>105</v>
+      </c>
+      <c r="AH197" s="9">
+        <v>65</v>
+      </c>
+      <c r="AI197" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ197" s="9">
+        <v>15</v>
+      </c>
+      <c r="AK197" s="9">
+        <v>1415</v>
+      </c>
+      <c r="AL197" s="9">
         <v>435</v>
       </c>
-      <c r="J197" s="9">
-        <v>295</v>
-      </c>
-      <c r="K197" s="9">
-        <v>42000</v>
-      </c>
-      <c r="L197" s="9">
-        <v>67000</v>
-      </c>
-      <c r="M197" s="9">
-        <v>2395</v>
-      </c>
-      <c r="N197" s="9">
-        <v>125</v>
-      </c>
-      <c r="O197" s="9">
-        <v>540</v>
-      </c>
-      <c r="P197" s="9">
-        <v>4410</v>
-      </c>
-      <c r="Q197" s="9">
-        <v>610</v>
-      </c>
-      <c r="R197" s="9">
-        <v>605</v>
-      </c>
-      <c r="S197" s="9">
-        <v>85</v>
-      </c>
-      <c r="T197" s="9">
-        <v>3120</v>
-      </c>
-      <c r="U197" s="9">
-        <v>350</v>
-      </c>
-      <c r="V197" s="9">
-        <v>690</v>
-      </c>
-      <c r="W197" s="9">
-        <v>180</v>
-      </c>
-      <c r="X197" s="9">
-        <v>2375</v>
-      </c>
-      <c r="Y197" s="9">
-        <v>1615</v>
-      </c>
-      <c r="Z197" s="9">
-        <v>895</v>
-      </c>
-      <c r="AA197" s="9">
-        <v>1500</v>
-      </c>
-      <c r="AB197" s="10">
-        <v>0.24</v>
-      </c>
-      <c r="AC197" s="10">
-        <v>0.37</v>
-      </c>
-      <c r="AD197" s="9">
-        <v>1830</v>
-      </c>
-      <c r="AE197" s="9">
-        <v>1225</v>
-      </c>
-      <c r="AF197" s="9">
-        <v>80</v>
-      </c>
-      <c r="AG197" s="9">
-        <v>230</v>
-      </c>
-      <c r="AH197" s="9">
-        <v>215</v>
-      </c>
-      <c r="AI197" s="9">
-        <v>35</v>
-      </c>
-      <c r="AJ197" s="9">
+      <c r="AM197" s="9">
+        <v>675</v>
+      </c>
+      <c r="AN197" s="9">
+        <v>220</v>
+      </c>
+      <c r="AO197" s="9">
         <v>45</v>
       </c>
-      <c r="AK197" s="9">
-        <v>1830</v>
-      </c>
-      <c r="AL197" s="9">
-        <v>555</v>
-      </c>
-      <c r="AM197" s="9">
-        <v>815</v>
-      </c>
-      <c r="AN197" s="9">
-        <v>265</v>
-      </c>
-      <c r="AO197" s="9">
-        <v>105</v>
-      </c>
       <c r="AP197" s="9">
-        <v>1830</v>
+        <v>1415</v>
       </c>
       <c r="AQ197" s="9">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AR197" s="9">
+        <v>280</v>
+      </c>
+      <c r="AS197" s="9">
+        <v>370</v>
+      </c>
+      <c r="AT197" s="9">
+        <v>255</v>
+      </c>
+      <c r="AU197" s="9">
+        <v>190</v>
+      </c>
+      <c r="AV197" s="9">
         <v>240</v>
       </c>
-      <c r="AS197" s="9">
-        <v>505</v>
-      </c>
-      <c r="AT197" s="9">
-        <v>330</v>
-      </c>
-      <c r="AU197" s="9">
-        <v>320</v>
-      </c>
-      <c r="AV197" s="9">
-        <v>340</v>
-      </c>
     </row>
-    <row r="198" spans="1:48">
+    <row r="198" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A198" s="9" t="s">
         <v>247</v>
       </c>
       <c r="B198" s="9">
-        <v>3605</v>
+        <v>4410</v>
       </c>
       <c r="C198" s="9">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="D198" s="9">
+        <v>590</v>
+      </c>
+      <c r="E198" s="9">
+        <v>105</v>
+      </c>
+      <c r="F198" s="9">
+        <v>3875</v>
+      </c>
+      <c r="G198" s="9">
+        <v>2860</v>
+      </c>
+      <c r="H198" s="9">
+        <v>2560</v>
+      </c>
+      <c r="I198" s="9">
         <v>435</v>
       </c>
-      <c r="E198" s="9">
-        <v>60</v>
-      </c>
-      <c r="F198" s="9">
-        <v>3070</v>
-      </c>
-      <c r="G198" s="9">
-        <v>2300</v>
-      </c>
-      <c r="H198" s="9">
-        <v>2015</v>
-      </c>
-      <c r="I198" s="9">
-        <v>425</v>
-      </c>
       <c r="J198" s="9">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="K198" s="9">
-        <v>50400</v>
+        <v>42000</v>
       </c>
       <c r="L198" s="9">
-        <v>97000</v>
+        <v>67000</v>
       </c>
       <c r="M198" s="9">
-        <v>1655</v>
+        <v>2395</v>
       </c>
       <c r="N198" s="9">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="O198" s="9">
+        <v>540</v>
+      </c>
+      <c r="P198" s="9">
+        <v>4410</v>
+      </c>
+      <c r="Q198" s="9">
+        <v>610</v>
+      </c>
+      <c r="R198" s="9">
+        <v>605</v>
+      </c>
+      <c r="S198" s="9">
+        <v>85</v>
+      </c>
+      <c r="T198" s="9">
+        <v>3120</v>
+      </c>
+      <c r="U198" s="9">
+        <v>350</v>
+      </c>
+      <c r="V198" s="9">
+        <v>690</v>
+      </c>
+      <c r="W198" s="9">
+        <v>180</v>
+      </c>
+      <c r="X198" s="9">
+        <v>2375</v>
+      </c>
+      <c r="Y198" s="9">
+        <v>1615</v>
+      </c>
+      <c r="Z198" s="9">
+        <v>895</v>
+      </c>
+      <c r="AA198" s="9">
+        <v>1500</v>
+      </c>
+      <c r="AB198" s="10">
+        <v>0.24</v>
+      </c>
+      <c r="AC198" s="10">
+        <v>0.37</v>
+      </c>
+      <c r="AD198" s="9">
+        <v>1830</v>
+      </c>
+      <c r="AE198" s="9">
+        <v>1225</v>
+      </c>
+      <c r="AF198" s="9">
+        <v>80</v>
+      </c>
+      <c r="AG198" s="9">
+        <v>230</v>
+      </c>
+      <c r="AH198" s="9">
+        <v>215</v>
+      </c>
+      <c r="AI198" s="9">
+        <v>35</v>
+      </c>
+      <c r="AJ198" s="9">
+        <v>45</v>
+      </c>
+      <c r="AK198" s="9">
+        <v>1830</v>
+      </c>
+      <c r="AL198" s="9">
+        <v>555</v>
+      </c>
+      <c r="AM198" s="9">
+        <v>815</v>
+      </c>
+      <c r="AN198" s="9">
+        <v>265</v>
+      </c>
+      <c r="AO198" s="9">
+        <v>105</v>
+      </c>
+      <c r="AP198" s="9">
+        <v>1830</v>
+      </c>
+      <c r="AQ198" s="9">
+        <v>95</v>
+      </c>
+      <c r="AR198" s="9">
         <v>240</v>
       </c>
-      <c r="P198" s="9">
-        <v>3605</v>
-      </c>
-      <c r="Q198" s="9">
+      <c r="AS198" s="9">
+        <v>505</v>
+      </c>
+      <c r="AT198" s="9">
+        <v>330</v>
+      </c>
+      <c r="AU198" s="9">
+        <v>320</v>
+      </c>
+      <c r="AV198" s="9">
         <v>340</v>
       </c>
-      <c r="R198" s="9">
-        <v>615</v>
-      </c>
-      <c r="S198" s="9">
-        <v>0</v>
-      </c>
-      <c r="T198" s="9">
-        <v>2500</v>
-      </c>
-      <c r="U198" s="9">
-        <v>190</v>
-      </c>
-      <c r="V198" s="9">
-        <v>490</v>
-      </c>
-      <c r="W198" s="9">
-        <v>120</v>
-      </c>
-      <c r="X198" s="9">
-        <v>1645</v>
-      </c>
-      <c r="Y198" s="9">
-        <v>1270</v>
-      </c>
-      <c r="Z198" s="9">
-        <v>970</v>
-      </c>
-      <c r="AA198" s="9">
-        <v>680</v>
-      </c>
-      <c r="AB198" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="AC198" s="10">
-        <v>0.34</v>
-      </c>
-      <c r="AD198" s="9">
-        <v>1200</v>
-      </c>
-      <c r="AE198" s="9">
-        <v>910</v>
-      </c>
-      <c r="AF198" s="9">
-        <v>50</v>
-      </c>
-      <c r="AG198" s="9">
-        <v>135</v>
-      </c>
-      <c r="AH198" s="9">
-        <v>70</v>
-      </c>
-      <c r="AI198" s="9">
-        <v>20</v>
-      </c>
-      <c r="AJ198" s="9">
-        <v>20</v>
-      </c>
-      <c r="AK198" s="9">
-        <v>1200</v>
-      </c>
-      <c r="AL198" s="9">
-        <v>380</v>
-      </c>
-      <c r="AM198" s="9">
-        <v>555</v>
-      </c>
-      <c r="AN198" s="9">
-        <v>145</v>
-      </c>
-      <c r="AO198" s="9">
-        <v>60</v>
-      </c>
-      <c r="AP198" s="9">
-        <v>1200</v>
-      </c>
-      <c r="AQ198" s="9">
-        <v>65</v>
-      </c>
-      <c r="AR198" s="9">
-        <v>225</v>
-      </c>
-      <c r="AS198" s="9">
-        <v>355</v>
-      </c>
-      <c r="AT198" s="9">
-        <v>250</v>
-      </c>
-      <c r="AU198" s="9">
-        <v>170</v>
-      </c>
-      <c r="AV198" s="9">
-        <v>130</v>
-      </c>
     </row>
-    <row r="199" spans="1:48">
+    <row r="199" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A199" s="9" t="s">
         <v>248</v>
       </c>
       <c r="B199" s="9">
-        <v>525</v>
+        <v>3605</v>
       </c>
       <c r="C199" s="9">
-        <v>90</v>
+        <v>545</v>
       </c>
       <c r="D199" s="9">
-        <v>10</v>
+        <v>435</v>
       </c>
       <c r="E199" s="9">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F199" s="9">
-        <v>430</v>
+        <v>3070</v>
       </c>
       <c r="G199" s="9">
-        <v>375</v>
+        <v>2300</v>
       </c>
       <c r="H199" s="9">
-        <v>350</v>
+        <v>2015</v>
       </c>
       <c r="I199" s="9">
-        <v>25</v>
+        <v>425</v>
       </c>
       <c r="J199" s="9">
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="K199" s="9">
-        <v>57200</v>
+        <v>50400</v>
       </c>
       <c r="L199" s="9">
-        <v>112000</v>
+        <v>97000</v>
       </c>
       <c r="M199" s="9">
-        <v>210</v>
+        <v>1655</v>
       </c>
       <c r="N199" s="9">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="O199" s="9">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="P199" s="9">
-        <v>525</v>
+        <v>3605</v>
       </c>
       <c r="Q199" s="9">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="R199" s="9">
-        <v>110</v>
+        <v>615</v>
       </c>
       <c r="S199" s="9">
         <v>0</v>
       </c>
       <c r="T199" s="9">
-        <v>400</v>
+        <v>2500</v>
       </c>
       <c r="U199" s="9">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="V199" s="9">
-        <v>15</v>
+        <v>490</v>
       </c>
       <c r="W199" s="9">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="X199" s="9">
-        <v>215</v>
+        <v>1645</v>
       </c>
       <c r="Y199" s="9">
+        <v>1270</v>
+      </c>
+      <c r="Z199" s="9">
+        <v>970</v>
+      </c>
+      <c r="AA199" s="9">
+        <v>680</v>
+      </c>
+      <c r="AB199" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="AC199" s="10">
+        <v>0.34</v>
+      </c>
+      <c r="AD199" s="9">
+        <v>1200</v>
+      </c>
+      <c r="AE199" s="9">
+        <v>910</v>
+      </c>
+      <c r="AF199" s="9">
+        <v>50</v>
+      </c>
+      <c r="AG199" s="9">
+        <v>135</v>
+      </c>
+      <c r="AH199" s="9">
+        <v>70</v>
+      </c>
+      <c r="AI199" s="9">
+        <v>20</v>
+      </c>
+      <c r="AJ199" s="9">
+        <v>20</v>
+      </c>
+      <c r="AK199" s="9">
+        <v>1200</v>
+      </c>
+      <c r="AL199" s="9">
+        <v>380</v>
+      </c>
+      <c r="AM199" s="9">
+        <v>555</v>
+      </c>
+      <c r="AN199" s="9">
+        <v>145</v>
+      </c>
+      <c r="AO199" s="9">
+        <v>60</v>
+      </c>
+      <c r="AP199" s="9">
+        <v>1200</v>
+      </c>
+      <c r="AQ199" s="9">
+        <v>65</v>
+      </c>
+      <c r="AR199" s="9">
+        <v>225</v>
+      </c>
+      <c r="AS199" s="9">
+        <v>355</v>
+      </c>
+      <c r="AT199" s="9">
+        <v>250</v>
+      </c>
+      <c r="AU199" s="9">
         <v>170</v>
       </c>
-      <c r="Z199" s="9">
-        <v>210</v>
-      </c>
-      <c r="AA199" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB199" s="10">
-        <v>0.19</v>
-      </c>
-      <c r="AC199" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD199" s="9">
-        <v>290</v>
-      </c>
-      <c r="AE199" s="9">
-        <v>230</v>
-      </c>
-      <c r="AF199" s="9">
-        <v>25</v>
-      </c>
-      <c r="AG199" s="9">
-        <v>10</v>
-      </c>
-      <c r="AH199" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI199" s="9">
-        <v>10</v>
-      </c>
-      <c r="AJ199" s="9">
-        <v>15</v>
-      </c>
-      <c r="AK199" s="9">
-        <v>290</v>
-      </c>
-      <c r="AL199" s="9">
-        <v>50</v>
-      </c>
-      <c r="AM199" s="9">
-        <v>160</v>
-      </c>
-      <c r="AN199" s="9">
-        <v>50</v>
-      </c>
-      <c r="AO199" s="9">
-        <v>15</v>
-      </c>
-      <c r="AP199" s="9">
-        <v>290</v>
-      </c>
-      <c r="AQ199" s="9">
-        <v>25</v>
-      </c>
-      <c r="AR199" s="9">
-        <v>80</v>
-      </c>
-      <c r="AS199" s="9">
-        <v>75</v>
-      </c>
-      <c r="AT199" s="9">
-        <v>30</v>
-      </c>
-      <c r="AU199" s="9">
-        <v>35</v>
-      </c>
       <c r="AV199" s="9">
-        <v>40</v>
+        <v>130</v>
       </c>
     </row>
-    <row r="200" spans="1:48">
+    <row r="200" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A200" s="9" t="s">
         <v>249</v>
       </c>
       <c r="B200" s="9">
-        <v>8745</v>
+        <v>525</v>
       </c>
       <c r="C200" s="9">
-        <v>1430</v>
+        <v>90</v>
       </c>
       <c r="D200" s="9">
-        <v>1665</v>
+        <v>10</v>
       </c>
       <c r="E200" s="9">
+        <v>0</v>
+      </c>
+      <c r="F200" s="9">
+        <v>430</v>
+      </c>
+      <c r="G200" s="9">
+        <v>375</v>
+      </c>
+      <c r="H200" s="9">
+        <v>350</v>
+      </c>
+      <c r="I200" s="9">
+        <v>25</v>
+      </c>
+      <c r="J200" s="9">
+        <v>30</v>
+      </c>
+      <c r="K200" s="9">
+        <v>57200</v>
+      </c>
+      <c r="L200" s="9">
+        <v>112000</v>
+      </c>
+      <c r="M200" s="9">
+        <v>210</v>
+      </c>
+      <c r="N200" s="9">
+        <v>0</v>
+      </c>
+      <c r="O200" s="9">
+        <v>0</v>
+      </c>
+      <c r="P200" s="9">
+        <v>525</v>
+      </c>
+      <c r="Q200" s="9">
+        <v>0</v>
+      </c>
+      <c r="R200" s="9">
+        <v>110</v>
+      </c>
+      <c r="S200" s="9">
+        <v>0</v>
+      </c>
+      <c r="T200" s="9">
+        <v>400</v>
+      </c>
+      <c r="U200" s="9">
+        <v>0</v>
+      </c>
+      <c r="V200" s="9">
+        <v>15</v>
+      </c>
+      <c r="W200" s="9">
+        <v>0</v>
+      </c>
+      <c r="X200" s="9">
+        <v>215</v>
+      </c>
+      <c r="Y200" s="9">
+        <v>170</v>
+      </c>
+      <c r="Z200" s="9">
+        <v>210</v>
+      </c>
+      <c r="AA200" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB200" s="10">
+        <v>0.19</v>
+      </c>
+      <c r="AC200" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD200" s="9">
+        <v>290</v>
+      </c>
+      <c r="AE200" s="9">
+        <v>230</v>
+      </c>
+      <c r="AF200" s="9">
+        <v>25</v>
+      </c>
+      <c r="AG200" s="9">
+        <v>10</v>
+      </c>
+      <c r="AH200" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI200" s="9">
+        <v>10</v>
+      </c>
+      <c r="AJ200" s="9">
+        <v>15</v>
+      </c>
+      <c r="AK200" s="9">
+        <v>290</v>
+      </c>
+      <c r="AL200" s="9">
+        <v>50</v>
+      </c>
+      <c r="AM200" s="9">
+        <v>160</v>
+      </c>
+      <c r="AN200" s="9">
+        <v>50</v>
+      </c>
+      <c r="AO200" s="9">
+        <v>15</v>
+      </c>
+      <c r="AP200" s="9">
+        <v>290</v>
+      </c>
+      <c r="AQ200" s="9">
+        <v>25</v>
+      </c>
+      <c r="AR200" s="9">
         <v>80</v>
       </c>
-      <c r="F200" s="9">
-        <v>7320</v>
-      </c>
-      <c r="G200" s="9">
-        <v>4615</v>
-      </c>
-      <c r="H200" s="9">
-        <v>3960</v>
-      </c>
-      <c r="I200" s="9">
-        <v>860</v>
-      </c>
-      <c r="J200" s="9">
-        <v>660</v>
-      </c>
-      <c r="K200" s="9">
-        <v>48400</v>
-      </c>
-      <c r="L200" s="9">
-        <v>115000</v>
-      </c>
-      <c r="M200" s="9">
-        <v>3325</v>
-      </c>
-      <c r="N200" s="9">
-        <v>80</v>
-      </c>
-      <c r="O200" s="9">
-        <v>170</v>
-      </c>
-      <c r="P200" s="9">
-        <v>8745</v>
-      </c>
-      <c r="Q200" s="9">
-        <v>565</v>
-      </c>
-      <c r="R200" s="9">
-        <v>1710</v>
-      </c>
-      <c r="S200" s="9">
-        <v>190</v>
-      </c>
-      <c r="T200" s="9">
-        <v>5290</v>
-      </c>
-      <c r="U200" s="9">
-        <v>290</v>
-      </c>
-      <c r="V200" s="9">
-        <v>1745</v>
-      </c>
-      <c r="W200" s="9">
-        <v>80</v>
-      </c>
-      <c r="X200" s="9">
-        <v>3315</v>
-      </c>
-      <c r="Y200" s="9">
-        <v>2775</v>
-      </c>
-      <c r="Z200" s="9">
-        <v>2990</v>
-      </c>
-      <c r="AA200" s="9">
-        <v>335</v>
-      </c>
-      <c r="AB200" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AC200" s="10">
-        <v>0.36</v>
-      </c>
-      <c r="AD200" s="9">
-        <v>2605</v>
-      </c>
-      <c r="AE200" s="9">
-        <v>2250</v>
-      </c>
-      <c r="AF200" s="9">
-        <v>95</v>
-      </c>
-      <c r="AG200" s="9">
-        <v>125</v>
-      </c>
-      <c r="AH200" s="9">
-        <v>50</v>
-      </c>
-      <c r="AI200" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ200" s="9">
+      <c r="AS200" s="9">
         <v>75</v>
       </c>
-      <c r="AK200" s="9">
-        <v>2605</v>
-      </c>
-      <c r="AL200" s="9">
-        <v>395</v>
-      </c>
-      <c r="AM200" s="9">
-        <v>1285</v>
-      </c>
-      <c r="AN200" s="9">
-        <v>680</v>
-      </c>
-      <c r="AO200" s="9">
-        <v>120</v>
-      </c>
-      <c r="AP200" s="9">
-        <v>2605</v>
-      </c>
-      <c r="AQ200" s="9">
-        <v>110</v>
-      </c>
-      <c r="AR200" s="9">
-        <v>455</v>
-      </c>
-      <c r="AS200" s="9">
-        <v>745</v>
-      </c>
       <c r="AT200" s="9">
-        <v>565</v>
+        <v>30</v>
       </c>
       <c r="AU200" s="9">
-        <v>340</v>
+        <v>35</v>
       </c>
       <c r="AV200" s="9">
-        <v>390</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="201" spans="1:48">
+    <row r="201" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A201" s="9" t="s">
         <v>250</v>
       </c>
       <c r="B201" s="9">
-        <v>5830</v>
+        <v>8745</v>
       </c>
       <c r="C201" s="9">
-        <v>1065</v>
+        <v>1430</v>
       </c>
       <c r="D201" s="9">
-        <v>1150</v>
+        <v>1665</v>
       </c>
       <c r="E201" s="9">
         <v>80</v>
       </c>
       <c r="F201" s="9">
-        <v>4765</v>
+        <v>7320</v>
       </c>
       <c r="G201" s="9">
-        <v>2940</v>
+        <v>4615</v>
       </c>
       <c r="H201" s="9">
-        <v>2540</v>
+        <v>3960</v>
       </c>
       <c r="I201" s="9">
-        <v>560</v>
+        <v>860</v>
       </c>
       <c r="J201" s="9">
-        <v>400</v>
+        <v>660</v>
       </c>
       <c r="K201" s="9">
-        <v>46000</v>
+        <v>48400</v>
       </c>
       <c r="L201" s="9">
-        <v>95000</v>
+        <v>115000</v>
       </c>
       <c r="M201" s="9">
-        <v>2340</v>
+        <v>3325</v>
       </c>
       <c r="N201" s="9">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="O201" s="9">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="P201" s="9">
-        <v>5830</v>
+        <v>8745</v>
       </c>
       <c r="Q201" s="9">
-        <v>535</v>
+        <v>565</v>
       </c>
       <c r="R201" s="9">
-        <v>1290</v>
+        <v>1710</v>
       </c>
       <c r="S201" s="9">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="T201" s="9">
+        <v>5290</v>
+      </c>
+      <c r="U201" s="9">
+        <v>290</v>
+      </c>
+      <c r="V201" s="9">
+        <v>1745</v>
+      </c>
+      <c r="W201" s="9">
+        <v>80</v>
+      </c>
+      <c r="X201" s="9">
         <v>3315</v>
       </c>
-      <c r="U201" s="9">
-        <v>260</v>
-      </c>
-      <c r="V201" s="9">
-        <v>1230</v>
-      </c>
-      <c r="W201" s="9">
-        <v>55</v>
-      </c>
-      <c r="X201" s="9">
-        <v>2340</v>
-      </c>
       <c r="Y201" s="9">
-        <v>1900</v>
+        <v>2775</v>
       </c>
       <c r="Z201" s="9">
-        <v>1680</v>
+        <v>2990</v>
       </c>
       <c r="AA201" s="9">
-        <v>660</v>
+        <v>335</v>
       </c>
       <c r="AB201" s="10">
         <v>0.14000000000000001</v>
       </c>
       <c r="AC201" s="10">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
       <c r="AD201" s="9">
-        <v>1755</v>
+        <v>2605</v>
       </c>
       <c r="AE201" s="9">
-        <v>1400</v>
+        <v>2250</v>
       </c>
       <c r="AF201" s="9">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="AG201" s="9">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="AH201" s="9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AI201" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AJ201" s="9">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AK201" s="9">
-        <v>1755</v>
+        <v>2605</v>
       </c>
       <c r="AL201" s="9">
-        <v>320</v>
+        <v>395</v>
       </c>
       <c r="AM201" s="9">
-        <v>925</v>
+        <v>1285</v>
       </c>
       <c r="AN201" s="9">
-        <v>375</v>
+        <v>680</v>
       </c>
       <c r="AO201" s="9">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AP201" s="9">
-        <v>1755</v>
+        <v>2605</v>
       </c>
       <c r="AQ201" s="9">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AR201" s="9">
-        <v>265</v>
+        <v>455</v>
       </c>
       <c r="AS201" s="9">
-        <v>580</v>
+        <v>745</v>
       </c>
       <c r="AT201" s="9">
-        <v>380</v>
+        <v>565</v>
       </c>
       <c r="AU201" s="9">
-        <v>220</v>
+        <v>340</v>
       </c>
       <c r="AV201" s="9">
-        <v>235</v>
+        <v>390</v>
       </c>
     </row>
-    <row r="202" spans="1:48">
+    <row r="202" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A202" s="9" t="s">
         <v>251</v>
       </c>
       <c r="B202" s="9">
+        <v>5830</v>
+      </c>
+      <c r="C202" s="9">
+        <v>1065</v>
+      </c>
+      <c r="D202" s="9">
+        <v>1150</v>
+      </c>
+      <c r="E202" s="9">
+        <v>80</v>
+      </c>
+      <c r="F202" s="9">
+        <v>4765</v>
+      </c>
+      <c r="G202" s="9">
+        <v>2940</v>
+      </c>
+      <c r="H202" s="9">
+        <v>2540</v>
+      </c>
+      <c r="I202" s="9">
+        <v>560</v>
+      </c>
+      <c r="J202" s="9">
+        <v>400</v>
+      </c>
+      <c r="K202" s="9">
+        <v>46000</v>
+      </c>
+      <c r="L202" s="9">
+        <v>95000</v>
+      </c>
+      <c r="M202" s="9">
+        <v>2340</v>
+      </c>
+      <c r="N202" s="9">
+        <v>25</v>
+      </c>
+      <c r="O202" s="9">
+        <v>250</v>
+      </c>
+      <c r="P202" s="9">
+        <v>5830</v>
+      </c>
+      <c r="Q202" s="9">
+        <v>535</v>
+      </c>
+      <c r="R202" s="9">
+        <v>1290</v>
+      </c>
+      <c r="S202" s="9">
+        <v>220</v>
+      </c>
+      <c r="T202" s="9">
+        <v>3315</v>
+      </c>
+      <c r="U202" s="9">
+        <v>260</v>
+      </c>
+      <c r="V202" s="9">
+        <v>1230</v>
+      </c>
+      <c r="W202" s="9">
+        <v>55</v>
+      </c>
+      <c r="X202" s="9">
+        <v>2340</v>
+      </c>
+      <c r="Y202" s="9">
+        <v>1900</v>
+      </c>
+      <c r="Z202" s="9">
+        <v>1680</v>
+      </c>
+      <c r="AA202" s="9">
+        <v>660</v>
+      </c>
+      <c r="AB202" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AC202" s="10">
+        <v>0.33</v>
+      </c>
+      <c r="AD202" s="9">
+        <v>1755</v>
+      </c>
+      <c r="AE202" s="9">
+        <v>1400</v>
+      </c>
+      <c r="AF202" s="9">
+        <v>115</v>
+      </c>
+      <c r="AG202" s="9">
+        <v>135</v>
+      </c>
+      <c r="AH202" s="9">
+        <v>40</v>
+      </c>
+      <c r="AI202" s="9">
+        <v>10</v>
+      </c>
+      <c r="AJ202" s="9">
+        <v>55</v>
+      </c>
+      <c r="AK202" s="9">
+        <v>1755</v>
+      </c>
+      <c r="AL202" s="9">
+        <v>320</v>
+      </c>
+      <c r="AM202" s="9">
+        <v>925</v>
+      </c>
+      <c r="AN202" s="9">
+        <v>375</v>
+      </c>
+      <c r="AO202" s="9">
+        <v>55</v>
+      </c>
+      <c r="AP202" s="9">
+        <v>1755</v>
+      </c>
+      <c r="AQ202" s="9">
+        <v>75</v>
+      </c>
+      <c r="AR202" s="9">
+        <v>265</v>
+      </c>
+      <c r="AS202" s="9">
+        <v>580</v>
+      </c>
+      <c r="AT202" s="9">
+        <v>380</v>
+      </c>
+      <c r="AU202" s="9">
+        <v>220</v>
+      </c>
+      <c r="AV202" s="9">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="203" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A203" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="B203" s="9">
         <v>715</v>
       </c>
-      <c r="C202" s="9">
+      <c r="C203" s="9">
         <v>120</v>
       </c>
-      <c r="D202" s="9">
+      <c r="D203" s="9">
         <v>50</v>
       </c>
-      <c r="E202" s="9">
-        <v>0</v>
-      </c>
-      <c r="F202" s="9">
+      <c r="E203" s="9">
+        <v>0</v>
+      </c>
+      <c r="F203" s="9">
         <v>595</v>
       </c>
-      <c r="G202" s="9">
+      <c r="G203" s="9">
         <v>430</v>
       </c>
-      <c r="H202" s="9">
+      <c r="H203" s="9">
         <v>380</v>
       </c>
-      <c r="I202" s="9">
+      <c r="I203" s="9">
         <v>30</v>
       </c>
-      <c r="J202" s="9">
+      <c r="J203" s="9">
         <v>50</v>
       </c>
-      <c r="K202" s="9">
+      <c r="K203" s="9">
         <v>45200</v>
       </c>
-      <c r="L202" s="9">
+      <c r="L203" s="9">
         <v>112000</v>
       </c>
-      <c r="M202" s="9">
+      <c r="M203" s="9">
         <v>260</v>
       </c>
-      <c r="N202" s="9">
-        <v>0</v>
-      </c>
-      <c r="O202" s="9">
-        <v>0</v>
-      </c>
-      <c r="P202" s="9">
+      <c r="N203" s="9">
+        <v>0</v>
+      </c>
+      <c r="O203" s="9">
+        <v>0</v>
+      </c>
+      <c r="P203" s="9">
         <v>715</v>
       </c>
-      <c r="Q202" s="9">
-        <v>0</v>
-      </c>
-      <c r="R202" s="9">
+      <c r="Q203" s="9">
+        <v>0</v>
+      </c>
+      <c r="R203" s="9">
         <v>140</v>
       </c>
-      <c r="S202" s="9">
-        <v>0</v>
-      </c>
-      <c r="T202" s="9">
+      <c r="S203" s="9">
+        <v>0</v>
+      </c>
+      <c r="T203" s="9">
         <v>520</v>
       </c>
-      <c r="U202" s="9">
-        <v>0</v>
-      </c>
-      <c r="V202" s="9">
+      <c r="U203" s="9">
+        <v>0</v>
+      </c>
+      <c r="V203" s="9">
         <v>55</v>
       </c>
-      <c r="W202" s="9">
-        <v>0</v>
-      </c>
-      <c r="X202" s="9">
+      <c r="W203" s="9">
+        <v>0</v>
+      </c>
+      <c r="X203" s="9">
         <v>265</v>
       </c>
-      <c r="Y202" s="9">
+      <c r="Y203" s="9">
         <v>215</v>
       </c>
-      <c r="Z202" s="9">
+      <c r="Z203" s="9">
         <v>245</v>
       </c>
-      <c r="AA202" s="9">
+      <c r="AA203" s="9">
         <v>15</v>
       </c>
-      <c r="AB202" s="10">
+      <c r="AB203" s="10">
         <v>0.18</v>
       </c>
-      <c r="AC202" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD202" s="9">
+      <c r="AC203" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD203" s="9">
         <v>295</v>
       </c>
-      <c r="AE202" s="9">
+      <c r="AE203" s="9">
         <v>215</v>
       </c>
-      <c r="AF202" s="9">
+      <c r="AF203" s="9">
         <v>25</v>
       </c>
-      <c r="AG202" s="9">
+      <c r="AG203" s="9">
         <v>45</v>
       </c>
-      <c r="AH202" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI202" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ202" s="9">
-        <v>0</v>
-      </c>
-      <c r="AK202" s="9">
+      <c r="AH203" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI203" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ203" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK203" s="9">
         <v>295</v>
       </c>
-      <c r="AL202" s="9">
+      <c r="AL203" s="9">
         <v>50</v>
       </c>
-      <c r="AM202" s="9">
+      <c r="AM203" s="9">
         <v>145</v>
       </c>
-      <c r="AN202" s="9">
+      <c r="AN203" s="9">
         <v>45</v>
       </c>
-      <c r="AO202" s="9">
+      <c r="AO203" s="9">
         <v>30</v>
       </c>
-      <c r="AP202" s="9">
+      <c r="AP203" s="9">
         <v>295</v>
       </c>
-      <c r="AQ202" s="9">
+      <c r="AQ203" s="9">
         <v>10</v>
       </c>
-      <c r="AR202" s="9">
+      <c r="AR203" s="9">
         <v>20</v>
       </c>
-      <c r="AS202" s="9">
+      <c r="AS203" s="9">
         <v>95</v>
       </c>
-      <c r="AT202" s="9">
+      <c r="AT203" s="9">
         <v>75</v>
       </c>
-      <c r="AU202" s="9">
+      <c r="AU203" s="9">
         <v>60</v>
       </c>
-      <c r="AV202" s="9">
+      <c r="AV203" s="9">
         <v>35</v>
       </c>
     </row>
-    <row r="203" spans="1:48">
-      <c r="A203" s="9"/>
-      <c r="B203" s="9"/>
-      <c r="C203" s="9"/>
-      <c r="D203" s="9"/>
-      <c r="E203" s="9"/>
-      <c r="F203" s="9"/>
-      <c r="G203" s="9"/>
-      <c r="H203" s="9"/>
-      <c r="I203" s="9"/>
-      <c r="J203" s="9"/>
-      <c r="K203" s="9"/>
-      <c r="L203" s="9"/>
-      <c r="M203" s="9"/>
-      <c r="N203" s="9"/>
-      <c r="O203" s="9"/>
-      <c r="P203" s="9"/>
-      <c r="Q203" s="9"/>
-      <c r="R203" s="9"/>
-      <c r="S203" s="9"/>
-      <c r="T203" s="9"/>
-      <c r="U203" s="9"/>
-      <c r="V203" s="9"/>
-      <c r="W203" s="9"/>
-      <c r="X203" s="9"/>
-      <c r="Y203" s="9"/>
-      <c r="Z203" s="9"/>
-      <c r="AA203" s="9"/>
-      <c r="AD203" s="9"/>
-      <c r="AE203" s="9"/>
-      <c r="AF203" s="9"/>
-      <c r="AG203" s="9"/>
-      <c r="AH203" s="9"/>
-      <c r="AI203" s="9"/>
-      <c r="AJ203" s="9"/>
-      <c r="AK203" s="9"/>
-      <c r="AL203" s="9"/>
-      <c r="AM203" s="9"/>
-      <c r="AN203" s="9"/>
-      <c r="AO203" s="9"/>
-      <c r="AP203" s="9"/>
-      <c r="AQ203" s="9"/>
-      <c r="AR203" s="9"/>
-      <c r="AS203" s="9"/>
-      <c r="AT203" s="9"/>
-      <c r="AU203" s="9"/>
-      <c r="AV203" s="9"/>
-    </row>
-    <row r="204" spans="1:48">
+    <row r="204" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A204" s="9"/>
       <c r="B204" s="9"/>
       <c r="C204" s="9"/>
@@ -31683,7 +31788,7 @@
       <c r="AU204" s="9"/>
       <c r="AV204" s="9"/>
     </row>
-    <row r="205" spans="1:48">
+    <row r="205" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A205" s="9"/>
       <c r="B205" s="9"/>
       <c r="C205" s="9"/>
@@ -31731,7 +31836,7 @@
       <c r="AU205" s="9"/>
       <c r="AV205" s="9"/>
     </row>
-    <row r="206" spans="1:48">
+    <row r="206" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A206" s="9"/>
       <c r="B206" s="9"/>
       <c r="C206" s="9"/>
@@ -31779,7 +31884,7 @@
       <c r="AU206" s="9"/>
       <c r="AV206" s="9"/>
     </row>
-    <row r="207" spans="1:48">
+    <row r="207" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A207" s="9"/>
       <c r="B207" s="9"/>
       <c r="C207" s="9"/>
@@ -31827,7 +31932,7 @@
       <c r="AU207" s="9"/>
       <c r="AV207" s="9"/>
     </row>
-    <row r="208" spans="1:48">
+    <row r="208" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A208" s="9"/>
       <c r="B208" s="9"/>
       <c r="C208" s="9"/>
@@ -31875,7 +31980,7 @@
       <c r="AU208" s="9"/>
       <c r="AV208" s="9"/>
     </row>
-    <row r="209" spans="1:48">
+    <row r="209" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A209" s="9"/>
       <c r="B209" s="9"/>
       <c r="C209" s="9"/>
@@ -31923,7 +32028,7 @@
       <c r="AU209" s="9"/>
       <c r="AV209" s="9"/>
     </row>
-    <row r="210" spans="1:48">
+    <row r="210" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A210" s="9"/>
       <c r="B210" s="9"/>
       <c r="C210" s="9"/>
@@ -31971,7 +32076,7 @@
       <c r="AU210" s="9"/>
       <c r="AV210" s="9"/>
     </row>
-    <row r="211" spans="1:48">
+    <row r="211" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A211" s="9"/>
       <c r="B211" s="9"/>
       <c r="C211" s="9"/>
@@ -32019,7 +32124,7 @@
       <c r="AU211" s="9"/>
       <c r="AV211" s="9"/>
     </row>
-    <row r="212" spans="1:48">
+    <row r="212" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A212" s="9"/>
       <c r="B212" s="9"/>
       <c r="C212" s="9"/>
@@ -32067,7 +32172,7 @@
       <c r="AU212" s="9"/>
       <c r="AV212" s="9"/>
     </row>
-    <row r="213" spans="1:48">
+    <row r="213" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A213" s="9"/>
       <c r="B213" s="9"/>
       <c r="C213" s="9"/>
@@ -32115,7 +32220,7 @@
       <c r="AU213" s="9"/>
       <c r="AV213" s="9"/>
     </row>
-    <row r="214" spans="1:48">
+    <row r="214" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A214" s="9"/>
       <c r="B214" s="9"/>
       <c r="C214" s="9"/>
@@ -32163,7 +32268,7 @@
       <c r="AU214" s="9"/>
       <c r="AV214" s="9"/>
     </row>
-    <row r="215" spans="1:48">
+    <row r="215" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A215" s="9"/>
       <c r="B215" s="9"/>
       <c r="C215" s="9"/>
@@ -32211,7 +32316,7 @@
       <c r="AU215" s="9"/>
       <c r="AV215" s="9"/>
     </row>
-    <row r="216" spans="1:48">
+    <row r="216" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A216" s="9"/>
       <c r="B216" s="9"/>
       <c r="C216" s="9"/>
@@ -32259,7 +32364,7 @@
       <c r="AU216" s="9"/>
       <c r="AV216" s="9"/>
     </row>
-    <row r="217" spans="1:48">
+    <row r="217" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A217" s="9"/>
       <c r="B217" s="9"/>
       <c r="C217" s="9"/>
@@ -32307,7 +32412,7 @@
       <c r="AU217" s="9"/>
       <c r="AV217" s="9"/>
     </row>
-    <row r="218" spans="1:48">
+    <row r="218" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A218" s="9"/>
       <c r="B218" s="9"/>
       <c r="C218" s="9"/>
@@ -32355,7 +32460,7 @@
       <c r="AU218" s="9"/>
       <c r="AV218" s="9"/>
     </row>
-    <row r="219" spans="1:48">
+    <row r="219" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A219" s="9"/>
       <c r="B219" s="9"/>
       <c r="C219" s="9"/>
@@ -32403,7 +32508,7 @@
       <c r="AU219" s="9"/>
       <c r="AV219" s="9"/>
     </row>
-    <row r="220" spans="1:48">
+    <row r="220" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A220" s="9"/>
       <c r="B220" s="9"/>
       <c r="C220" s="9"/>
@@ -32451,7 +32556,7 @@
       <c r="AU220" s="9"/>
       <c r="AV220" s="9"/>
     </row>
-    <row r="221" spans="1:48">
+    <row r="221" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A221" s="9"/>
       <c r="B221" s="9"/>
       <c r="C221" s="9"/>
@@ -32499,7 +32604,7 @@
       <c r="AU221" s="9"/>
       <c r="AV221" s="9"/>
     </row>
-    <row r="222" spans="1:48">
+    <row r="222" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A222" s="9"/>
       <c r="B222" s="9"/>
       <c r="C222" s="9"/>
@@ -32547,7 +32652,7 @@
       <c r="AU222" s="9"/>
       <c r="AV222" s="9"/>
     </row>
-    <row r="223" spans="1:48">
+    <row r="223" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A223" s="9"/>
       <c r="B223" s="9"/>
       <c r="C223" s="9"/>
@@ -32595,7 +32700,7 @@
       <c r="AU223" s="9"/>
       <c r="AV223" s="9"/>
     </row>
-    <row r="224" spans="1:48">
+    <row r="224" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A224" s="9"/>
       <c r="B224" s="9"/>
       <c r="C224" s="9"/>
@@ -32643,7 +32748,7 @@
       <c r="AU224" s="9"/>
       <c r="AV224" s="9"/>
     </row>
-    <row r="225" spans="1:48">
+    <row r="225" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A225" s="9"/>
       <c r="B225" s="9"/>
       <c r="C225" s="9"/>
@@ -32691,7 +32796,7 @@
       <c r="AU225" s="9"/>
       <c r="AV225" s="9"/>
     </row>
-    <row r="226" spans="1:48">
+    <row r="226" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A226" s="9"/>
       <c r="B226" s="9"/>
       <c r="C226" s="9"/>
@@ -32739,7 +32844,7 @@
       <c r="AU226" s="9"/>
       <c r="AV226" s="9"/>
     </row>
-    <row r="227" spans="1:48">
+    <row r="227" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A227" s="9"/>
       <c r="B227" s="9"/>
       <c r="C227" s="9"/>
@@ -32787,7 +32892,7 @@
       <c r="AU227" s="9"/>
       <c r="AV227" s="9"/>
     </row>
-    <row r="228" spans="1:48">
+    <row r="228" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A228" s="9"/>
       <c r="B228" s="9"/>
       <c r="C228" s="9"/>
@@ -32835,7 +32940,7 @@
       <c r="AU228" s="9"/>
       <c r="AV228" s="9"/>
     </row>
-    <row r="229" spans="1:48">
+    <row r="229" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A229" s="9"/>
       <c r="B229" s="9"/>
       <c r="C229" s="9"/>
@@ -32883,7 +32988,7 @@
       <c r="AU229" s="9"/>
       <c r="AV229" s="9"/>
     </row>
-    <row r="230" spans="1:48">
+    <row r="230" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A230" s="9"/>
       <c r="B230" s="9"/>
       <c r="C230" s="9"/>
@@ -32931,7 +33036,7 @@
       <c r="AU230" s="9"/>
       <c r="AV230" s="9"/>
     </row>
-    <row r="231" spans="1:48">
+    <row r="231" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A231" s="9"/>
       <c r="B231" s="9"/>
       <c r="C231" s="9"/>
@@ -32979,7 +33084,7 @@
       <c r="AU231" s="9"/>
       <c r="AV231" s="9"/>
     </row>
-    <row r="232" spans="1:48">
+    <row r="232" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A232" s="9"/>
       <c r="B232" s="9"/>
       <c r="C232" s="9"/>
@@ -33027,7 +33132,7 @@
       <c r="AU232" s="9"/>
       <c r="AV232" s="9"/>
     </row>
-    <row r="233" spans="1:48">
+    <row r="233" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A233" s="9"/>
       <c r="B233" s="9"/>
       <c r="C233" s="9"/>
@@ -33075,7 +33180,7 @@
       <c r="AU233" s="9"/>
       <c r="AV233" s="9"/>
     </row>
-    <row r="234" spans="1:48">
+    <row r="234" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A234" s="9"/>
       <c r="B234" s="9"/>
       <c r="C234" s="9"/>
@@ -33123,7 +33228,7 @@
       <c r="AU234" s="9"/>
       <c r="AV234" s="9"/>
     </row>
-    <row r="235" spans="1:48">
+    <row r="235" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A235" s="9"/>
       <c r="B235" s="9"/>
       <c r="C235" s="9"/>
@@ -33171,7 +33276,7 @@
       <c r="AU235" s="9"/>
       <c r="AV235" s="9"/>
     </row>
-    <row r="236" spans="1:48">
+    <row r="236" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A236" s="9"/>
       <c r="B236" s="9"/>
       <c r="C236" s="9"/>
@@ -33219,7 +33324,7 @@
       <c r="AU236" s="9"/>
       <c r="AV236" s="9"/>
     </row>
-    <row r="237" spans="1:48">
+    <row r="237" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A237" s="9"/>
       <c r="B237" s="9"/>
       <c r="C237" s="9"/>
@@ -33267,7 +33372,7 @@
       <c r="AU237" s="9"/>
       <c r="AV237" s="9"/>
     </row>
-    <row r="238" spans="1:48">
+    <row r="238" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A238" s="9"/>
       <c r="B238" s="9"/>
       <c r="C238" s="9"/>
@@ -33315,7 +33420,7 @@
       <c r="AU238" s="9"/>
       <c r="AV238" s="9"/>
     </row>
-    <row r="239" spans="1:48">
+    <row r="239" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A239" s="9"/>
       <c r="B239" s="9"/>
       <c r="C239" s="9"/>
@@ -33363,7 +33468,7 @@
       <c r="AU239" s="9"/>
       <c r="AV239" s="9"/>
     </row>
-    <row r="240" spans="1:48">
+    <row r="240" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A240" s="9"/>
       <c r="B240" s="9"/>
       <c r="C240" s="9"/>
@@ -33411,7 +33516,7 @@
       <c r="AU240" s="9"/>
       <c r="AV240" s="9"/>
     </row>
-    <row r="241" spans="1:48">
+    <row r="241" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A241" s="9"/>
       <c r="B241" s="9"/>
       <c r="C241" s="9"/>
@@ -33459,7 +33564,7 @@
       <c r="AU241" s="9"/>
       <c r="AV241" s="9"/>
     </row>
-    <row r="242" spans="1:48">
+    <row r="242" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A242" s="9"/>
       <c r="B242" s="9"/>
       <c r="C242" s="9"/>
@@ -33507,7 +33612,7 @@
       <c r="AU242" s="9"/>
       <c r="AV242" s="9"/>
     </row>
-    <row r="243" spans="1:48">
+    <row r="243" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A243" s="9"/>
       <c r="B243" s="9"/>
       <c r="C243" s="9"/>
@@ -33555,7 +33660,7 @@
       <c r="AU243" s="9"/>
       <c r="AV243" s="9"/>
     </row>
-    <row r="244" spans="1:48">
+    <row r="244" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A244" s="9"/>
       <c r="B244" s="9"/>
       <c r="C244" s="9"/>
@@ -33603,7 +33708,7 @@
       <c r="AU244" s="9"/>
       <c r="AV244" s="9"/>
     </row>
-    <row r="245" spans="1:48">
+    <row r="245" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A245" s="9"/>
       <c r="B245" s="9"/>
       <c r="C245" s="9"/>
@@ -33651,7 +33756,7 @@
       <c r="AU245" s="9"/>
       <c r="AV245" s="9"/>
     </row>
-    <row r="246" spans="1:48">
+    <row r="246" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A246" s="9"/>
       <c r="B246" s="9"/>
       <c r="C246" s="9"/>
@@ -33699,7 +33804,7 @@
       <c r="AU246" s="9"/>
       <c r="AV246" s="9"/>
     </row>
-    <row r="247" spans="1:48">
+    <row r="247" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A247" s="9"/>
       <c r="B247" s="9"/>
       <c r="C247" s="9"/>
@@ -33747,7 +33852,7 @@
       <c r="AU247" s="9"/>
       <c r="AV247" s="9"/>
     </row>
-    <row r="248" spans="1:48">
+    <row r="248" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A248" s="9"/>
       <c r="B248" s="9"/>
       <c r="C248" s="9"/>
@@ -33795,7 +33900,7 @@
       <c r="AU248" s="9"/>
       <c r="AV248" s="9"/>
     </row>
-    <row r="249" spans="1:48">
+    <row r="249" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A249" s="9"/>
       <c r="B249" s="9"/>
       <c r="C249" s="9"/>
@@ -33843,7 +33948,7 @@
       <c r="AU249" s="9"/>
       <c r="AV249" s="9"/>
     </row>
-    <row r="250" spans="1:48">
+    <row r="250" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A250" s="9"/>
       <c r="B250" s="9"/>
       <c r="C250" s="9"/>
@@ -33891,7 +33996,7 @@
       <c r="AU250" s="9"/>
       <c r="AV250" s="9"/>
     </row>
-    <row r="251" spans="1:48">
+    <row r="251" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A251" s="9"/>
       <c r="B251" s="9"/>
       <c r="C251" s="9"/>
@@ -33939,7 +34044,7 @@
       <c r="AU251" s="9"/>
       <c r="AV251" s="9"/>
     </row>
-    <row r="252" spans="1:48">
+    <row r="252" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A252" s="9"/>
       <c r="B252" s="9"/>
       <c r="C252" s="9"/>
@@ -33987,7 +34092,7 @@
       <c r="AU252" s="9"/>
       <c r="AV252" s="9"/>
     </row>
-    <row r="253" spans="1:48">
+    <row r="253" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A253" s="9"/>
       <c r="B253" s="9"/>
       <c r="C253" s="9"/>
@@ -34035,7 +34140,7 @@
       <c r="AU253" s="9"/>
       <c r="AV253" s="9"/>
     </row>
-    <row r="254" spans="1:48">
+    <row r="254" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A254" s="9"/>
       <c r="B254" s="9"/>
       <c r="C254" s="9"/>
@@ -34083,7 +34188,7 @@
       <c r="AU254" s="9"/>
       <c r="AV254" s="9"/>
     </row>
-    <row r="255" spans="1:48">
+    <row r="255" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A255" s="9"/>
       <c r="B255" s="9"/>
       <c r="C255" s="9"/>
@@ -34131,7 +34236,7 @@
       <c r="AU255" s="9"/>
       <c r="AV255" s="9"/>
     </row>
-    <row r="256" spans="1:48">
+    <row r="256" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A256" s="9"/>
       <c r="B256" s="9"/>
       <c r="C256" s="9"/>
@@ -34179,7 +34284,7 @@
       <c r="AU256" s="9"/>
       <c r="AV256" s="9"/>
     </row>
-    <row r="257" spans="1:48">
+    <row r="257" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A257" s="9"/>
       <c r="B257" s="9"/>
       <c r="C257" s="9"/>
@@ -34227,7 +34332,7 @@
       <c r="AU257" s="9"/>
       <c r="AV257" s="9"/>
     </row>
-    <row r="258" spans="1:48">
+    <row r="258" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A258" s="9"/>
       <c r="B258" s="9"/>
       <c r="C258" s="9"/>
@@ -34275,7 +34380,7 @@
       <c r="AU258" s="9"/>
       <c r="AV258" s="9"/>
     </row>
-    <row r="259" spans="1:48">
+    <row r="259" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A259" s="9"/>
       <c r="B259" s="9"/>
       <c r="C259" s="9"/>
@@ -34323,7 +34428,7 @@
       <c r="AU259" s="9"/>
       <c r="AV259" s="9"/>
     </row>
-    <row r="260" spans="1:48">
+    <row r="260" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A260" s="9"/>
       <c r="B260" s="9"/>
       <c r="C260" s="9"/>
@@ -34371,7 +34476,7 @@
       <c r="AU260" s="9"/>
       <c r="AV260" s="9"/>
     </row>
-    <row r="261" spans="1:48">
+    <row r="261" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A261" s="9"/>
       <c r="B261" s="9"/>
       <c r="C261" s="9"/>
@@ -34419,7 +34524,7 @@
       <c r="AU261" s="9"/>
       <c r="AV261" s="9"/>
     </row>
-    <row r="262" spans="1:48">
+    <row r="262" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A262" s="9"/>
       <c r="B262" s="9"/>
       <c r="C262" s="9"/>
@@ -34467,7 +34572,7 @@
       <c r="AU262" s="9"/>
       <c r="AV262" s="9"/>
     </row>
-    <row r="263" spans="1:48">
+    <row r="263" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A263" s="9"/>
       <c r="B263" s="9"/>
       <c r="C263" s="9"/>
@@ -34515,7 +34620,7 @@
       <c r="AU263" s="9"/>
       <c r="AV263" s="9"/>
     </row>
-    <row r="264" spans="1:48">
+    <row r="264" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A264" s="9"/>
       <c r="B264" s="9"/>
       <c r="C264" s="9"/>
@@ -34563,7 +34668,7 @@
       <c r="AU264" s="9"/>
       <c r="AV264" s="9"/>
     </row>
-    <row r="265" spans="1:48">
+    <row r="265" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A265" s="9"/>
       <c r="B265" s="9"/>
       <c r="C265" s="9"/>
@@ -34611,7 +34716,7 @@
       <c r="AU265" s="9"/>
       <c r="AV265" s="9"/>
     </row>
-    <row r="266" spans="1:48">
+    <row r="266" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A266" s="9"/>
       <c r="B266" s="9"/>
       <c r="C266" s="9"/>
@@ -34659,7 +34764,7 @@
       <c r="AU266" s="9"/>
       <c r="AV266" s="9"/>
     </row>
-    <row r="267" spans="1:48">
+    <row r="267" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A267" s="9"/>
       <c r="B267" s="9"/>
       <c r="C267" s="9"/>
@@ -34707,9 +34812,57 @@
       <c r="AU267" s="9"/>
       <c r="AV267" s="9"/>
     </row>
+    <row r="268" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A268" s="9"/>
+      <c r="B268" s="9"/>
+      <c r="C268" s="9"/>
+      <c r="D268" s="9"/>
+      <c r="E268" s="9"/>
+      <c r="F268" s="9"/>
+      <c r="G268" s="9"/>
+      <c r="H268" s="9"/>
+      <c r="I268" s="9"/>
+      <c r="J268" s="9"/>
+      <c r="K268" s="9"/>
+      <c r="L268" s="9"/>
+      <c r="M268" s="9"/>
+      <c r="N268" s="9"/>
+      <c r="O268" s="9"/>
+      <c r="P268" s="9"/>
+      <c r="Q268" s="9"/>
+      <c r="R268" s="9"/>
+      <c r="S268" s="9"/>
+      <c r="T268" s="9"/>
+      <c r="U268" s="9"/>
+      <c r="V268" s="9"/>
+      <c r="W268" s="9"/>
+      <c r="X268" s="9"/>
+      <c r="Y268" s="9"/>
+      <c r="Z268" s="9"/>
+      <c r="AA268" s="9"/>
+      <c r="AD268" s="9"/>
+      <c r="AE268" s="9"/>
+      <c r="AF268" s="9"/>
+      <c r="AG268" s="9"/>
+      <c r="AH268" s="9"/>
+      <c r="AI268" s="9"/>
+      <c r="AJ268" s="9"/>
+      <c r="AK268" s="9"/>
+      <c r="AL268" s="9"/>
+      <c r="AM268" s="9"/>
+      <c r="AN268" s="9"/>
+      <c r="AO268" s="9"/>
+      <c r="AP268" s="9"/>
+      <c r="AQ268" s="9"/>
+      <c r="AR268" s="9"/>
+      <c r="AS268" s="9"/>
+      <c r="AT268" s="9"/>
+      <c r="AU268" s="9"/>
+      <c r="AV268" s="9"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A267">
-    <cfRule type="duplicateValues" dxfId="50" priority="4"/>
+  <conditionalFormatting sqref="A2:A268">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Data Sets/Analysis Data/Community Profiles Compiled.xlsx
+++ b/Data Sets/Analysis Data/Community Profiles Compiled.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofc-my.sharepoint.com/personal/fahmid_kaisar_ucalgary_ca/Documents/Calgary Transit Repository/Data Sets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sulemanbasit/PycharmProjects/Calgary-Transit-Economic-Gap-Analysis/Data Sets/Analysis Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4302" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BA701C8-00B3-4343-A32B-8786D088487A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C48A320-F284-EB47-B657-E0513531F019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13380" yWindow="500" windowWidth="15420" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -452,9 +452,6 @@
     <t>Hillhurst</t>
   </si>
   <si>
-    <t>Hounsfeild Heights/Briar Hill</t>
-  </si>
-  <si>
     <t>Hungtington Hills</t>
   </si>
   <si>
@@ -798,6 +795,9 @@
   </si>
   <si>
     <t>Yorkville</t>
+  </si>
+  <si>
+    <t>Hounsfield Heights/Briar Hill</t>
   </si>
 </sst>
 </file>
@@ -1693,10 +1693,6 @@
 </externalLink>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0554B52F-7523-4D92-8A4F-3A541CFE75ED}" name="Table1" displayName="Table1" ref="A1:AV268" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49" dataCellStyle="Comma">
   <autoFilter ref="A1:AV268" xr:uid="{0554B52F-7523-4D92-8A4F-3A541CFE75ED}"/>
@@ -2056,8 +2052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15092,7 +15088,7 @@
     </row>
     <row r="90" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>137</v>
+        <v>252</v>
       </c>
       <c r="B90" s="7">
         <v>2470</v>
@@ -15238,7 +15234,7 @@
     </row>
     <row r="91" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B91" s="7">
         <v>13120</v>
@@ -15301,7 +15297,7 @@
         <v>940</v>
       </c>
       <c r="V91" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="W91" s="6">
         <v>220</v>
@@ -15384,7 +15380,7 @@
     </row>
     <row r="92" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B92" s="7">
         <v>4130</v>
@@ -15530,7 +15526,7 @@
     </row>
     <row r="93" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B93" s="7">
         <v>1805</v>
@@ -15676,7 +15672,7 @@
     </row>
     <row r="94" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B94" s="7">
         <v>7920</v>
@@ -15822,7 +15818,7 @@
     </row>
     <row r="95" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B95" s="7">
         <v>7030</v>
@@ -15968,7 +15964,7 @@
     </row>
     <row r="96" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B96" s="7">
         <v>4900</v>
@@ -16114,7 +16110,7 @@
     </row>
     <row r="97" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B97" s="7">
         <v>10145</v>
@@ -16260,7 +16256,7 @@
     </row>
     <row r="98" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B98" s="7">
         <v>5640</v>
@@ -16406,7 +16402,7 @@
     </row>
     <row r="99" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B99" s="7">
         <v>8100</v>
@@ -16552,7 +16548,7 @@
     </row>
     <row r="100" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B100" s="7">
         <v>1590</v>
@@ -16698,7 +16694,7 @@
     </row>
     <row r="101" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B101" s="7">
         <v>3985</v>
@@ -16844,7 +16840,7 @@
     </row>
     <row r="102" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B102" s="7">
         <v>2990</v>
@@ -16990,7 +16986,7 @@
     </row>
     <row r="103" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B103" s="7">
         <v>4740</v>
@@ -17136,7 +17132,7 @@
     </row>
     <row r="104" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B104" s="7">
         <v>13860</v>
@@ -17282,7 +17278,7 @@
     </row>
     <row r="105" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B105" s="6">
         <v>950</v>
@@ -17428,7 +17424,7 @@
     </row>
     <row r="106" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B106" s="7">
         <v>1830</v>
@@ -17574,7 +17570,7 @@
     </row>
     <row r="107" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B107" s="7">
         <v>8910</v>
@@ -17720,7 +17716,7 @@
     </row>
     <row r="108" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B108" s="7">
         <v>14540</v>
@@ -17866,7 +17862,7 @@
     </row>
     <row r="109" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B109" s="6">
         <v>410</v>
@@ -18012,7 +18008,7 @@
     </row>
     <row r="110" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B110" s="7">
         <v>5925</v>
@@ -18158,7 +18154,7 @@
     </row>
     <row r="111" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B111" s="7">
         <v>13290</v>
@@ -18304,7 +18300,7 @@
     </row>
     <row r="112" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B112" s="7">
         <v>17505</v>
@@ -18450,7 +18446,7 @@
     </row>
     <row r="113" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B113" s="6">
         <v>610</v>
@@ -18596,7 +18592,7 @@
     </row>
     <row r="114" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B114" s="7">
         <v>6480</v>
@@ -18742,7 +18738,7 @@
     </row>
     <row r="115" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B115" s="7">
         <v>6655</v>
@@ -18888,7 +18884,7 @@
     </row>
     <row r="116" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B116" s="7">
         <v>4505</v>
@@ -19034,7 +19030,7 @@
     </row>
     <row r="117" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B117" s="7">
         <v>10475</v>
@@ -19180,7 +19176,7 @@
     </row>
     <row r="118" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B118" s="7">
         <v>4175</v>
@@ -19326,7 +19322,7 @@
     </row>
     <row r="119" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B119" s="7">
         <v>6325</v>
@@ -19472,7 +19468,7 @@
     </row>
     <row r="120" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B120" s="7">
         <v>12885</v>
@@ -19618,7 +19614,7 @@
     </row>
     <row r="121" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B121" s="7">
         <v>8755</v>
@@ -19764,7 +19760,7 @@
     </row>
     <row r="122" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B122" s="7">
         <v>2435</v>
@@ -19910,7 +19906,7 @@
     </row>
     <row r="123" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B123" s="7">
         <v>2365</v>
@@ -20056,7 +20052,7 @@
     </row>
     <row r="124" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A124" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B124" s="9">
         <v>640</v>
@@ -20202,7 +20198,7 @@
     </row>
     <row r="125" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A125" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B125" s="9">
         <v>5620</v>
@@ -20348,7 +20344,7 @@
     </row>
     <row r="126" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A126" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B126" s="9">
         <v>8315</v>
@@ -20494,7 +20490,7 @@
     </row>
     <row r="127" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A127" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B127" s="9">
         <v>3285</v>
@@ -20640,7 +20636,7 @@
     </row>
     <row r="128" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A128" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B128" s="9">
         <v>25535</v>
@@ -20786,7 +20782,7 @@
     </row>
     <row r="129" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A129" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B129" s="9">
         <v>2300</v>
@@ -20932,7 +20928,7 @@
     </row>
     <row r="130" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A130" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B130" s="9">
         <v>1770</v>
@@ -21078,7 +21074,7 @@
     </row>
     <row r="131" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A131" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B131" s="9">
         <v>3430</v>
@@ -21224,7 +21220,7 @@
     </row>
     <row r="132" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A132" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B132" s="9">
         <v>4145</v>
@@ -21370,7 +21366,7 @@
     </row>
     <row r="133" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A133" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B133" s="9">
         <v>8235</v>
@@ -21516,7 +21512,7 @@
     </row>
     <row r="134" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A134" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B134" s="9">
         <v>245</v>
@@ -21552,43 +21548,43 @@
         <v>98000</v>
       </c>
       <c r="M134" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N134" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O134" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P134" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q134" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R134" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S134" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T134" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="U134" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V134" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="W134" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X134" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Y134" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Z134" s="12">
         <v>85</v>
@@ -21597,10 +21593,10 @@
         <v>0</v>
       </c>
       <c r="AB134" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AC134" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AD134" s="9">
         <v>85</v>
@@ -21662,7 +21658,7 @@
     </row>
     <row r="135" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A135" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B135" s="9">
         <v>9850</v>
@@ -21808,7 +21804,7 @@
     </row>
     <row r="136" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A136" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B136" s="9">
         <v>1330</v>
@@ -21954,7 +21950,7 @@
     </row>
     <row r="137" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A137" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B137" s="9">
         <v>1455</v>
@@ -22100,7 +22096,7 @@
     </row>
     <row r="138" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A138" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B138" s="9">
         <v>375</v>
@@ -22246,7 +22242,7 @@
     </row>
     <row r="139" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A139" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B139" s="9">
         <v>4585</v>
@@ -22392,7 +22388,7 @@
     </row>
     <row r="140" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A140" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B140" s="9">
         <v>2155</v>
@@ -22538,7 +22534,7 @@
     </row>
     <row r="141" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A141" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B141" s="9">
         <v>7490</v>
@@ -22684,7 +22680,7 @@
     </row>
     <row r="142" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A142" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B142" s="9">
         <v>1745</v>
@@ -22830,7 +22826,7 @@
     </row>
     <row r="143" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A143" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B143" s="9">
         <v>9050</v>
@@ -22976,7 +22972,7 @@
     </row>
     <row r="144" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A144" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B144" s="9">
         <v>6580</v>
@@ -23122,7 +23118,7 @@
     </row>
     <row r="145" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A145" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B145" s="9">
         <v>5250</v>
@@ -23268,7 +23264,7 @@
     </row>
     <row r="146" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A146" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B146" s="9">
         <v>675</v>
@@ -23414,7 +23410,7 @@
     </row>
     <row r="147" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A147" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B147" s="9">
         <v>9205</v>
@@ -23560,7 +23556,7 @@
     </row>
     <row r="148" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A148" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B148" s="9">
         <v>8195</v>
@@ -23706,7 +23702,7 @@
     </row>
     <row r="149" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A149" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B149" s="9">
         <v>1495</v>
@@ -23852,7 +23848,7 @@
     </row>
     <row r="150" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A150" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B150" s="9">
         <v>1155</v>
@@ -23998,7 +23994,7 @@
     </row>
     <row r="151" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A151" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B151" s="9">
         <v>3490</v>
@@ -24144,7 +24140,7 @@
     </row>
     <row r="152" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A152" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B152" s="9">
         <v>415</v>
@@ -24290,7 +24286,7 @@
     </row>
     <row r="153" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A153" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B153" s="9">
         <v>11580</v>
@@ -24436,7 +24432,7 @@
     </row>
     <row r="154" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A154" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B154" s="9">
         <v>10545</v>
@@ -24582,7 +24578,7 @@
     </row>
     <row r="155" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A155" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B155" s="9">
         <v>2140</v>
@@ -24728,7 +24724,7 @@
     </row>
     <row r="156" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A156" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B156" s="9">
         <v>24365</v>
@@ -24874,7 +24870,7 @@
     </row>
     <row r="157" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A157" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B157" s="9">
         <v>9345</v>
@@ -25020,7 +25016,7 @@
     </row>
     <row r="158" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A158" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B158" s="9">
         <v>5795</v>
@@ -25166,7 +25162,7 @@
     </row>
     <row r="159" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A159" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B159" s="9">
         <v>1010</v>
@@ -25312,7 +25308,7 @@
     </row>
     <row r="160" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A160" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B160" s="9">
         <v>465</v>
@@ -25458,7 +25454,7 @@
     </row>
     <row r="161" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A161" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B161" s="9">
         <v>7850</v>
@@ -25604,7 +25600,7 @@
     </row>
     <row r="162" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A162" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B162" s="9">
         <v>3590</v>
@@ -25750,7 +25746,7 @@
     </row>
     <row r="163" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A163" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B163" s="9">
         <v>1765</v>
@@ -25896,7 +25892,7 @@
     </row>
     <row r="164" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A164" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B164" s="9">
         <v>2020</v>
@@ -26042,7 +26038,7 @@
     </row>
     <row r="165" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A165" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B165" s="9">
         <v>9055</v>
@@ -26188,7 +26184,7 @@
     </row>
     <row r="166" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A166" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B166" s="9">
         <v>265</v>
@@ -26335,7 +26331,7 @@
     </row>
     <row r="167" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A167" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B167" s="9">
         <v>6520</v>
@@ -26482,7 +26478,7 @@
     </row>
     <row r="168" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A168" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B168" s="9">
         <v>13000</v>
@@ -26629,7 +26625,7 @@
     </row>
     <row r="169" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A169" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B169" s="9">
         <v>8570</v>
@@ -26776,7 +26772,7 @@
     </row>
     <row r="170" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A170" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B170" s="9">
         <v>12870</v>
@@ -26924,7 +26920,7 @@
     </row>
     <row r="171" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A171" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B171" s="9">
         <v>8320</v>
@@ -27070,7 +27066,7 @@
     </row>
     <row r="172" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A172" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B172" s="9">
         <v>4540</v>
@@ -27216,7 +27212,7 @@
     </row>
     <row r="173" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A173" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B173" s="9">
         <v>1550</v>
@@ -27362,7 +27358,7 @@
     </row>
     <row r="174" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A174" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B174" s="9">
         <v>6095</v>
@@ -27508,7 +27504,7 @@
     </row>
     <row r="175" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A175" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B175" s="9">
         <v>9840</v>
@@ -27654,7 +27650,7 @@
     </row>
     <row r="176" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A176" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B176" s="9">
         <v>4195</v>
@@ -27800,7 +27796,7 @@
     </row>
     <row r="177" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A177" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B177" s="9">
         <v>1345</v>
@@ -27946,7 +27942,7 @@
     </row>
     <row r="178" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A178" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B178" s="9">
         <v>6830</v>
@@ -28092,7 +28088,7 @@
     </row>
     <row r="179" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A179" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B179" s="9">
         <v>9590</v>
@@ -28238,7 +28234,7 @@
     </row>
     <row r="180" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A180" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B180" s="9">
         <v>4000</v>
@@ -28384,7 +28380,7 @@
     </row>
     <row r="181" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A181" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B181" s="9">
         <v>3090</v>
@@ -28530,7 +28526,7 @@
     </row>
     <row r="182" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A182" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B182" s="9">
         <v>17630</v>
@@ -28676,7 +28672,7 @@
     </row>
     <row r="183" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A183" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B183" s="9">
         <v>10525</v>
@@ -28822,7 +28818,7 @@
     </row>
     <row r="184" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A184" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B184" s="9">
         <v>8695</v>
@@ -28968,7 +28964,7 @@
     </row>
     <row r="185" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A185" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B185" s="9">
         <v>19700</v>
@@ -29114,7 +29110,7 @@
     </row>
     <row r="186" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A186" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B186" s="9">
         <v>5165</v>
@@ -29260,7 +29256,7 @@
     </row>
     <row r="187" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A187" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B187" s="9">
         <v>2965</v>
@@ -29406,7 +29402,7 @@
     </row>
     <row r="188" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A188" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B188" s="9">
         <v>2735</v>
@@ -29552,7 +29548,7 @@
     </row>
     <row r="189" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A189" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B189" s="9">
         <v>5365</v>
@@ -29698,7 +29694,7 @@
     </row>
     <row r="190" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A190" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B190" s="9">
         <v>12040</v>
@@ -29844,7 +29840,7 @@
     </row>
     <row r="191" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A191" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B191" s="9">
         <v>7650</v>
@@ -29990,7 +29986,7 @@
     </row>
     <row r="192" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A192" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B192" s="9">
         <v>6635</v>
@@ -30136,7 +30132,7 @@
     </row>
     <row r="193" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A193" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B193" s="9">
         <v>11560</v>
@@ -30282,7 +30278,7 @@
     </row>
     <row r="194" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A194" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B194" s="9">
         <v>3225</v>
@@ -30428,7 +30424,7 @@
     </row>
     <row r="195" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A195" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B195" s="9">
         <v>11085</v>
@@ -30574,7 +30570,7 @@
     </row>
     <row r="196" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A196" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B196" s="9">
         <v>2765</v>
@@ -30720,7 +30716,7 @@
     </row>
     <row r="197" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A197" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B197" s="9">
         <v>5090</v>
@@ -30866,7 +30862,7 @@
     </row>
     <row r="198" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A198" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B198" s="9">
         <v>4410</v>
@@ -31012,7 +31008,7 @@
     </row>
     <row r="199" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A199" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B199" s="9">
         <v>3605</v>
@@ -31158,7 +31154,7 @@
     </row>
     <row r="200" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A200" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B200" s="9">
         <v>525</v>
@@ -31304,7 +31300,7 @@
     </row>
     <row r="201" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A201" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B201" s="9">
         <v>8745</v>
@@ -31450,7 +31446,7 @@
     </row>
     <row r="202" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A202" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B202" s="9">
         <v>5830</v>
@@ -31596,7 +31592,7 @@
     </row>
     <row r="203" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A203" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B203" s="9">
         <v>715</v>
